--- a/nouns/Шаблоны СУЩЕСТВИТЕЛЬНОЕ.xlsx
+++ b/nouns/Шаблоны СУЩЕСТВИТЕЛЬНОЕ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5720AE7D-1ED2-4745-A56E-C0DAA177AA15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE3420F-5145-4947-A45F-2AB97970C908}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="20700" windowHeight="11140" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="413">
   <si>
     <t>~а</t>
   </si>
@@ -2712,17 +2712,98 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2730,206 +2811,125 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3417,7 +3417,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="220" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="118" t="s">
@@ -3473,7 +3473,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="225"/>
+      <c r="A5" s="221"/>
       <c r="B5" s="116" t="s">
         <v>0</v>
       </c>
@@ -3583,13 +3583,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="212" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="204" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="121" t="s">
@@ -3622,7 +3622,7 @@
       <c r="M7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="213" t="s">
+      <c r="N7" s="204" t="s">
         <v>49</v>
       </c>
       <c r="O7" s="119" t="s">
@@ -3634,16 +3634,16 @@
       <c r="Q7" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="211" t="s">
+      <c r="R7" s="207" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="204"/>
+      <c r="A8" s="213"/>
       <c r="B8" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="213"/>
+      <c r="C8" s="204"/>
       <c r="D8" s="119" t="s">
         <v>49</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="M8" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="213"/>
+      <c r="N8" s="204"/>
       <c r="O8" s="119" t="s">
         <v>49</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="Q8" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="211"/>
+      <c r="R8" s="207"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -3856,7 +3856,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="221" t="s">
+      <c r="A14" s="220" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="118" t="s">
@@ -3885,7 +3885,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="225"/>
+      <c r="A15" s="221"/>
       <c r="B15" s="118" t="s">
         <v>8</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="F18" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="220" t="s">
+      <c r="G18" s="209" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="120" t="s">
@@ -4002,26 +4002,26 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="203" t="s">
+      <c r="A19" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="220" t="s">
+      <c r="C19" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="220" t="s">
+      <c r="D19" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="220" t="s">
+      <c r="E19" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="220" t="s">
+      <c r="F19" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220" t="s">
+      <c r="G19" s="209"/>
+      <c r="H19" s="209" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="120" t="s">
@@ -4032,14 +4032,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="204"/>
-      <c r="B20" s="220"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="220"/>
-      <c r="H20" s="220"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
+      <c r="H20" s="209"/>
       <c r="I20" s="120" t="s">
         <v>13</v>
       </c>
@@ -4122,7 +4122,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="226" t="s">
+      <c r="A25" s="222" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4145,7 +4145,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="226"/>
+      <c r="A26" s="222"/>
       <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
@@ -4212,22 +4212,22 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="223" t="s">
+      <c r="A29" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="212" t="s">
+      <c r="C29" s="208" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="205" t="s">
+      <c r="D29" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="202" t="s">
+      <c r="E29" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="202" t="s">
+      <c r="F29" s="206" t="s">
         <v>4</v>
       </c>
       <c r="G29" s="116" t="s">
@@ -4238,12 +4238,12 @@
       </c>
     </row>
     <row r="30" spans="1:10" s="122" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="224"/>
-      <c r="B30" s="202"/>
-      <c r="C30" s="212"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
+      <c r="A30" s="227"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
       <c r="G30" s="116" t="s">
         <v>12</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="146" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="221" t="s">
+      <c r="A35" s="220" t="s">
         <v>376</v>
       </c>
       <c r="B35" s="151" t="s">
@@ -4335,10 +4335,10 @@
       <c r="C35" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="D35" s="213" t="s">
+      <c r="D35" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="227" t="s">
+      <c r="E35" s="223" t="s">
         <v>394</v>
       </c>
       <c r="F35" s="144"/>
@@ -4350,17 +4350,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" s="146" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="225"/>
+      <c r="A36" s="221"/>
       <c r="B36" s="152" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="140" t="s">
         <v>361</v>
       </c>
-      <c r="D36" s="213"/>
-      <c r="E36" s="227"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="223"/>
       <c r="F36" s="144"/>
-      <c r="H36" s="203" t="s">
+      <c r="H36" s="212" t="s">
         <v>377</v>
       </c>
       <c r="I36" s="178" t="s">
@@ -4368,13 +4368,13 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="146" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="203" t="s">
+      <c r="A37" s="212" t="s">
         <v>377</v>
       </c>
-      <c r="B37" s="205" t="s">
+      <c r="B37" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="205" t="s">
+      <c r="C37" s="210" t="s">
         <v>362</v>
       </c>
       <c r="D37" s="142" t="s">
@@ -4384,15 +4384,15 @@
         <v>393</v>
       </c>
       <c r="F37" s="144"/>
-      <c r="H37" s="204"/>
+      <c r="H37" s="213"/>
       <c r="I37" s="178" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="146" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="204"/>
-      <c r="B38" s="205"/>
-      <c r="C38" s="205"/>
+      <c r="A38" s="213"/>
+      <c r="B38" s="210"/>
+      <c r="C38" s="210"/>
       <c r="D38" s="142" t="s">
         <v>3</v>
       </c>
@@ -4432,13 +4432,13 @@
       </c>
     </row>
     <row r="40" spans="1:9" s="146" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="203" t="s">
+      <c r="A40" s="212" t="s">
         <v>379</v>
       </c>
-      <c r="B40" s="205" t="s">
+      <c r="B40" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="205" t="s">
+      <c r="C40" s="210" t="s">
         <v>363</v>
       </c>
       <c r="D40" s="145" t="s">
@@ -4458,9 +4458,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="146" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="204"/>
-      <c r="B41" s="205"/>
-      <c r="C41" s="205"/>
+      <c r="A41" s="213"/>
+      <c r="B41" s="210"/>
+      <c r="C41" s="210"/>
       <c r="D41" s="143" t="s">
         <v>10</v>
       </c>
@@ -4510,112 +4510,112 @@
       <c r="G43" s="144"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B44" s="222" t="s">
+      <c r="B44" s="224" t="s">
         <v>314</v>
       </c>
-      <c r="C44" s="222"/>
-      <c r="D44" s="222" t="s">
+      <c r="C44" s="224"/>
+      <c r="D44" s="224" t="s">
         <v>313</v>
       </c>
-      <c r="E44" s="222"/>
-      <c r="F44" s="214" t="s">
+      <c r="E44" s="224"/>
+      <c r="F44" s="228" t="s">
         <v>320</v>
       </c>
-      <c r="G44" s="214"/>
+      <c r="G44" s="228"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="218" t="s">
+      <c r="B45" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="218"/>
-      <c r="D45" s="218" t="s">
+      <c r="C45" s="225"/>
+      <c r="D45" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="218"/>
-      <c r="F45" s="215" t="s">
+      <c r="E45" s="225"/>
+      <c r="F45" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="G45" s="215"/>
+      <c r="G45" s="229"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="221" t="s">
+      <c r="A46" s="220" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="202" t="s">
+      <c r="B46" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="202"/>
-      <c r="D46" s="202" t="s">
+      <c r="C46" s="206"/>
+      <c r="D46" s="206" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="202"/>
-      <c r="F46" s="205" t="s">
+      <c r="E46" s="206"/>
+      <c r="F46" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="205"/>
+      <c r="G46" s="210"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="221"/>
-      <c r="B47" s="202" t="s">
+      <c r="A47" s="220"/>
+      <c r="B47" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202" t="s">
+      <c r="C47" s="206"/>
+      <c r="D47" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="202"/>
-      <c r="F47" s="205" t="s">
+      <c r="E47" s="206"/>
+      <c r="F47" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="205"/>
+      <c r="G47" s="210"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="202" t="s">
+      <c r="B48" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="202"/>
-      <c r="D48" s="202" t="s">
+      <c r="C48" s="206"/>
+      <c r="D48" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="E48" s="202"/>
-      <c r="F48" s="220" t="s">
+      <c r="E48" s="206"/>
+      <c r="F48" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="220"/>
+      <c r="G48" s="209"/>
     </row>
     <row r="49" spans="1:18" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="203" t="s">
+      <c r="A49" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="213" t="s">
+      <c r="B49" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="213"/>
-      <c r="D49" s="213" t="s">
+      <c r="C49" s="204"/>
+      <c r="D49" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="213"/>
-      <c r="F49" s="220" t="s">
+      <c r="E49" s="204"/>
+      <c r="F49" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="220"/>
+      <c r="G49" s="209"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A50" s="204"/>
-      <c r="B50" s="219" t="s">
+      <c r="A50" s="213"/>
+      <c r="B50" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="219"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="213"/>
-      <c r="F50" s="220"/>
-      <c r="G50" s="220"/>
+      <c r="C50" s="232"/>
+      <c r="D50" s="204"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="209"/>
+      <c r="G50" s="209"/>
       <c r="L50" s="146"/>
       <c r="M50" s="146"/>
       <c r="N50" s="146"/>
@@ -4625,21 +4625,21 @@
       <c r="R50" s="146"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A51" s="230" t="s">
+      <c r="A51" s="218" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="202" t="s">
+      <c r="B51" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="202"/>
-      <c r="D51" s="202" t="s">
+      <c r="C51" s="206"/>
+      <c r="D51" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="202"/>
-      <c r="F51" s="220" t="s">
+      <c r="E51" s="206"/>
+      <c r="F51" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="220"/>
+      <c r="G51" s="209"/>
       <c r="H51" s="167" t="s">
         <v>27</v>
       </c>
@@ -4652,15 +4652,15 @@
       <c r="R51" s="146"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A52" s="231"/>
-      <c r="B52" s="202"/>
-      <c r="C52" s="202"/>
-      <c r="D52" s="202"/>
-      <c r="E52" s="202"/>
-      <c r="F52" s="220" t="s">
+      <c r="A52" s="219"/>
+      <c r="B52" s="206"/>
+      <c r="C52" s="206"/>
+      <c r="D52" s="206"/>
+      <c r="E52" s="206"/>
+      <c r="F52" s="209" t="s">
         <v>10</v>
       </c>
-      <c r="G52" s="220"/>
+      <c r="G52" s="209"/>
       <c r="H52" s="167" t="s">
         <v>28</v>
       </c>
@@ -4673,21 +4673,21 @@
       <c r="R52" s="146"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A53" s="230" t="s">
+      <c r="A53" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="B53" s="202" t="s">
+      <c r="B53" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="202"/>
-      <c r="D53" s="202" t="s">
+      <c r="C53" s="206"/>
+      <c r="D53" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="202"/>
-      <c r="F53" s="220" t="s">
+      <c r="E53" s="206"/>
+      <c r="F53" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="220"/>
+      <c r="G53" s="209"/>
       <c r="H53" s="167" t="s">
         <v>57</v>
       </c>
@@ -4700,15 +4700,15 @@
       <c r="R53" s="146"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A54" s="231"/>
-      <c r="B54" s="202"/>
-      <c r="C54" s="202"/>
-      <c r="D54" s="202"/>
-      <c r="E54" s="202"/>
-      <c r="F54" s="220" t="s">
+      <c r="A54" s="219"/>
+      <c r="B54" s="206"/>
+      <c r="C54" s="206"/>
+      <c r="D54" s="206"/>
+      <c r="E54" s="206"/>
+      <c r="F54" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="220"/>
+      <c r="G54" s="209"/>
       <c r="H54" s="167" t="s">
         <v>72</v>
       </c>
@@ -4724,18 +4724,18 @@
       <c r="A55" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="202" t="s">
+      <c r="B55" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="202"/>
-      <c r="D55" s="202" t="s">
+      <c r="C55" s="206"/>
+      <c r="D55" s="206" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="202"/>
-      <c r="F55" s="211" t="s">
+      <c r="E55" s="206"/>
+      <c r="F55" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="211"/>
+      <c r="G55" s="207"/>
       <c r="L55" s="146"/>
       <c r="M55" s="146"/>
       <c r="N55" s="146"/>
@@ -4755,26 +4755,26 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" s="122"/>
-      <c r="B57" s="216" t="s">
+      <c r="B57" s="230" t="s">
         <v>309</v>
       </c>
-      <c r="C57" s="217"/>
-      <c r="D57" s="216" t="s">
+      <c r="C57" s="231"/>
+      <c r="D57" s="230" t="s">
         <v>317</v>
       </c>
-      <c r="E57" s="217"/>
-      <c r="F57" s="232" t="s">
+      <c r="E57" s="231"/>
+      <c r="F57" s="211" t="s">
         <v>323</v>
       </c>
-      <c r="G57" s="232"/>
-      <c r="H57" s="208" t="s">
+      <c r="G57" s="211"/>
+      <c r="H57" s="214" t="s">
         <v>322</v>
       </c>
-      <c r="I57" s="209"/>
-      <c r="J57" s="232" t="s">
+      <c r="I57" s="215"/>
+      <c r="J57" s="211" t="s">
         <v>324</v>
       </c>
-      <c r="K57" s="232"/>
+      <c r="K57" s="211"/>
       <c r="L57" s="153"/>
       <c r="M57" s="146"/>
       <c r="N57" s="146"/>
@@ -4787,26 +4787,26 @@
       <c r="A58" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="218" t="s">
+      <c r="B58" s="225" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="218"/>
-      <c r="D58" s="205" t="s">
+      <c r="C58" s="225"/>
+      <c r="D58" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205" t="s">
+      <c r="E58" s="210"/>
+      <c r="F58" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205" t="s">
+      <c r="G58" s="210"/>
+      <c r="H58" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="I58" s="205"/>
-      <c r="J58" s="205" t="s">
+      <c r="I58" s="210"/>
+      <c r="J58" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="205"/>
+      <c r="K58" s="210"/>
       <c r="L58" s="188" t="s">
         <v>14</v>
       </c>
@@ -4818,30 +4818,30 @@
       <c r="R58" s="146"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A59" s="203" t="s">
+      <c r="A59" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="202" t="s">
+      <c r="B59" s="206" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="202"/>
-      <c r="D59" s="205" t="s">
+      <c r="C59" s="206"/>
+      <c r="D59" s="210" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="205"/>
-      <c r="F59" s="202" t="s">
+      <c r="E59" s="210"/>
+      <c r="F59" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="G59" s="202"/>
-      <c r="H59" s="202" t="s">
+      <c r="G59" s="206"/>
+      <c r="H59" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="I59" s="202"/>
-      <c r="J59" s="202" t="s">
+      <c r="I59" s="206"/>
+      <c r="J59" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="K59" s="202"/>
-      <c r="L59" s="233" t="s">
+      <c r="K59" s="206"/>
+      <c r="L59" s="203" t="s">
         <v>29</v>
       </c>
       <c r="M59" s="146"/>
@@ -4852,48 +4852,48 @@
       <c r="R59" s="146"/>
     </row>
     <row r="60" spans="1:18" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="204"/>
-      <c r="B60" s="202"/>
-      <c r="C60" s="202"/>
-      <c r="D60" s="205"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="202" t="s">
+      <c r="A60" s="213"/>
+      <c r="B60" s="206"/>
+      <c r="C60" s="206"/>
+      <c r="D60" s="210"/>
+      <c r="E60" s="210"/>
+      <c r="F60" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="202"/>
-      <c r="H60" s="202"/>
-      <c r="I60" s="202"/>
-      <c r="J60" s="202" t="s">
+      <c r="G60" s="206"/>
+      <c r="H60" s="206"/>
+      <c r="I60" s="206"/>
+      <c r="J60" s="206" t="s">
         <v>0</v>
       </c>
-      <c r="K60" s="202"/>
-      <c r="L60" s="233"/>
+      <c r="K60" s="206"/>
+      <c r="L60" s="203"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A61" s="203" t="s">
+      <c r="A61" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="202" t="s">
+      <c r="B61" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="202"/>
-      <c r="D61" s="205" t="s">
+      <c r="C61" s="206"/>
+      <c r="D61" s="210" t="s">
         <v>398</v>
       </c>
-      <c r="E61" s="205"/>
-      <c r="F61" s="202" t="s">
+      <c r="E61" s="210"/>
+      <c r="F61" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="G61" s="202"/>
-      <c r="H61" s="205" t="s">
+      <c r="G61" s="206"/>
+      <c r="H61" s="210" t="s">
         <v>398</v>
       </c>
-      <c r="I61" s="205"/>
-      <c r="J61" s="202" t="s">
+      <c r="I61" s="210"/>
+      <c r="J61" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="K61" s="202"/>
-      <c r="L61" s="233" t="s">
+      <c r="K61" s="206"/>
+      <c r="L61" s="203" t="s">
         <v>30</v>
       </c>
       <c r="M61" s="146"/>
@@ -4904,18 +4904,18 @@
       <c r="R61" s="146"/>
     </row>
     <row r="62" spans="1:18" s="122" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="204"/>
-      <c r="B62" s="202"/>
-      <c r="C62" s="202"/>
-      <c r="D62" s="205"/>
-      <c r="E62" s="205"/>
-      <c r="F62" s="202"/>
-      <c r="G62" s="202"/>
-      <c r="H62" s="205"/>
-      <c r="I62" s="205"/>
-      <c r="J62" s="202"/>
-      <c r="K62" s="202"/>
-      <c r="L62" s="233"/>
+      <c r="A62" s="213"/>
+      <c r="B62" s="206"/>
+      <c r="C62" s="206"/>
+      <c r="D62" s="210"/>
+      <c r="E62" s="210"/>
+      <c r="F62" s="206"/>
+      <c r="G62" s="206"/>
+      <c r="H62" s="210"/>
+      <c r="I62" s="210"/>
+      <c r="J62" s="206"/>
+      <c r="K62" s="206"/>
+      <c r="L62" s="203"/>
       <c r="M62" s="146"/>
       <c r="N62" s="146"/>
       <c r="O62" s="146"/>
@@ -4927,26 +4927,26 @@
       <c r="A63" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="202" t="s">
+      <c r="B63" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="C63" s="202"/>
-      <c r="D63" s="205" t="s">
+      <c r="C63" s="206"/>
+      <c r="D63" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="E63" s="205"/>
-      <c r="F63" s="212" t="s">
+      <c r="E63" s="210"/>
+      <c r="F63" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="212"/>
-      <c r="H63" s="213" t="s">
+      <c r="G63" s="208"/>
+      <c r="H63" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="I63" s="213"/>
-      <c r="J63" s="212" t="s">
+      <c r="I63" s="204"/>
+      <c r="J63" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="K63" s="212"/>
+      <c r="K63" s="208"/>
       <c r="L63" s="188" t="s">
         <v>33</v>
       </c>
@@ -4961,54 +4961,54 @@
       <c r="A64" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="202" t="s">
+      <c r="B64" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="202"/>
-      <c r="D64" s="205" t="s">
+      <c r="C64" s="206"/>
+      <c r="D64" s="210" t="s">
         <v>399</v>
       </c>
-      <c r="E64" s="205"/>
-      <c r="F64" s="212" t="s">
+      <c r="E64" s="210"/>
+      <c r="F64" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="G64" s="212"/>
-      <c r="H64" s="213" t="s">
+      <c r="G64" s="208"/>
+      <c r="H64" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="I64" s="213"/>
-      <c r="J64" s="213" t="s">
+      <c r="I64" s="204"/>
+      <c r="J64" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="K64" s="213"/>
+      <c r="K64" s="204"/>
       <c r="L64" s="188" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="122" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="203" t="s">
+      <c r="A65" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="213" t="s">
+      <c r="B65" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="213"/>
-      <c r="D65" s="213" t="s">
+      <c r="C65" s="204"/>
+      <c r="D65" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="213"/>
-      <c r="F65" s="211" t="s">
+      <c r="E65" s="204"/>
+      <c r="F65" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="G65" s="211"/>
-      <c r="H65" s="213" t="s">
+      <c r="G65" s="207"/>
+      <c r="H65" s="204" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="213"/>
-      <c r="J65" s="213" t="s">
+      <c r="I65" s="204"/>
+      <c r="J65" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="K65" s="213"/>
+      <c r="K65" s="204"/>
       <c r="L65" s="188" t="s">
         <v>32</v>
       </c>
@@ -5020,19 +5020,19 @@
       <c r="R65" s="146"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A66" s="204"/>
-      <c r="B66" s="213"/>
-      <c r="C66" s="213"/>
-      <c r="D66" s="213"/>
-      <c r="E66" s="213"/>
-      <c r="F66" s="211"/>
-      <c r="G66" s="211"/>
-      <c r="H66" s="213"/>
-      <c r="I66" s="213"/>
-      <c r="J66" s="234" t="s">
+      <c r="A66" s="213"/>
+      <c r="B66" s="204"/>
+      <c r="C66" s="204"/>
+      <c r="D66" s="204"/>
+      <c r="E66" s="204"/>
+      <c r="F66" s="207"/>
+      <c r="G66" s="207"/>
+      <c r="H66" s="204"/>
+      <c r="I66" s="204"/>
+      <c r="J66" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="K66" s="234"/>
+      <c r="K66" s="205"/>
       <c r="L66" s="188" t="s">
         <v>34</v>
       </c>
@@ -5047,26 +5047,26 @@
       <c r="A67" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="202" t="s">
+      <c r="B67" s="206" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="202"/>
-      <c r="D67" s="205" t="s">
+      <c r="C67" s="206"/>
+      <c r="D67" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="E67" s="205"/>
-      <c r="F67" s="205" t="s">
+      <c r="E67" s="210"/>
+      <c r="F67" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="G67" s="205"/>
-      <c r="H67" s="205" t="s">
+      <c r="G67" s="210"/>
+      <c r="H67" s="210" t="s">
         <v>48</v>
       </c>
-      <c r="I67" s="205"/>
-      <c r="J67" s="205" t="s">
+      <c r="I67" s="210"/>
+      <c r="J67" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="K67" s="205"/>
+      <c r="K67" s="210"/>
       <c r="L67" s="188" t="s">
         <v>27</v>
       </c>
@@ -5075,26 +5075,26 @@
       <c r="A68" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="202" t="s">
+      <c r="B68" s="206" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="202"/>
-      <c r="D68" s="205" t="s">
+      <c r="C68" s="206"/>
+      <c r="D68" s="210" t="s">
         <v>400</v>
       </c>
-      <c r="E68" s="205"/>
-      <c r="F68" s="205" t="s">
+      <c r="E68" s="210"/>
+      <c r="F68" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="G68" s="205"/>
-      <c r="H68" s="205" t="s">
+      <c r="G68" s="210"/>
+      <c r="H68" s="210" t="s">
         <v>400</v>
       </c>
-      <c r="I68" s="205"/>
-      <c r="J68" s="205" t="s">
+      <c r="I68" s="210"/>
+      <c r="J68" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="205"/>
+      <c r="K68" s="210"/>
       <c r="L68" s="188" t="s">
         <v>28</v>
       </c>
@@ -5103,27 +5103,27 @@
       <c r="A69" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="202" t="s">
+      <c r="B69" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="202"/>
-      <c r="D69" s="205" t="s">
+      <c r="C69" s="206"/>
+      <c r="D69" s="210" t="s">
         <v>61</v>
       </c>
-      <c r="E69" s="205"/>
-      <c r="F69" s="212" t="s">
+      <c r="E69" s="210"/>
+      <c r="F69" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="G69" s="212"/>
-      <c r="H69" s="213" t="s">
+      <c r="G69" s="208"/>
+      <c r="H69" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="I69" s="213"/>
-      <c r="J69" s="213" t="s">
+      <c r="I69" s="204"/>
+      <c r="J69" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="K69" s="213"/>
-      <c r="L69" s="228" t="s">
+      <c r="K69" s="204"/>
+      <c r="L69" s="216" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5131,138 +5131,138 @@
       <c r="A70" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B70" s="202" t="s">
+      <c r="B70" s="206" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="202"/>
-      <c r="D70" s="205" t="s">
+      <c r="C70" s="206"/>
+      <c r="D70" s="210" t="s">
         <v>401</v>
       </c>
-      <c r="E70" s="205"/>
-      <c r="F70" s="212"/>
-      <c r="G70" s="212"/>
-      <c r="H70" s="213" t="s">
+      <c r="E70" s="210"/>
+      <c r="F70" s="208"/>
+      <c r="G70" s="208"/>
+      <c r="H70" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="I70" s="213"/>
-      <c r="J70" s="213"/>
-      <c r="K70" s="213"/>
-      <c r="L70" s="229"/>
+      <c r="I70" s="204"/>
+      <c r="J70" s="204"/>
+      <c r="K70" s="204"/>
+      <c r="L70" s="217"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" s="146"/>
-      <c r="B72" s="208" t="s">
+      <c r="B72" s="214" t="s">
         <v>368</v>
       </c>
-      <c r="C72" s="209"/>
+      <c r="C72" s="215"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" s="150" t="s">
         <v>375</v>
       </c>
-      <c r="B73" s="210" t="s">
+      <c r="B73" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="210"/>
+      <c r="C73" s="235"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" s="150" t="s">
         <v>383</v>
       </c>
-      <c r="B74" s="207" t="s">
+      <c r="B74" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="207"/>
+      <c r="C74" s="234"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" s="150" t="s">
         <v>384</v>
       </c>
-      <c r="B75" s="205" t="s">
+      <c r="B75" s="210" t="s">
         <v>394</v>
       </c>
-      <c r="C75" s="205"/>
+      <c r="C75" s="210"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" s="150" t="s">
         <v>385</v>
       </c>
-      <c r="B76" s="205" t="s">
+      <c r="B76" s="210" t="s">
         <v>369</v>
       </c>
-      <c r="C76" s="205"/>
+      <c r="C76" s="210"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" s="150" t="s">
         <v>386</v>
       </c>
-      <c r="B77" s="206" t="s">
+      <c r="B77" s="233" t="s">
         <v>395</v>
       </c>
-      <c r="C77" s="206"/>
+      <c r="C77" s="233"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" s="150" t="s">
         <v>378</v>
       </c>
-      <c r="B78" s="207" t="s">
+      <c r="B78" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="207"/>
+      <c r="C78" s="234"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" s="150" t="s">
         <v>381</v>
       </c>
-      <c r="B79" s="205" t="s">
+      <c r="B79" s="210" t="s">
         <v>370</v>
       </c>
-      <c r="C79" s="205"/>
+      <c r="C79" s="210"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" s="150" t="s">
         <v>382</v>
       </c>
-      <c r="B80" s="205" t="s">
+      <c r="B80" s="210" t="s">
         <v>371</v>
       </c>
-      <c r="C80" s="205"/>
+      <c r="C80" s="210"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="150" t="s">
         <v>387</v>
       </c>
-      <c r="B81" s="206" t="s">
+      <c r="B81" s="233" t="s">
         <v>396</v>
       </c>
-      <c r="C81" s="206"/>
+      <c r="C81" s="233"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="150" t="s">
         <v>388</v>
       </c>
-      <c r="B82" s="206" t="s">
+      <c r="B82" s="233" t="s">
         <v>397</v>
       </c>
-      <c r="C82" s="206"/>
+      <c r="C82" s="233"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="150" t="s">
         <v>389</v>
       </c>
-      <c r="B83" s="207" t="s">
+      <c r="B83" s="234" t="s">
         <v>373</v>
       </c>
-      <c r="C83" s="207"/>
+      <c r="C83" s="234"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="150" t="s">
         <v>390</v>
       </c>
-      <c r="B84" s="207" t="s">
+      <c r="B84" s="234" t="s">
         <v>374</v>
       </c>
-      <c r="C84" s="207"/>
+      <c r="C84" s="234"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="153"/>
@@ -5271,25 +5271,98 @@
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="H65:I66"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="F65:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K70"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B61:C62"/>
+    <mergeCell ref="D61:E62"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D53:E54"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E50"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="F49:G50"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="L69:L70"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="F61:G62"/>
@@ -5314,103 +5387,30 @@
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E50"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="F49:G50"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="H65:I66"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H57:I57"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D35:D36"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B61:C62"/>
-    <mergeCell ref="D61:E62"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D53:E54"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D59:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="F65:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K70"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5615,13 +5615,13 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="212" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="260" t="s">
+      <c r="C3" s="238" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="66" t="s">
@@ -5630,40 +5630,40 @@
       <c r="E3" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="260" t="s">
+      <c r="F3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="258" t="s">
+      <c r="G3" s="236" t="s">
         <v>411</v>
       </c>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="236" t="s">
         <v>49</v>
       </c>
       <c r="I3" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="260" t="s">
+      <c r="J3" s="238" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="260" t="s">
+      <c r="L3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="258" t="s">
+      <c r="M3" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="258" t="s">
+      <c r="N3" s="236" t="s">
         <v>77</v>
       </c>
-      <c r="O3" s="258" t="s">
+      <c r="O3" s="236" t="s">
         <v>49</v>
       </c>
       <c r="P3" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="260" t="s">
+      <c r="Q3" s="238" t="s">
         <v>20</v>
       </c>
       <c r="R3" s="66" t="s">
@@ -5675,16 +5675,16 @@
       <c r="T3" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="U3" s="258" t="s">
+      <c r="U3" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="258" t="s">
+      <c r="V3" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="258" t="s">
+      <c r="W3" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="260" t="s">
+      <c r="X3" s="238" t="s">
         <v>20</v>
       </c>
       <c r="Y3" s="65" t="s">
@@ -5708,97 +5708,97 @@
       <c r="AE3" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="AF3" s="261" t="s">
+      <c r="AF3" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="260" t="s">
+      <c r="AG3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="AH3" s="261" t="s">
+      <c r="AH3" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="AI3" s="260" t="s">
+      <c r="AI3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="AJ3" s="260" t="s">
+      <c r="AJ3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="AK3" s="261" t="s">
+      <c r="AK3" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="AL3" s="260" t="s">
+      <c r="AL3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="AM3" s="260" t="s">
+      <c r="AM3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="AN3" s="261" t="s">
+      <c r="AN3" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="AO3" s="260" t="s">
+      <c r="AO3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="AP3" s="261" t="s">
+      <c r="AP3" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="AQ3" s="258" t="s">
+      <c r="AQ3" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="AR3" s="258" t="s">
+      <c r="AR3" s="236" t="s">
         <v>49</v>
       </c>
       <c r="AS3" s="66" t="s">
         <v>296</v>
       </c>
-      <c r="AT3" s="258" t="s">
+      <c r="AT3" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="AU3" s="258" t="s">
+      <c r="AU3" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="AV3" s="260" t="s">
+      <c r="AV3" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="261" t="s">
+      <c r="AW3" s="237" t="s">
         <v>49</v>
       </c>
       <c r="AX3" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="AY3" s="233" t="s">
+      <c r="AY3" s="203" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A4" s="204"/>
+      <c r="A4" s="213"/>
       <c r="B4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="205"/>
+      <c r="C4" s="210"/>
       <c r="D4" s="65" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="205"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="258"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="236"/>
+      <c r="H4" s="236"/>
       <c r="I4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="205"/>
+      <c r="J4" s="210"/>
       <c r="K4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="205"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258"/>
+      <c r="L4" s="210"/>
+      <c r="M4" s="236"/>
+      <c r="N4" s="236"/>
+      <c r="O4" s="236"/>
       <c r="P4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="205"/>
+      <c r="Q4" s="210"/>
       <c r="R4" s="66" t="s">
         <v>7</v>
       </c>
@@ -5808,10 +5808,10 @@
       <c r="T4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="258"/>
-      <c r="V4" s="258"/>
-      <c r="W4" s="258"/>
-      <c r="X4" s="205"/>
+      <c r="U4" s="236"/>
+      <c r="V4" s="236"/>
+      <c r="W4" s="236"/>
+      <c r="X4" s="210"/>
       <c r="Y4" s="65" t="s">
         <v>7</v>
       </c>
@@ -5833,33 +5833,33 @@
       <c r="AE4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AF4" s="258"/>
-      <c r="AG4" s="205"/>
-      <c r="AH4" s="258"/>
-      <c r="AI4" s="205"/>
-      <c r="AJ4" s="205"/>
-      <c r="AK4" s="258"/>
-      <c r="AL4" s="205"/>
-      <c r="AM4" s="205"/>
-      <c r="AN4" s="258"/>
-      <c r="AO4" s="205"/>
-      <c r="AP4" s="258"/>
-      <c r="AQ4" s="258"/>
-      <c r="AR4" s="258"/>
+      <c r="AF4" s="236"/>
+      <c r="AG4" s="210"/>
+      <c r="AH4" s="236"/>
+      <c r="AI4" s="210"/>
+      <c r="AJ4" s="210"/>
+      <c r="AK4" s="236"/>
+      <c r="AL4" s="210"/>
+      <c r="AM4" s="210"/>
+      <c r="AN4" s="236"/>
+      <c r="AO4" s="210"/>
+      <c r="AP4" s="236"/>
+      <c r="AQ4" s="236"/>
+      <c r="AR4" s="236"/>
       <c r="AS4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AT4" s="258"/>
-      <c r="AU4" s="258"/>
-      <c r="AV4" s="205"/>
-      <c r="AW4" s="258"/>
+      <c r="AT4" s="236"/>
+      <c r="AU4" s="236"/>
+      <c r="AV4" s="210"/>
+      <c r="AW4" s="236"/>
       <c r="AX4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="AY4" s="233"/>
+      <c r="AY4" s="203"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A5" s="203" t="s">
+      <c r="A5" s="212" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="66" t="s">
@@ -5931,7 +5931,7 @@
       <c r="X5" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="Y5" s="258" t="s">
+      <c r="Y5" s="236" t="s">
         <v>44</v>
       </c>
       <c r="Z5" s="66" t="s">
@@ -6009,12 +6009,12 @@
       <c r="AX5" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="AY5" s="233" t="s">
+      <c r="AY5" s="203" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A6" s="204"/>
+      <c r="A6" s="213"/>
       <c r="B6" s="81" t="s">
         <v>99</v>
       </c>
@@ -6084,7 +6084,7 @@
       <c r="X6" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" s="258"/>
+      <c r="Y6" s="236"/>
       <c r="Z6" s="65" t="s">
         <v>84</v>
       </c>
@@ -6160,67 +6160,67 @@
       <c r="AX6" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="AY6" s="233"/>
+      <c r="AY6" s="203"/>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="220" t="s">
+      <c r="B7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="220" t="s">
+      <c r="C7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="220" t="s">
+      <c r="E7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="220" t="s">
+      <c r="F7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="220" t="s">
+      <c r="G7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="220" t="s">
+      <c r="H7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="220" t="s">
+      <c r="I7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="220" t="s">
+      <c r="J7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="220" t="s">
+      <c r="K7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="220" t="s">
+      <c r="L7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="220" t="s">
+      <c r="M7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="220" t="s">
+      <c r="N7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="220" t="s">
+      <c r="O7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="220" t="s">
+      <c r="P7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="220" t="s">
+      <c r="Q7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="220" t="s">
+      <c r="R7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="220" t="s">
+      <c r="S7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="220" t="s">
+      <c r="T7" s="209" t="s">
         <v>21</v>
       </c>
       <c r="U7" s="66" t="s">
@@ -6229,76 +6229,76 @@
       <c r="V7" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="220" t="s">
+      <c r="W7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="X7" s="220" t="s">
+      <c r="X7" s="209" t="s">
         <v>24</v>
       </c>
       <c r="Y7" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="Z7" s="220" t="s">
+      <c r="Z7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="220" t="s">
+      <c r="AA7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AB7" s="220" t="s">
+      <c r="AB7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AC7" s="220" t="s">
+      <c r="AC7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AD7" s="220" t="s">
+      <c r="AD7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AE7" s="220" t="s">
+      <c r="AE7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AF7" s="220" t="s">
+      <c r="AF7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AG7" s="220" t="s">
+      <c r="AG7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AH7" s="220" t="s">
+      <c r="AH7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AI7" s="220" t="s">
+      <c r="AI7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AJ7" s="212" t="s">
+      <c r="AJ7" s="208" t="s">
         <v>277</v>
       </c>
-      <c r="AK7" s="220" t="s">
+      <c r="AK7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="220" t="s">
+      <c r="AL7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AM7" s="212" t="s">
+      <c r="AM7" s="208" t="s">
         <v>277</v>
       </c>
-      <c r="AN7" s="220" t="s">
+      <c r="AN7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AO7" s="220" t="s">
+      <c r="AO7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AP7" s="220" t="s">
+      <c r="AP7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="AQ7" s="220" t="s">
+      <c r="AQ7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="AR7" s="220" t="s">
+      <c r="AR7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="AS7" s="220" t="s">
+      <c r="AS7" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AT7" s="220" t="s">
+      <c r="AT7" s="209" t="s">
         <v>24</v>
       </c>
       <c r="AU7" s="66" t="s">
@@ -6310,66 +6310,66 @@
       <c r="AW7" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="AX7" s="220" t="s">
+      <c r="AX7" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="AY7" s="233" t="s">
+      <c r="AY7" s="203" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A8" s="204"/>
-      <c r="B8" s="220"/>
-      <c r="C8" s="220"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="220"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="220"/>
-      <c r="H8" s="220"/>
-      <c r="I8" s="220"/>
-      <c r="J8" s="220"/>
-      <c r="K8" s="220"/>
-      <c r="L8" s="220"/>
-      <c r="M8" s="220"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="220"/>
-      <c r="P8" s="220"/>
-      <c r="Q8" s="220"/>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="209"/>
+      <c r="L8" s="209"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="209"/>
+      <c r="Q8" s="209"/>
+      <c r="R8" s="209"/>
+      <c r="S8" s="209"/>
+      <c r="T8" s="209"/>
       <c r="U8" s="65" t="s">
         <v>24</v>
       </c>
       <c r="V8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="220"/>
-      <c r="X8" s="220"/>
+      <c r="W8" s="209"/>
+      <c r="X8" s="209"/>
       <c r="Y8" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="220"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="220"/>
-      <c r="AC8" s="220"/>
-      <c r="AD8" s="220"/>
-      <c r="AE8" s="220"/>
-      <c r="AF8" s="220"/>
-      <c r="AG8" s="220"/>
-      <c r="AH8" s="220"/>
-      <c r="AI8" s="220"/>
-      <c r="AJ8" s="212"/>
-      <c r="AK8" s="220"/>
-      <c r="AL8" s="220"/>
-      <c r="AM8" s="212"/>
-      <c r="AN8" s="220"/>
-      <c r="AO8" s="220"/>
-      <c r="AP8" s="220"/>
-      <c r="AQ8" s="220"/>
-      <c r="AR8" s="220"/>
-      <c r="AS8" s="220"/>
-      <c r="AT8" s="220"/>
+      <c r="Z8" s="209"/>
+      <c r="AA8" s="209"/>
+      <c r="AB8" s="209"/>
+      <c r="AC8" s="209"/>
+      <c r="AD8" s="209"/>
+      <c r="AE8" s="209"/>
+      <c r="AF8" s="209"/>
+      <c r="AG8" s="209"/>
+      <c r="AH8" s="209"/>
+      <c r="AI8" s="209"/>
+      <c r="AJ8" s="208"/>
+      <c r="AK8" s="209"/>
+      <c r="AL8" s="209"/>
+      <c r="AM8" s="208"/>
+      <c r="AN8" s="209"/>
+      <c r="AO8" s="209"/>
+      <c r="AP8" s="209"/>
+      <c r="AQ8" s="209"/>
+      <c r="AR8" s="209"/>
+      <c r="AS8" s="209"/>
+      <c r="AT8" s="209"/>
       <c r="AU8" s="65" t="s">
         <v>24</v>
       </c>
@@ -6379,11 +6379,11 @@
       <c r="AW8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AX8" s="220"/>
-      <c r="AY8" s="233"/>
+      <c r="AX8" s="209"/>
+      <c r="AY8" s="203"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A9" s="203" t="s">
+      <c r="A9" s="212" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="67" t="s">
@@ -6392,7 +6392,7 @@
       <c r="C9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="213" t="s">
+      <c r="D9" s="204" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="67" t="s">
@@ -6404,7 +6404,7 @@
       <c r="G9" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="213" t="s">
+      <c r="H9" s="204" t="s">
         <v>53</v>
       </c>
       <c r="I9" s="67" t="s">
@@ -6422,7 +6422,7 @@
       <c r="M9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="N9" s="213" t="s">
+      <c r="N9" s="204" t="s">
         <v>52</v>
       </c>
       <c r="O9" s="67" t="s">
@@ -6431,16 +6431,16 @@
       <c r="P9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="Q9" s="213" t="s">
+      <c r="Q9" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="R9" s="255" t="s">
+      <c r="R9" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="S9" s="213" t="s">
+      <c r="S9" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="213" t="s">
+      <c r="T9" s="204" t="s">
         <v>52</v>
       </c>
       <c r="U9" s="67" t="s">
@@ -6458,22 +6458,22 @@
       <c r="Y9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="Z9" s="213" t="s">
+      <c r="Z9" s="204" t="s">
         <v>52</v>
       </c>
       <c r="AA9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AB9" s="213" t="s">
+      <c r="AB9" s="204" t="s">
         <v>52</v>
       </c>
       <c r="AC9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AD9" s="213" t="s">
+      <c r="AD9" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AE9" s="213" t="s">
+      <c r="AE9" s="204" t="s">
         <v>53</v>
       </c>
       <c r="AF9" s="67" t="s">
@@ -6488,7 +6488,7 @@
       <c r="AI9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AJ9" s="213" t="s">
+      <c r="AJ9" s="204" t="s">
         <v>52</v>
       </c>
       <c r="AK9" s="67" t="s">
@@ -6497,7 +6497,7 @@
       <c r="AL9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AM9" s="213" t="s">
+      <c r="AM9" s="204" t="s">
         <v>52</v>
       </c>
       <c r="AN9" s="67" t="s">
@@ -6506,16 +6506,16 @@
       <c r="AO9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AP9" s="213" t="s">
+      <c r="AP9" s="204" t="s">
         <v>52</v>
       </c>
       <c r="AQ9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AR9" s="255" t="s">
+      <c r="AR9" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="AS9" s="213" t="s">
+      <c r="AS9" s="204" t="s">
         <v>52</v>
       </c>
       <c r="AT9" s="67" t="s">
@@ -6524,28 +6524,28 @@
       <c r="AU9" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="AV9" s="213" t="s">
+      <c r="AV9" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AW9" s="213" t="s">
+      <c r="AW9" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AX9" s="213" t="s">
+      <c r="AX9" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AY9" s="233" t="s">
+      <c r="AY9" s="203" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A10" s="204"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="67" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="213"/>
+      <c r="D10" s="204"/>
       <c r="E10" s="67" t="s">
         <v>53</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="G10" s="191" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="213"/>
+      <c r="H10" s="204"/>
       <c r="I10" s="67" t="s">
         <v>53</v>
       </c>
@@ -6571,17 +6571,17 @@
       <c r="M10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="213"/>
+      <c r="N10" s="204"/>
       <c r="O10" s="67" t="s">
         <v>53</v>
       </c>
       <c r="P10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="213"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="213"/>
-      <c r="T10" s="213"/>
+      <c r="Q10" s="204"/>
+      <c r="R10" s="243"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
       <c r="U10" s="67" t="s">
         <v>53</v>
       </c>
@@ -6597,16 +6597,16 @@
       <c r="Y10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="Z10" s="213"/>
+      <c r="Z10" s="204"/>
       <c r="AA10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AB10" s="213"/>
+      <c r="AB10" s="204"/>
       <c r="AC10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="213"/>
-      <c r="AE10" s="213"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="204"/>
       <c r="AF10" s="67" t="s">
         <v>53</v>
       </c>
@@ -6619,36 +6619,36 @@
       <c r="AI10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AJ10" s="213"/>
+      <c r="AJ10" s="204"/>
       <c r="AK10" s="67" t="s">
         <v>53</v>
       </c>
       <c r="AL10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AM10" s="213"/>
+      <c r="AM10" s="204"/>
       <c r="AN10" s="67" t="s">
         <v>53</v>
       </c>
       <c r="AO10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AP10" s="213"/>
+      <c r="AP10" s="204"/>
       <c r="AQ10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AR10" s="255"/>
-      <c r="AS10" s="213"/>
+      <c r="AR10" s="243"/>
+      <c r="AS10" s="204"/>
       <c r="AT10" s="67" t="s">
         <v>53</v>
       </c>
       <c r="AU10" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="AV10" s="213"/>
-      <c r="AW10" s="213"/>
-      <c r="AX10" s="213"/>
-      <c r="AY10" s="233"/>
+      <c r="AV10" s="204"/>
+      <c r="AW10" s="204"/>
+      <c r="AX10" s="204"/>
+      <c r="AY10" s="203"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" s="194" t="s">
@@ -7047,16 +7047,16 @@
       <c r="AY14"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A15" s="203" t="s">
+      <c r="A15" s="212" t="s">
         <v>36</v>
       </c>
       <c r="B15" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="260" t="s">
+      <c r="C15" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="261" t="s">
+      <c r="D15" s="237" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="88" t="s">
@@ -7065,7 +7065,7 @@
       <c r="F15" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="260" t="s">
+      <c r="G15" s="238" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="88" t="s">
@@ -7077,25 +7077,25 @@
       <c r="J15" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="261" t="s">
+      <c r="K15" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="260" t="s">
+      <c r="L15" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="261" t="s">
+      <c r="M15" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="260" t="s">
+      <c r="N15" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="261" t="s">
+      <c r="O15" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="P15" s="260" t="s">
+      <c r="P15" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="261" t="s">
+      <c r="Q15" s="237" t="s">
         <v>49</v>
       </c>
       <c r="R15" s="94" t="s">
@@ -7132,19 +7132,19 @@
       <c r="AY15"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A16" s="204"/>
+      <c r="A16" s="213"/>
       <c r="B16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="205"/>
-      <c r="D16" s="262"/>
+      <c r="C16" s="210"/>
+      <c r="D16" s="247"/>
       <c r="E16" s="87" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="205"/>
+      <c r="G16" s="210"/>
       <c r="H16" s="87" t="s">
         <v>8</v>
       </c>
@@ -7154,13 +7154,13 @@
       <c r="J16" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="258"/>
-      <c r="L16" s="218"/>
-      <c r="M16" s="262"/>
-      <c r="N16" s="218"/>
-      <c r="O16" s="262"/>
-      <c r="P16" s="218"/>
-      <c r="Q16" s="262"/>
+      <c r="K16" s="236"/>
+      <c r="L16" s="225"/>
+      <c r="M16" s="247"/>
+      <c r="N16" s="225"/>
+      <c r="O16" s="247"/>
+      <c r="P16" s="225"/>
+      <c r="Q16" s="247"/>
       <c r="R16" s="96" t="s">
         <v>8</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="AY16"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A17" s="203" t="s">
+      <c r="A17" s="212" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="88" t="s">
@@ -7216,7 +7216,7 @@
       <c r="G17" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="258" t="s">
+      <c r="H17" s="236" t="s">
         <v>44</v>
       </c>
       <c r="I17" s="88" t="s">
@@ -7280,7 +7280,7 @@
       <c r="AY17"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A18" s="204"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="81" t="s">
         <v>99</v>
       </c>
@@ -7299,7 +7299,7 @@
       <c r="G18" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="258"/>
+      <c r="H18" s="236"/>
       <c r="I18" s="87" t="s">
         <v>84</v>
       </c>
@@ -7361,58 +7361,58 @@
       <c r="AY18"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A19" s="203" t="s">
+      <c r="A19" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="220" t="s">
+      <c r="C19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="220" t="s">
+      <c r="D19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="220" t="s">
+      <c r="E19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="220" t="s">
+      <c r="F19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="220" t="s">
+      <c r="G19" s="209" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="220" t="s">
+      <c r="I19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="220" t="s">
+      <c r="J19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="220" t="s">
+      <c r="K19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="220" t="s">
+      <c r="L19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="220" t="s">
+      <c r="M19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="220" t="s">
+      <c r="N19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="220" t="s">
+      <c r="O19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="P19" s="220" t="s">
+      <c r="P19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Q19" s="220" t="s">
+      <c r="Q19" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="220" t="s">
+      <c r="R19" s="209" t="s">
         <v>21</v>
       </c>
       <c r="S19"/>
@@ -7446,29 +7446,29 @@
       <c r="AY19"/>
     </row>
     <row r="20" spans="1:51" s="68" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="204"/>
-      <c r="B20" s="220"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="220"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="220"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
       <c r="H20" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="220"/>
-      <c r="J20" s="220"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="220"/>
-      <c r="O20" s="220"/>
-      <c r="P20" s="220"/>
-      <c r="Q20" s="220"/>
-      <c r="R20" s="220"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="209"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="209"/>
+      <c r="M20" s="209"/>
+      <c r="N20" s="209"/>
+      <c r="O20" s="209"/>
+      <c r="P20" s="209"/>
+      <c r="Q20" s="209"/>
+      <c r="R20" s="209"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A21" s="203" t="s">
+      <c r="A21" s="212" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="89" t="s">
@@ -7477,10 +7477,10 @@
       <c r="C21" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="255" t="s">
+      <c r="D21" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="255" t="s">
+      <c r="E21" s="243" t="s">
         <v>52</v>
       </c>
       <c r="F21" s="89" t="s">
@@ -7492,10 +7492,10 @@
       <c r="H21" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="213" t="s">
+      <c r="I21" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="255" t="s">
+      <c r="J21" s="243" t="s">
         <v>52</v>
       </c>
       <c r="K21" s="89" t="s">
@@ -7507,19 +7507,19 @@
       <c r="M21" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="N21" s="213" t="s">
+      <c r="N21" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="O21" s="213" t="s">
+      <c r="O21" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="213" t="s">
+      <c r="P21" s="204" t="s">
         <v>52</v>
       </c>
       <c r="Q21" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="213" t="s">
+      <c r="R21" s="204" t="s">
         <v>53</v>
       </c>
       <c r="S21"/>
@@ -7553,15 +7553,15 @@
       <c r="AY21"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A22" s="204"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="89" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="255"/>
-      <c r="E22" s="255"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
       <c r="F22" s="89" t="s">
         <v>53</v>
       </c>
@@ -7571,8 +7571,8 @@
       <c r="H22" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="I22" s="213"/>
-      <c r="J22" s="255"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="243"/>
       <c r="K22" s="89" t="s">
         <v>53</v>
       </c>
@@ -7582,13 +7582,13 @@
       <c r="M22" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="N22" s="213"/>
-      <c r="O22" s="213"/>
-      <c r="P22" s="213"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="204"/>
+      <c r="P22" s="204"/>
       <c r="Q22" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="R22" s="213"/>
+      <c r="R22" s="204"/>
       <c r="S22"/>
       <c r="T22"/>
       <c r="U22"/>
@@ -7880,16 +7880,16 @@
       <c r="AY26"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A27" s="203" t="s">
+      <c r="A27" s="212" t="s">
         <v>36</v>
       </c>
       <c r="B27" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="258" t="s">
+      <c r="C27" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="260" t="s">
+      <c r="D27" s="238" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="94" t="s">
@@ -7904,13 +7904,13 @@
       <c r="H27" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="I27" s="258" t="s">
+      <c r="I27" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="260" t="s">
+      <c r="J27" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="258" t="s">
+      <c r="K27" s="236" t="s">
         <v>49</v>
       </c>
       <c r="L27" s="94" t="s">
@@ -7922,10 +7922,10 @@
       <c r="N27" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="O27" s="258" t="s">
+      <c r="O27" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="P27" s="260" t="s">
+      <c r="P27" s="238" t="s">
         <v>20</v>
       </c>
       <c r="Q27" s="68"/>
@@ -7944,12 +7944,12 @@
       <c r="AY27"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A28" s="204"/>
+      <c r="A28" s="213"/>
       <c r="B28" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="258"/>
-      <c r="D28" s="218"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="225"/>
       <c r="E28" s="96" t="s">
         <v>5</v>
       </c>
@@ -7962,9 +7962,9 @@
       <c r="H28" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="258"/>
-      <c r="J28" s="218"/>
-      <c r="K28" s="258"/>
+      <c r="I28" s="236"/>
+      <c r="J28" s="225"/>
+      <c r="K28" s="236"/>
       <c r="L28" s="96" t="s">
         <v>5</v>
       </c>
@@ -7974,8 +7974,8 @@
       <c r="N28" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="O28" s="258"/>
-      <c r="P28" s="218"/>
+      <c r="O28" s="236"/>
+      <c r="P28" s="225"/>
       <c r="Q28" s="68"/>
       <c r="T28"/>
       <c r="Y28" s="68"/>
@@ -7992,7 +7992,7 @@
       <c r="AY28"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A29" s="203" t="s">
+      <c r="A29" s="212" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="94" t="s">
@@ -8056,7 +8056,7 @@
       <c r="AY29"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A30" s="204"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="82" t="s">
         <v>135</v>
       </c>
@@ -8118,34 +8118,34 @@
       <c r="AY30"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A31" s="203" t="s">
+      <c r="A31" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="220" t="s">
+      <c r="B31" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="220" t="s">
+      <c r="C31" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="220" t="s">
+      <c r="D31" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="220" t="s">
+      <c r="E31" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="220" t="s">
+      <c r="F31" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="220" t="s">
+      <c r="G31" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="220" t="s">
+      <c r="H31" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="I31" s="220" t="s">
+      <c r="I31" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="220" t="s">
+      <c r="J31" s="209" t="s">
         <v>24</v>
       </c>
       <c r="K31" s="94" t="s">
@@ -8182,16 +8182,16 @@
       <c r="AY31"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A32" s="204"/>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
+      <c r="A32" s="213"/>
+      <c r="B32" s="209"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="209"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="209"/>
+      <c r="G32" s="209"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="209"/>
       <c r="K32" s="93" t="s">
         <v>24</v>
       </c>
@@ -8226,10 +8226,10 @@
       <c r="AY32"/>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A33" s="203" t="s">
+      <c r="A33" s="212" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="204" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="95" t="s">
@@ -8241,37 +8241,37 @@
       <c r="E33" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="213" t="s">
+      <c r="F33" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="213" t="s">
+      <c r="G33" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="213" t="s">
+      <c r="H33" s="204" t="s">
         <v>52</v>
       </c>
       <c r="I33" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="J33" s="213" t="s">
+      <c r="J33" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="K33" s="213" t="s">
+      <c r="K33" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="L33" s="213" t="s">
+      <c r="L33" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="M33" s="213" t="s">
+      <c r="M33" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="N33" s="213" t="s">
+      <c r="N33" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="O33" s="213" t="s">
+      <c r="O33" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="P33" s="213" t="s">
+      <c r="P33" s="204" t="s">
         <v>52</v>
       </c>
       <c r="Q33" s="68"/>
@@ -8290,8 +8290,8 @@
       <c r="AY33"/>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A34" s="204"/>
-      <c r="B34" s="213"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="204"/>
       <c r="C34" s="95" t="s">
         <v>53</v>
       </c>
@@ -8301,19 +8301,19 @@
       <c r="E34" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="F34" s="213"/>
-      <c r="G34" s="213"/>
-      <c r="H34" s="213"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
+      <c r="H34" s="204"/>
       <c r="I34" s="187" t="s">
         <v>53</v>
       </c>
-      <c r="J34" s="213"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="213"/>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="213"/>
-      <c r="P34" s="213"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="204"/>
+      <c r="L34" s="204"/>
+      <c r="M34" s="204"/>
+      <c r="N34" s="204"/>
+      <c r="O34" s="204"/>
+      <c r="P34" s="204"/>
       <c r="Q34" s="68"/>
       <c r="T34"/>
       <c r="Y34" s="68"/>
@@ -8562,49 +8562,49 @@
       <c r="AY38"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A39" s="203" t="s">
+      <c r="A39" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="258" t="s">
+      <c r="B39" s="236" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="258" t="s">
+      <c r="D39" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="260" t="s">
+      <c r="E39" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="258" t="s">
+      <c r="F39" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="261" t="s">
+      <c r="G39" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="261" t="s">
+      <c r="H39" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="260" t="s">
+      <c r="I39" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="261" t="s">
+      <c r="J39" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="260" t="s">
+      <c r="K39" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="L39" s="261" t="s">
+      <c r="L39" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="M39" s="260" t="s">
+      <c r="M39" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="258" t="s">
+      <c r="N39" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="O39" s="258" t="s">
+      <c r="O39" s="236" t="s">
         <v>49</v>
       </c>
       <c r="P39" s="94" t="s">
@@ -8657,23 +8657,23 @@
       <c r="AY39"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A40" s="204"/>
-      <c r="B40" s="258"/>
+      <c r="A40" s="213"/>
+      <c r="B40" s="236"/>
       <c r="C40" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="258"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="258"/>
-      <c r="G40" s="262"/>
-      <c r="H40" s="262"/>
-      <c r="I40" s="218"/>
-      <c r="J40" s="262"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="262"/>
-      <c r="M40" s="218"/>
-      <c r="N40" s="258"/>
-      <c r="O40" s="258"/>
+      <c r="D40" s="236"/>
+      <c r="E40" s="225"/>
+      <c r="F40" s="236"/>
+      <c r="G40" s="247"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="225"/>
+      <c r="J40" s="247"/>
+      <c r="K40" s="225"/>
+      <c r="L40" s="247"/>
+      <c r="M40" s="225"/>
+      <c r="N40" s="236"/>
+      <c r="O40" s="236"/>
       <c r="P40" s="94" t="s">
         <v>0</v>
       </c>
@@ -8724,7 +8724,7 @@
       <c r="AY40"/>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A41" s="203" t="s">
+      <c r="A41" s="212" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="94" t="s">
@@ -8742,7 +8742,7 @@
       <c r="F41" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="258" t="s">
+      <c r="G41" s="236" t="s">
         <v>44</v>
       </c>
       <c r="H41" s="94" t="s">
@@ -8819,7 +8819,7 @@
       <c r="AY41"/>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A42" s="204"/>
+      <c r="A42" s="213"/>
       <c r="B42" s="81" t="s">
         <v>99</v>
       </c>
@@ -8835,7 +8835,7 @@
       <c r="F42" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="258"/>
+      <c r="G42" s="236"/>
       <c r="H42" s="96" t="s">
         <v>84</v>
       </c>
@@ -8910,73 +8910,73 @@
       <c r="AY42"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A43" s="203" t="s">
+      <c r="A43" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="220" t="s">
+      <c r="B43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="220" t="s">
+      <c r="C43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="220" t="s">
+      <c r="D43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="220" t="s">
+      <c r="E43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="220" t="s">
+      <c r="F43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="220" t="s">
+      <c r="G43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="220" t="s">
+      <c r="H43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="220" t="s">
+      <c r="I43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="J43" s="220" t="s">
+      <c r="J43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="220" t="s">
+      <c r="K43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="220" t="s">
+      <c r="L43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="M43" s="220" t="s">
+      <c r="M43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="220" t="s">
+      <c r="N43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="220" t="s">
+      <c r="O43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="P43" s="220" t="s">
+      <c r="P43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Q43" s="220" t="s">
+      <c r="Q43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="220" t="s">
+      <c r="R43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="220" t="s">
+      <c r="S43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="T43" s="220" t="s">
+      <c r="T43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="U43" s="220" t="s">
+      <c r="U43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="V43" s="220" t="s">
+      <c r="V43" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="W43" s="220" t="s">
+      <c r="W43" s="209" t="s">
         <v>21</v>
       </c>
       <c r="X43"/>
@@ -9005,29 +9005,29 @@
       <c r="AY43"/>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A44" s="204"/>
-      <c r="B44" s="220"/>
-      <c r="C44" s="220"/>
-      <c r="D44" s="220"/>
-      <c r="E44" s="220"/>
-      <c r="F44" s="220"/>
-      <c r="G44" s="220"/>
-      <c r="H44" s="220"/>
-      <c r="I44" s="220"/>
-      <c r="J44" s="220"/>
-      <c r="K44" s="220"/>
-      <c r="L44" s="220"/>
-      <c r="M44" s="220"/>
-      <c r="N44" s="220"/>
-      <c r="O44" s="220"/>
-      <c r="P44" s="220"/>
-      <c r="Q44" s="220"/>
-      <c r="R44" s="220"/>
-      <c r="S44" s="220"/>
-      <c r="T44" s="220"/>
-      <c r="U44" s="220"/>
-      <c r="V44" s="220"/>
-      <c r="W44" s="220"/>
+      <c r="A44" s="213"/>
+      <c r="B44" s="209"/>
+      <c r="C44" s="209"/>
+      <c r="D44" s="209"/>
+      <c r="E44" s="209"/>
+      <c r="F44" s="209"/>
+      <c r="G44" s="209"/>
+      <c r="H44" s="209"/>
+      <c r="I44" s="209"/>
+      <c r="J44" s="209"/>
+      <c r="K44" s="209"/>
+      <c r="L44" s="209"/>
+      <c r="M44" s="209"/>
+      <c r="N44" s="209"/>
+      <c r="O44" s="209"/>
+      <c r="P44" s="209"/>
+      <c r="Q44" s="209"/>
+      <c r="R44" s="209"/>
+      <c r="S44" s="209"/>
+      <c r="T44" s="209"/>
+      <c r="U44" s="209"/>
+      <c r="V44" s="209"/>
+      <c r="W44" s="209"/>
       <c r="X44"/>
       <c r="Z44"/>
       <c r="AA44"/>
@@ -9054,25 +9054,25 @@
       <c r="AY44"/>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A45" s="203" t="s">
+      <c r="A45" s="212" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="255" t="s">
+      <c r="C45" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="213" t="s">
+      <c r="D45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="213" t="s">
+      <c r="E45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="213" t="s">
+      <c r="F45" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="G45" s="213" t="s">
+      <c r="G45" s="204" t="s">
         <v>52</v>
       </c>
       <c r="H45" s="95" t="s">
@@ -9081,46 +9081,46 @@
       <c r="I45" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="J45" s="213" t="s">
+      <c r="J45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="K45" s="213" t="s">
+      <c r="K45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="L45" s="213" t="s">
+      <c r="L45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="M45" s="213" t="s">
+      <c r="M45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="N45" s="213" t="s">
+      <c r="N45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="O45" s="213" t="s">
+      <c r="O45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="P45" s="255" t="s">
+      <c r="P45" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="Q45" s="213" t="s">
+      <c r="Q45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="R45" s="213" t="s">
+      <c r="R45" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="S45" s="213" t="s">
+      <c r="S45" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="T45" s="213" t="s">
+      <c r="T45" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="U45" s="213" t="s">
+      <c r="U45" s="204" t="s">
         <v>53</v>
       </c>
       <c r="V45" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="W45" s="213" t="s">
+      <c r="W45" s="204" t="s">
         <v>53</v>
       </c>
       <c r="X45"/>
@@ -9149,37 +9149,37 @@
       <c r="AY45"/>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A46" s="204"/>
+      <c r="A46" s="213"/>
       <c r="B46" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="255"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="213"/>
-      <c r="F46" s="213"/>
-      <c r="G46" s="213"/>
+      <c r="C46" s="243"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="204"/>
+      <c r="F46" s="204"/>
+      <c r="G46" s="204"/>
       <c r="H46" s="95" t="s">
         <v>53</v>
       </c>
       <c r="I46" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="J46" s="213"/>
-      <c r="K46" s="213"/>
-      <c r="L46" s="213"/>
-      <c r="M46" s="213"/>
-      <c r="N46" s="213"/>
-      <c r="O46" s="213"/>
-      <c r="P46" s="255"/>
-      <c r="Q46" s="213"/>
-      <c r="R46" s="213"/>
-      <c r="S46" s="213"/>
-      <c r="T46" s="213"/>
-      <c r="U46" s="213"/>
+      <c r="J46" s="204"/>
+      <c r="K46" s="204"/>
+      <c r="L46" s="204"/>
+      <c r="M46" s="204"/>
+      <c r="N46" s="204"/>
+      <c r="O46" s="204"/>
+      <c r="P46" s="243"/>
+      <c r="Q46" s="204"/>
+      <c r="R46" s="204"/>
+      <c r="S46" s="204"/>
+      <c r="T46" s="204"/>
+      <c r="U46" s="204"/>
       <c r="V46" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="W46" s="213"/>
+      <c r="W46" s="204"/>
       <c r="X46"/>
       <c r="Z46"/>
       <c r="AA46"/>
@@ -9409,30 +9409,28 @@
       </c>
     </row>
     <row r="51" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A51" s="203" t="s">
+      <c r="A51" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="94" t="s">
-        <v>42</v>
+      <c r="B51" s="236" t="s">
+        <v>411</v>
       </c>
       <c r="C51" s="94" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A52" s="204"/>
-      <c r="B52" s="96" t="s">
-        <v>3</v>
-      </c>
+      <c r="A52" s="213"/>
+      <c r="B52" s="236"/>
       <c r="C52" s="96" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A53" s="203" t="s">
+      <c r="A53" s="212" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="258" t="s">
+      <c r="B53" s="236" t="s">
         <v>44</v>
       </c>
       <c r="C53" s="94" t="s">
@@ -9440,29 +9438,29 @@
       </c>
     </row>
     <row r="54" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A54" s="204"/>
-      <c r="B54" s="258"/>
+      <c r="A54" s="213"/>
+      <c r="B54" s="236"/>
       <c r="C54" s="96" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A55" s="203" t="s">
+      <c r="A55" s="212" t="s">
         <v>38</v>
       </c>
       <c r="B55" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="220" t="s">
+      <c r="C55" s="209" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A56" s="204"/>
+      <c r="A56" s="213"/>
       <c r="B56" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="220"/>
+      <c r="C56" s="209"/>
     </row>
     <row r="57" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A57" s="194" t="s">
@@ -9499,754 +9497,754 @@
     </row>
     <row r="61" spans="1:51" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="193"/>
-      <c r="B61" s="240" t="s">
+      <c r="B61" s="245" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="241"/>
-      <c r="D61" s="240" t="s">
+      <c r="C61" s="246"/>
+      <c r="D61" s="245" t="s">
         <v>239</v>
       </c>
-      <c r="E61" s="241"/>
-      <c r="F61" s="250" t="s">
+      <c r="E61" s="246"/>
+      <c r="F61" s="255" t="s">
         <v>274</v>
       </c>
-      <c r="G61" s="259"/>
-      <c r="H61" s="250" t="s">
+      <c r="G61" s="256"/>
+      <c r="H61" s="255" t="s">
         <v>275</v>
       </c>
-      <c r="I61" s="251"/>
-      <c r="J61" s="240" t="s">
+      <c r="I61" s="261"/>
+      <c r="J61" s="245" t="s">
         <v>305</v>
       </c>
-      <c r="K61" s="241"/>
-      <c r="L61" s="244" t="s">
+      <c r="K61" s="246"/>
+      <c r="L61" s="248" t="s">
         <v>208</v>
       </c>
-      <c r="M61" s="244"/>
-      <c r="N61" s="240" t="s">
+      <c r="M61" s="248"/>
+      <c r="N61" s="245" t="s">
         <v>210</v>
       </c>
-      <c r="O61" s="241"/>
-      <c r="P61" s="240" t="s">
+      <c r="O61" s="246"/>
+      <c r="P61" s="245" t="s">
         <v>276</v>
       </c>
-      <c r="Q61" s="241"/>
-      <c r="R61" s="244" t="s">
+      <c r="Q61" s="246"/>
+      <c r="R61" s="248" t="s">
         <v>220</v>
       </c>
-      <c r="S61" s="244"/>
-      <c r="T61" s="244" t="s">
+      <c r="S61" s="248"/>
+      <c r="T61" s="248" t="s">
         <v>303</v>
       </c>
-      <c r="U61" s="244"/>
-      <c r="V61" s="250" t="s">
+      <c r="U61" s="248"/>
+      <c r="V61" s="255" t="s">
         <v>285</v>
       </c>
-      <c r="W61" s="251"/>
-      <c r="X61" s="250" t="s">
+      <c r="W61" s="261"/>
+      <c r="X61" s="255" t="s">
         <v>335</v>
       </c>
-      <c r="Y61" s="251"/>
-      <c r="Z61" s="250" t="s">
+      <c r="Y61" s="261"/>
+      <c r="Z61" s="255" t="s">
         <v>336</v>
       </c>
-      <c r="AA61" s="251"/>
-      <c r="AB61" s="244" t="s">
+      <c r="AA61" s="261"/>
+      <c r="AB61" s="248" t="s">
         <v>332</v>
       </c>
-      <c r="AC61" s="244"/>
-      <c r="AD61" s="240" t="s">
+      <c r="AC61" s="248"/>
+      <c r="AD61" s="245" t="s">
         <v>225</v>
       </c>
-      <c r="AE61" s="241"/>
-      <c r="AF61" s="240" t="s">
+      <c r="AE61" s="246"/>
+      <c r="AF61" s="245" t="s">
         <v>342</v>
       </c>
-      <c r="AG61" s="241"/>
-      <c r="AH61" s="240" t="s">
+      <c r="AG61" s="246"/>
+      <c r="AH61" s="245" t="s">
         <v>344</v>
       </c>
-      <c r="AI61" s="241"/>
-      <c r="AJ61" s="244" t="s">
+      <c r="AI61" s="246"/>
+      <c r="AJ61" s="248" t="s">
         <v>359</v>
       </c>
-      <c r="AK61" s="244"/>
-      <c r="AL61" s="240" t="s">
+      <c r="AK61" s="248"/>
+      <c r="AL61" s="245" t="s">
         <v>345</v>
       </c>
-      <c r="AM61" s="241"/>
-      <c r="AN61" s="240" t="s">
+      <c r="AM61" s="246"/>
+      <c r="AN61" s="245" t="s">
         <v>403</v>
       </c>
-      <c r="AO61" s="241"/>
-      <c r="AP61" s="240" t="s">
+      <c r="AO61" s="246"/>
+      <c r="AP61" s="245" t="s">
         <v>347</v>
       </c>
-      <c r="AQ61" s="241"/>
-      <c r="AR61" s="244" t="s">
+      <c r="AQ61" s="246"/>
+      <c r="AR61" s="248" t="s">
         <v>352</v>
       </c>
-      <c r="AS61" s="244"/>
-      <c r="AT61" s="240" t="s">
+      <c r="AS61" s="248"/>
+      <c r="AT61" s="245" t="s">
         <v>195</v>
       </c>
-      <c r="AU61" s="241"/>
+      <c r="AU61" s="246"/>
     </row>
     <row r="62" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A62" s="223" t="s">
+      <c r="A62" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="248" t="s">
+      <c r="B62" s="258" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="248"/>
-      <c r="D62" s="248" t="s">
+      <c r="C62" s="258"/>
+      <c r="D62" s="258" t="s">
         <v>94</v>
       </c>
-      <c r="E62" s="248"/>
-      <c r="F62" s="252" t="s">
+      <c r="E62" s="258"/>
+      <c r="F62" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="G62" s="252"/>
-      <c r="H62" s="252" t="s">
+      <c r="G62" s="239"/>
+      <c r="H62" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="I62" s="252"/>
-      <c r="J62" s="252" t="s">
+      <c r="I62" s="239"/>
+      <c r="J62" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="K62" s="252"/>
-      <c r="L62" s="242" t="s">
+      <c r="K62" s="239"/>
+      <c r="L62" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="M62" s="242"/>
-      <c r="N62" s="213" t="s">
+      <c r="M62" s="251"/>
+      <c r="N62" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="O62" s="213"/>
-      <c r="P62" s="252" t="s">
+      <c r="O62" s="204"/>
+      <c r="P62" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="Q62" s="252"/>
-      <c r="R62" s="242" t="s">
+      <c r="Q62" s="239"/>
+      <c r="R62" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="S62" s="242"/>
-      <c r="T62" s="242" t="s">
+      <c r="S62" s="251"/>
+      <c r="T62" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="U62" s="242"/>
-      <c r="V62" s="252" t="s">
+      <c r="U62" s="251"/>
+      <c r="V62" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="W62" s="252"/>
-      <c r="X62" s="252" t="s">
+      <c r="W62" s="239"/>
+      <c r="X62" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="Y62" s="252"/>
-      <c r="Z62" s="252" t="s">
+      <c r="Y62" s="239"/>
+      <c r="Z62" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="AA62" s="252"/>
-      <c r="AB62" s="242" t="s">
+      <c r="AA62" s="239"/>
+      <c r="AB62" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="AC62" s="242"/>
-      <c r="AD62" s="242" t="s">
+      <c r="AC62" s="251"/>
+      <c r="AD62" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="AE62" s="242"/>
-      <c r="AF62" s="242" t="s">
+      <c r="AE62" s="251"/>
+      <c r="AF62" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="AG62" s="242"/>
-      <c r="AH62" s="242" t="s">
+      <c r="AG62" s="251"/>
+      <c r="AH62" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="AI62" s="242"/>
-      <c r="AJ62" s="236" t="s">
+      <c r="AI62" s="251"/>
+      <c r="AJ62" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="AK62" s="236"/>
-      <c r="AL62" s="242" t="s">
+      <c r="AK62" s="271"/>
+      <c r="AL62" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="AM62" s="242"/>
-      <c r="AN62" s="219" t="s">
+      <c r="AM62" s="251"/>
+      <c r="AN62" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="AO62" s="219"/>
-      <c r="AP62" s="242" t="s">
+      <c r="AO62" s="232"/>
+      <c r="AP62" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="AQ62" s="242"/>
-      <c r="AR62" s="236" t="s">
+      <c r="AQ62" s="251"/>
+      <c r="AR62" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="AS62" s="236"/>
-      <c r="AT62" s="248" t="s">
+      <c r="AS62" s="271"/>
+      <c r="AT62" s="258" t="s">
         <v>244</v>
       </c>
-      <c r="AU62" s="248"/>
+      <c r="AU62" s="258"/>
       <c r="AV62"/>
       <c r="AW62"/>
       <c r="AX62"/>
       <c r="AY62"/>
     </row>
     <row r="63" spans="1:51" x14ac:dyDescent="0.35">
-      <c r="A63" s="224"/>
-      <c r="B63" s="206" t="s">
+      <c r="A63" s="227"/>
+      <c r="B63" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="206"/>
-      <c r="D63" s="206" t="s">
+      <c r="C63" s="233"/>
+      <c r="D63" s="233" t="s">
         <v>7</v>
       </c>
-      <c r="E63" s="206"/>
-      <c r="F63" s="253"/>
-      <c r="G63" s="253"/>
-      <c r="H63" s="253"/>
-      <c r="I63" s="253"/>
-      <c r="J63" s="253"/>
-      <c r="K63" s="253"/>
-      <c r="L63" s="243"/>
-      <c r="M63" s="243"/>
-      <c r="N63" s="213"/>
-      <c r="O63" s="213"/>
-      <c r="P63" s="253"/>
-      <c r="Q63" s="253"/>
-      <c r="R63" s="243"/>
-      <c r="S63" s="243"/>
-      <c r="T63" s="243"/>
-      <c r="U63" s="243"/>
-      <c r="V63" s="253"/>
-      <c r="W63" s="253"/>
-      <c r="X63" s="253"/>
-      <c r="Y63" s="253"/>
-      <c r="Z63" s="253"/>
-      <c r="AA63" s="253"/>
-      <c r="AB63" s="243"/>
-      <c r="AC63" s="243"/>
-      <c r="AD63" s="243"/>
-      <c r="AE63" s="243"/>
-      <c r="AF63" s="243"/>
-      <c r="AG63" s="243"/>
-      <c r="AH63" s="243"/>
-      <c r="AI63" s="243"/>
-      <c r="AJ63" s="237"/>
-      <c r="AK63" s="237"/>
-      <c r="AL63" s="243"/>
-      <c r="AM63" s="243"/>
-      <c r="AN63" s="219" t="s">
+      <c r="E63" s="233"/>
+      <c r="F63" s="240"/>
+      <c r="G63" s="240"/>
+      <c r="H63" s="240"/>
+      <c r="I63" s="240"/>
+      <c r="J63" s="240"/>
+      <c r="K63" s="240"/>
+      <c r="L63" s="252"/>
+      <c r="M63" s="252"/>
+      <c r="N63" s="204"/>
+      <c r="O63" s="204"/>
+      <c r="P63" s="240"/>
+      <c r="Q63" s="240"/>
+      <c r="R63" s="252"/>
+      <c r="S63" s="252"/>
+      <c r="T63" s="252"/>
+      <c r="U63" s="252"/>
+      <c r="V63" s="240"/>
+      <c r="W63" s="240"/>
+      <c r="X63" s="240"/>
+      <c r="Y63" s="240"/>
+      <c r="Z63" s="240"/>
+      <c r="AA63" s="240"/>
+      <c r="AB63" s="252"/>
+      <c r="AC63" s="252"/>
+      <c r="AD63" s="252"/>
+      <c r="AE63" s="252"/>
+      <c r="AF63" s="252"/>
+      <c r="AG63" s="252"/>
+      <c r="AH63" s="252"/>
+      <c r="AI63" s="252"/>
+      <c r="AJ63" s="272"/>
+      <c r="AK63" s="272"/>
+      <c r="AL63" s="252"/>
+      <c r="AM63" s="252"/>
+      <c r="AN63" s="232" t="s">
         <v>78</v>
       </c>
-      <c r="AO63" s="219"/>
-      <c r="AP63" s="243"/>
-      <c r="AQ63" s="243"/>
-      <c r="AR63" s="237"/>
-      <c r="AS63" s="237"/>
-      <c r="AT63" s="249" t="s">
+      <c r="AO63" s="232"/>
+      <c r="AP63" s="252"/>
+      <c r="AQ63" s="252"/>
+      <c r="AR63" s="272"/>
+      <c r="AS63" s="272"/>
+      <c r="AT63" s="262" t="s">
         <v>130</v>
       </c>
-      <c r="AU63" s="249"/>
+      <c r="AU63" s="262"/>
       <c r="AV63"/>
       <c r="AW63"/>
       <c r="AX63"/>
       <c r="AY63"/>
     </row>
     <row r="64" spans="1:51" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="226" t="s">
+      <c r="A64" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="206" t="s">
+      <c r="B64" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="206"/>
-      <c r="D64" s="206" t="s">
+      <c r="C64" s="233"/>
+      <c r="D64" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="E64" s="206"/>
-      <c r="F64" s="238" t="s">
+      <c r="E64" s="233"/>
+      <c r="F64" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="G64" s="238"/>
-      <c r="H64" s="238" t="s">
+      <c r="G64" s="241"/>
+      <c r="H64" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="I64" s="238"/>
-      <c r="J64" s="238" t="s">
+      <c r="I64" s="241"/>
+      <c r="J64" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="K64" s="238"/>
-      <c r="L64" s="205" t="s">
+      <c r="K64" s="241"/>
+      <c r="L64" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="M64" s="205"/>
-      <c r="N64" s="227" t="s">
+      <c r="M64" s="210"/>
+      <c r="N64" s="223" t="s">
         <v>211</v>
       </c>
-      <c r="O64" s="227"/>
-      <c r="P64" s="238" t="s">
+      <c r="O64" s="223"/>
+      <c r="P64" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="Q64" s="238"/>
-      <c r="R64" s="205" t="s">
+      <c r="Q64" s="241"/>
+      <c r="R64" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="S64" s="205"/>
-      <c r="T64" s="205" t="s">
+      <c r="S64" s="210"/>
+      <c r="T64" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="U64" s="205"/>
-      <c r="V64" s="238" t="s">
+      <c r="U64" s="210"/>
+      <c r="V64" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="W64" s="238"/>
-      <c r="X64" s="238" t="s">
+      <c r="W64" s="241"/>
+      <c r="X64" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="Y64" s="238"/>
-      <c r="Z64" s="238" t="s">
+      <c r="Y64" s="241"/>
+      <c r="Z64" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="AA64" s="238"/>
-      <c r="AB64" s="205" t="s">
+      <c r="AA64" s="241"/>
+      <c r="AB64" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="AC64" s="205"/>
-      <c r="AD64" s="206" t="s">
+      <c r="AC64" s="210"/>
+      <c r="AD64" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="AE64" s="206"/>
-      <c r="AF64" s="206" t="s">
+      <c r="AE64" s="233"/>
+      <c r="AF64" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="AG64" s="206"/>
-      <c r="AH64" s="206" t="s">
+      <c r="AG64" s="233"/>
+      <c r="AH64" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="AI64" s="206"/>
-      <c r="AJ64" s="238" t="s">
+      <c r="AI64" s="233"/>
+      <c r="AJ64" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="AK64" s="238"/>
-      <c r="AL64" s="206" t="s">
+      <c r="AK64" s="241"/>
+      <c r="AL64" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="AM64" s="206"/>
-      <c r="AN64" s="239" t="s">
+      <c r="AM64" s="233"/>
+      <c r="AN64" s="273" t="s">
         <v>290</v>
       </c>
-      <c r="AO64" s="239"/>
-      <c r="AP64" s="206" t="s">
+      <c r="AO64" s="273"/>
+      <c r="AP64" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="AQ64" s="206"/>
-      <c r="AR64" s="238" t="s">
+      <c r="AQ64" s="233"/>
+      <c r="AR64" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="AS64" s="238"/>
-      <c r="AT64" s="239" t="s">
+      <c r="AS64" s="241"/>
+      <c r="AT64" s="273" t="s">
         <v>243</v>
       </c>
-      <c r="AU64" s="239"/>
+      <c r="AU64" s="273"/>
       <c r="AV64"/>
       <c r="AW64"/>
       <c r="AX64"/>
       <c r="AY64"/>
     </row>
     <row r="65" spans="1:77" x14ac:dyDescent="0.35">
-      <c r="A65" s="226"/>
-      <c r="B65" s="206" t="s">
+      <c r="A65" s="222"/>
+      <c r="B65" s="233" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="206"/>
-      <c r="D65" s="206" t="s">
+      <c r="C65" s="233"/>
+      <c r="D65" s="233" t="s">
         <v>99</v>
       </c>
-      <c r="E65" s="206"/>
-      <c r="F65" s="238" t="s">
+      <c r="E65" s="233"/>
+      <c r="F65" s="241" t="s">
         <v>99</v>
       </c>
-      <c r="G65" s="238"/>
-      <c r="H65" s="238" t="s">
+      <c r="G65" s="241"/>
+      <c r="H65" s="241" t="s">
         <v>99</v>
       </c>
-      <c r="I65" s="238"/>
-      <c r="J65" s="238" t="s">
+      <c r="I65" s="241"/>
+      <c r="J65" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="238"/>
-      <c r="L65" s="205" t="s">
+      <c r="K65" s="241"/>
+      <c r="L65" s="210" t="s">
         <v>11</v>
       </c>
-      <c r="M65" s="205"/>
-      <c r="N65" s="227"/>
-      <c r="O65" s="227"/>
-      <c r="P65" s="238" t="s">
+      <c r="M65" s="210"/>
+      <c r="N65" s="223"/>
+      <c r="O65" s="223"/>
+      <c r="P65" s="241" t="s">
         <v>82</v>
       </c>
-      <c r="Q65" s="238"/>
-      <c r="R65" s="220" t="s">
+      <c r="Q65" s="241"/>
+      <c r="R65" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="S65" s="220"/>
-      <c r="T65" s="220" t="s">
+      <c r="S65" s="209"/>
+      <c r="T65" s="209" t="s">
         <v>87</v>
       </c>
-      <c r="U65" s="220"/>
-      <c r="V65" s="238" t="s">
+      <c r="U65" s="209"/>
+      <c r="V65" s="241" t="s">
         <v>99</v>
       </c>
-      <c r="W65" s="238"/>
-      <c r="X65" s="238" t="s">
+      <c r="W65" s="241"/>
+      <c r="X65" s="241" t="s">
         <v>135</v>
       </c>
-      <c r="Y65" s="238"/>
-      <c r="Z65" s="238" t="s">
+      <c r="Y65" s="241"/>
+      <c r="Z65" s="241" t="s">
         <v>135</v>
       </c>
-      <c r="AA65" s="238"/>
-      <c r="AB65" s="205" t="s">
+      <c r="AA65" s="241"/>
+      <c r="AB65" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="AC65" s="205"/>
-      <c r="AD65" s="206" t="s">
+      <c r="AC65" s="210"/>
+      <c r="AD65" s="233" t="s">
         <v>135</v>
       </c>
-      <c r="AE65" s="206"/>
-      <c r="AF65" s="206" t="s">
+      <c r="AE65" s="233"/>
+      <c r="AF65" s="233" t="s">
         <v>135</v>
       </c>
-      <c r="AG65" s="206"/>
-      <c r="AH65" s="206" t="s">
+      <c r="AG65" s="233"/>
+      <c r="AH65" s="233" t="s">
         <v>135</v>
       </c>
-      <c r="AI65" s="206"/>
-      <c r="AJ65" s="238" t="s">
+      <c r="AI65" s="233"/>
+      <c r="AJ65" s="241" t="s">
         <v>135</v>
       </c>
-      <c r="AK65" s="238"/>
-      <c r="AL65" s="206" t="s">
+      <c r="AK65" s="241"/>
+      <c r="AL65" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="AM65" s="206"/>
-      <c r="AN65" s="239"/>
-      <c r="AO65" s="239"/>
-      <c r="AP65" s="206" t="s">
+      <c r="AM65" s="233"/>
+      <c r="AN65" s="273"/>
+      <c r="AO65" s="273"/>
+      <c r="AP65" s="233" t="s">
         <v>84</v>
       </c>
-      <c r="AQ65" s="206"/>
-      <c r="AR65" s="238" t="s">
+      <c r="AQ65" s="233"/>
+      <c r="AR65" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="AS65" s="238"/>
-      <c r="AT65" s="239"/>
-      <c r="AU65" s="239"/>
+      <c r="AS65" s="241"/>
+      <c r="AT65" s="273"/>
+      <c r="AU65" s="273"/>
       <c r="AV65"/>
       <c r="AW65"/>
       <c r="AX65"/>
       <c r="AY65"/>
     </row>
     <row r="66" spans="1:77" x14ac:dyDescent="0.35">
-      <c r="A66" s="223" t="s">
+      <c r="A66" s="226" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="213" t="s">
+      <c r="B66" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="213"/>
-      <c r="D66" s="212" t="s">
+      <c r="C66" s="204"/>
+      <c r="D66" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="E66" s="212"/>
-      <c r="F66" s="227" t="s">
+      <c r="E66" s="208"/>
+      <c r="F66" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="G66" s="227"/>
-      <c r="H66" s="227" t="s">
+      <c r="G66" s="223"/>
+      <c r="H66" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="I66" s="227"/>
-      <c r="J66" s="263" t="s">
+      <c r="I66" s="223"/>
+      <c r="J66" s="242" t="s">
         <v>88</v>
       </c>
-      <c r="K66" s="263"/>
-      <c r="L66" s="220" t="s">
+      <c r="K66" s="242"/>
+      <c r="L66" s="209" t="s">
         <v>84</v>
       </c>
-      <c r="M66" s="220"/>
-      <c r="N66" s="227" t="s">
+      <c r="M66" s="209"/>
+      <c r="N66" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="O66" s="227"/>
-      <c r="P66" s="227" t="s">
+      <c r="O66" s="223"/>
+      <c r="P66" s="223" t="s">
         <v>85</v>
       </c>
-      <c r="Q66" s="227"/>
-      <c r="R66" s="220" t="s">
+      <c r="Q66" s="223"/>
+      <c r="R66" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="S66" s="220"/>
-      <c r="T66" s="205" t="s">
+      <c r="S66" s="209"/>
+      <c r="T66" s="210" t="s">
         <v>54</v>
       </c>
-      <c r="U66" s="205"/>
-      <c r="V66" s="227" t="s">
+      <c r="U66" s="210"/>
+      <c r="V66" s="223" t="s">
         <v>84</v>
       </c>
-      <c r="W66" s="227"/>
-      <c r="X66" s="227" t="s">
+      <c r="W66" s="223"/>
+      <c r="X66" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="Y66" s="227"/>
-      <c r="Z66" s="227" t="s">
+      <c r="Y66" s="223"/>
+      <c r="Z66" s="223" t="s">
         <v>83</v>
       </c>
-      <c r="AA66" s="227"/>
-      <c r="AB66" s="205" t="s">
+      <c r="AA66" s="223"/>
+      <c r="AB66" s="210" t="s">
         <v>99</v>
       </c>
-      <c r="AC66" s="205"/>
-      <c r="AD66" s="220" t="s">
+      <c r="AC66" s="210"/>
+      <c r="AD66" s="209" t="s">
         <v>226</v>
       </c>
-      <c r="AE66" s="220"/>
-      <c r="AF66" s="205" t="s">
+      <c r="AE66" s="209"/>
+      <c r="AF66" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="AG66" s="205"/>
-      <c r="AH66" s="205" t="s">
+      <c r="AG66" s="210"/>
+      <c r="AH66" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="AI66" s="205"/>
-      <c r="AJ66" s="227" t="s">
+      <c r="AI66" s="210"/>
+      <c r="AJ66" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="AK66" s="227"/>
-      <c r="AL66" s="205" t="s">
+      <c r="AK66" s="223"/>
+      <c r="AL66" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="AM66" s="205"/>
-      <c r="AN66" s="239"/>
-      <c r="AO66" s="239"/>
-      <c r="AP66" s="220" t="s">
+      <c r="AM66" s="210"/>
+      <c r="AN66" s="273"/>
+      <c r="AO66" s="273"/>
+      <c r="AP66" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="AQ66" s="220"/>
-      <c r="AR66" s="227" t="s">
+      <c r="AQ66" s="209"/>
+      <c r="AR66" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="AS66" s="227"/>
-      <c r="AT66" s="239"/>
-      <c r="AU66" s="239"/>
+      <c r="AS66" s="223"/>
+      <c r="AT66" s="273"/>
+      <c r="AU66" s="273"/>
       <c r="AV66"/>
       <c r="AW66"/>
       <c r="AX66"/>
       <c r="AY66"/>
     </row>
     <row r="67" spans="1:77" s="146" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="224"/>
-      <c r="B67" s="213"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="212"/>
-      <c r="E67" s="212"/>
-      <c r="F67" s="227"/>
-      <c r="G67" s="227"/>
-      <c r="H67" s="227"/>
-      <c r="I67" s="227"/>
-      <c r="J67" s="263" t="s">
+      <c r="A67" s="227"/>
+      <c r="B67" s="204"/>
+      <c r="C67" s="204"/>
+      <c r="D67" s="208"/>
+      <c r="E67" s="208"/>
+      <c r="F67" s="223"/>
+      <c r="G67" s="223"/>
+      <c r="H67" s="223"/>
+      <c r="I67" s="223"/>
+      <c r="J67" s="242" t="s">
         <v>87</v>
       </c>
-      <c r="K67" s="263"/>
-      <c r="L67" s="220"/>
-      <c r="M67" s="220"/>
-      <c r="N67" s="227"/>
-      <c r="O67" s="227"/>
-      <c r="P67" s="227"/>
-      <c r="Q67" s="227"/>
-      <c r="R67" s="220"/>
-      <c r="S67" s="220"/>
-      <c r="T67" s="220" t="s">
+      <c r="K67" s="242"/>
+      <c r="L67" s="209"/>
+      <c r="M67" s="209"/>
+      <c r="N67" s="223"/>
+      <c r="O67" s="223"/>
+      <c r="P67" s="223"/>
+      <c r="Q67" s="223"/>
+      <c r="R67" s="209"/>
+      <c r="S67" s="209"/>
+      <c r="T67" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="U67" s="220"/>
-      <c r="V67" s="227"/>
-      <c r="W67" s="227"/>
-      <c r="X67" s="227"/>
-      <c r="Y67" s="227"/>
-      <c r="Z67" s="227"/>
-      <c r="AA67" s="227"/>
-      <c r="AB67" s="205"/>
-      <c r="AC67" s="205"/>
-      <c r="AD67" s="220"/>
-      <c r="AE67" s="220"/>
-      <c r="AF67" s="205"/>
-      <c r="AG67" s="205"/>
-      <c r="AH67" s="205"/>
-      <c r="AI67" s="205"/>
-      <c r="AJ67" s="227"/>
-      <c r="AK67" s="227"/>
-      <c r="AL67" s="205"/>
-      <c r="AM67" s="205"/>
-      <c r="AN67" s="239"/>
-      <c r="AO67" s="239"/>
-      <c r="AP67" s="220"/>
-      <c r="AQ67" s="220"/>
-      <c r="AR67" s="227"/>
-      <c r="AS67" s="227"/>
-      <c r="AT67" s="239"/>
-      <c r="AU67" s="239"/>
+      <c r="U67" s="209"/>
+      <c r="V67" s="223"/>
+      <c r="W67" s="223"/>
+      <c r="X67" s="223"/>
+      <c r="Y67" s="223"/>
+      <c r="Z67" s="223"/>
+      <c r="AA67" s="223"/>
+      <c r="AB67" s="210"/>
+      <c r="AC67" s="210"/>
+      <c r="AD67" s="209"/>
+      <c r="AE67" s="209"/>
+      <c r="AF67" s="210"/>
+      <c r="AG67" s="210"/>
+      <c r="AH67" s="210"/>
+      <c r="AI67" s="210"/>
+      <c r="AJ67" s="223"/>
+      <c r="AK67" s="223"/>
+      <c r="AL67" s="210"/>
+      <c r="AM67" s="210"/>
+      <c r="AN67" s="273"/>
+      <c r="AO67" s="273"/>
+      <c r="AP67" s="209"/>
+      <c r="AQ67" s="209"/>
+      <c r="AR67" s="223"/>
+      <c r="AS67" s="223"/>
+      <c r="AT67" s="273"/>
+      <c r="AU67" s="273"/>
     </row>
     <row r="68" spans="1:77" s="146" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="223" t="s">
+      <c r="A68" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="220" t="s">
+      <c r="B68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="220"/>
-      <c r="D68" s="220" t="s">
+      <c r="C68" s="209"/>
+      <c r="D68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="220"/>
-      <c r="F68" s="220" t="s">
+      <c r="E68" s="209"/>
+      <c r="F68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="G68" s="220"/>
-      <c r="H68" s="220" t="s">
+      <c r="G68" s="209"/>
+      <c r="H68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="220"/>
-      <c r="J68" s="238" t="s">
+      <c r="I68" s="209"/>
+      <c r="J68" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="K68" s="238"/>
-      <c r="L68" s="220" t="s">
+      <c r="K68" s="241"/>
+      <c r="L68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="M68" s="220"/>
-      <c r="N68" s="220" t="s">
+      <c r="M68" s="209"/>
+      <c r="N68" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="O68" s="220"/>
-      <c r="P68" s="220" t="s">
+      <c r="O68" s="209"/>
+      <c r="P68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Q68" s="220"/>
-      <c r="R68" s="220" t="s">
+      <c r="Q68" s="209"/>
+      <c r="R68" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="S68" s="220"/>
-      <c r="T68" s="220" t="s">
+      <c r="S68" s="209"/>
+      <c r="T68" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="U68" s="220"/>
-      <c r="V68" s="220" t="s">
+      <c r="U68" s="209"/>
+      <c r="V68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="W68" s="220"/>
-      <c r="X68" s="220" t="s">
+      <c r="W68" s="209"/>
+      <c r="X68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="Y68" s="220"/>
-      <c r="Z68" s="220" t="s">
+      <c r="Y68" s="209"/>
+      <c r="Z68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AA68" s="220"/>
-      <c r="AB68" s="220" t="s">
+      <c r="AA68" s="209"/>
+      <c r="AB68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AC68" s="220"/>
-      <c r="AD68" s="206" t="s">
+      <c r="AC68" s="209"/>
+      <c r="AD68" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="AE68" s="206"/>
-      <c r="AF68" s="220" t="s">
+      <c r="AE68" s="233"/>
+      <c r="AF68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AG68" s="220"/>
-      <c r="AH68" s="220" t="s">
+      <c r="AG68" s="209"/>
+      <c r="AH68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AI68" s="220"/>
-      <c r="AJ68" s="220" t="s">
+      <c r="AI68" s="209"/>
+      <c r="AJ68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AK68" s="220"/>
-      <c r="AL68" s="220" t="s">
+      <c r="AK68" s="209"/>
+      <c r="AL68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AM68" s="220"/>
-      <c r="AN68" s="220" t="s">
+      <c r="AM68" s="209"/>
+      <c r="AN68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AO68" s="220"/>
-      <c r="AP68" s="220" t="s">
+      <c r="AO68" s="209"/>
+      <c r="AP68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AQ68" s="220"/>
-      <c r="AR68" s="220" t="s">
+      <c r="AQ68" s="209"/>
+      <c r="AR68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AS68" s="220"/>
-      <c r="AT68" s="220" t="s">
+      <c r="AS68" s="209"/>
+      <c r="AT68" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="AU68" s="220"/>
+      <c r="AU68" s="209"/>
     </row>
     <row r="69" spans="1:77" x14ac:dyDescent="0.35">
-      <c r="A69" s="224"/>
-      <c r="B69" s="220"/>
-      <c r="C69" s="220"/>
-      <c r="D69" s="220"/>
-      <c r="E69" s="220"/>
-      <c r="F69" s="220"/>
-      <c r="G69" s="220"/>
-      <c r="H69" s="220"/>
-      <c r="I69" s="220"/>
-      <c r="J69" s="238" t="s">
+      <c r="A69" s="227"/>
+      <c r="B69" s="209"/>
+      <c r="C69" s="209"/>
+      <c r="D69" s="209"/>
+      <c r="E69" s="209"/>
+      <c r="F69" s="209"/>
+      <c r="G69" s="209"/>
+      <c r="H69" s="209"/>
+      <c r="I69" s="209"/>
+      <c r="J69" s="241" t="s">
         <v>24</v>
       </c>
-      <c r="K69" s="238"/>
-      <c r="L69" s="220"/>
-      <c r="M69" s="220"/>
-      <c r="N69" s="220"/>
-      <c r="O69" s="220"/>
-      <c r="P69" s="220"/>
-      <c r="Q69" s="220"/>
-      <c r="R69" s="220"/>
-      <c r="S69" s="220"/>
-      <c r="T69" s="220"/>
-      <c r="U69" s="220"/>
-      <c r="V69" s="220"/>
-      <c r="W69" s="220"/>
-      <c r="X69" s="220"/>
-      <c r="Y69" s="220"/>
-      <c r="Z69" s="220"/>
-      <c r="AA69" s="220"/>
-      <c r="AB69" s="220"/>
-      <c r="AC69" s="220"/>
-      <c r="AD69" s="220" t="s">
+      <c r="K69" s="241"/>
+      <c r="L69" s="209"/>
+      <c r="M69" s="209"/>
+      <c r="N69" s="209"/>
+      <c r="O69" s="209"/>
+      <c r="P69" s="209"/>
+      <c r="Q69" s="209"/>
+      <c r="R69" s="209"/>
+      <c r="S69" s="209"/>
+      <c r="T69" s="209"/>
+      <c r="U69" s="209"/>
+      <c r="V69" s="209"/>
+      <c r="W69" s="209"/>
+      <c r="X69" s="209"/>
+      <c r="Y69" s="209"/>
+      <c r="Z69" s="209"/>
+      <c r="AA69" s="209"/>
+      <c r="AB69" s="209"/>
+      <c r="AC69" s="209"/>
+      <c r="AD69" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="AE69" s="220"/>
-      <c r="AF69" s="220"/>
-      <c r="AG69" s="220"/>
-      <c r="AH69" s="220"/>
-      <c r="AI69" s="220"/>
-      <c r="AJ69" s="220"/>
-      <c r="AK69" s="220"/>
-      <c r="AL69" s="220"/>
-      <c r="AM69" s="220"/>
-      <c r="AN69" s="220"/>
-      <c r="AO69" s="220"/>
-      <c r="AP69" s="220"/>
-      <c r="AQ69" s="220"/>
-      <c r="AR69" s="220"/>
-      <c r="AS69" s="220"/>
-      <c r="AT69" s="220"/>
-      <c r="AU69" s="220"/>
+      <c r="AE69" s="209"/>
+      <c r="AF69" s="209"/>
+      <c r="AG69" s="209"/>
+      <c r="AH69" s="209"/>
+      <c r="AI69" s="209"/>
+      <c r="AJ69" s="209"/>
+      <c r="AK69" s="209"/>
+      <c r="AL69" s="209"/>
+      <c r="AM69" s="209"/>
+      <c r="AN69" s="209"/>
+      <c r="AO69" s="209"/>
+      <c r="AP69" s="209"/>
+      <c r="AQ69" s="209"/>
+      <c r="AR69" s="209"/>
+      <c r="AS69" s="209"/>
+      <c r="AT69" s="209"/>
+      <c r="AU69" s="209"/>
       <c r="AV69"/>
       <c r="AW69"/>
       <c r="AX69"/>
@@ -10256,195 +10254,195 @@
       <c r="A70" s="200" t="s">
         <v>39</v>
       </c>
-      <c r="B70" s="213" t="s">
+      <c r="B70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="213"/>
-      <c r="D70" s="213" t="s">
+      <c r="C70" s="204"/>
+      <c r="D70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="E70" s="213"/>
-      <c r="F70" s="213" t="s">
+      <c r="E70" s="204"/>
+      <c r="F70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="G70" s="213"/>
-      <c r="H70" s="213" t="s">
+      <c r="G70" s="204"/>
+      <c r="H70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="I70" s="213"/>
-      <c r="J70" s="213" t="s">
+      <c r="I70" s="204"/>
+      <c r="J70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="K70" s="213"/>
-      <c r="L70" s="213" t="s">
+      <c r="K70" s="204"/>
+      <c r="L70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="M70" s="213"/>
-      <c r="N70" s="213" t="s">
+      <c r="M70" s="204"/>
+      <c r="N70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="O70" s="213"/>
-      <c r="P70" s="213" t="s">
+      <c r="O70" s="204"/>
+      <c r="P70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="Q70" s="213"/>
-      <c r="R70" s="213" t="s">
+      <c r="Q70" s="204"/>
+      <c r="R70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="S70" s="213"/>
-      <c r="T70" s="213" t="s">
+      <c r="S70" s="204"/>
+      <c r="T70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="U70" s="213"/>
-      <c r="V70" s="213" t="s">
+      <c r="U70" s="204"/>
+      <c r="V70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="W70" s="213"/>
-      <c r="X70" s="213" t="s">
+      <c r="W70" s="204"/>
+      <c r="X70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="Y70" s="213"/>
-      <c r="Z70" s="213" t="s">
+      <c r="Y70" s="204"/>
+      <c r="Z70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AA70" s="213"/>
-      <c r="AB70" s="213" t="s">
+      <c r="AA70" s="204"/>
+      <c r="AB70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AC70" s="213"/>
-      <c r="AD70" s="213" t="s">
+      <c r="AC70" s="204"/>
+      <c r="AD70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AE70" s="213"/>
-      <c r="AF70" s="213" t="s">
+      <c r="AE70" s="204"/>
+      <c r="AF70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AG70" s="213"/>
-      <c r="AH70" s="213" t="s">
+      <c r="AG70" s="204"/>
+      <c r="AH70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AI70" s="213"/>
-      <c r="AJ70" s="213" t="s">
+      <c r="AI70" s="204"/>
+      <c r="AJ70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AK70" s="213"/>
-      <c r="AL70" s="213" t="s">
+      <c r="AK70" s="204"/>
+      <c r="AL70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AM70" s="213"/>
-      <c r="AN70" s="213" t="s">
+      <c r="AM70" s="204"/>
+      <c r="AN70" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AO70" s="213"/>
-      <c r="AP70" s="213" t="s">
+      <c r="AO70" s="204"/>
+      <c r="AP70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AQ70" s="213"/>
-      <c r="AR70" s="213" t="s">
+      <c r="AQ70" s="204"/>
+      <c r="AR70" s="204" t="s">
         <v>52</v>
       </c>
-      <c r="AS70" s="213"/>
-      <c r="AT70" s="213" t="s">
+      <c r="AS70" s="204"/>
+      <c r="AT70" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="AU70" s="213"/>
+      <c r="AU70" s="204"/>
     </row>
     <row r="71" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A71" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="220" t="s">
+      <c r="B71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="220"/>
-      <c r="D71" s="220" t="s">
+      <c r="C71" s="209"/>
+      <c r="D71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="220"/>
-      <c r="F71" s="220" t="s">
+      <c r="E71" s="209"/>
+      <c r="F71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="G71" s="220"/>
-      <c r="H71" s="220" t="s">
+      <c r="G71" s="209"/>
+      <c r="H71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="I71" s="220"/>
-      <c r="J71" s="220" t="s">
+      <c r="I71" s="209"/>
+      <c r="J71" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="K71" s="220"/>
-      <c r="L71" s="220" t="s">
+      <c r="K71" s="209"/>
+      <c r="L71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="M71" s="220"/>
-      <c r="N71" s="220" t="s">
+      <c r="M71" s="209"/>
+      <c r="N71" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="O71" s="220"/>
-      <c r="P71" s="220" t="s">
+      <c r="O71" s="209"/>
+      <c r="P71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="Q71" s="220"/>
-      <c r="R71" s="220" t="s">
+      <c r="Q71" s="209"/>
+      <c r="R71" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="S71" s="220"/>
-      <c r="T71" s="220" t="s">
+      <c r="S71" s="209"/>
+      <c r="T71" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="U71" s="220"/>
-      <c r="V71" s="220" t="s">
+      <c r="U71" s="209"/>
+      <c r="V71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="W71" s="220"/>
-      <c r="X71" s="220" t="s">
+      <c r="W71" s="209"/>
+      <c r="X71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="Y71" s="220"/>
-      <c r="Z71" s="220" t="s">
+      <c r="Y71" s="209"/>
+      <c r="Z71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AA71" s="220"/>
-      <c r="AB71" s="220" t="s">
+      <c r="AA71" s="209"/>
+      <c r="AB71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AC71" s="220"/>
-      <c r="AD71" s="220" t="s">
+      <c r="AC71" s="209"/>
+      <c r="AD71" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="AE71" s="220"/>
-      <c r="AF71" s="220" t="s">
+      <c r="AE71" s="209"/>
+      <c r="AF71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AG71" s="220"/>
-      <c r="AH71" s="220" t="s">
+      <c r="AG71" s="209"/>
+      <c r="AH71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AI71" s="220"/>
-      <c r="AJ71" s="220" t="s">
+      <c r="AI71" s="209"/>
+      <c r="AJ71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AK71" s="220"/>
-      <c r="AL71" s="220" t="s">
+      <c r="AK71" s="209"/>
+      <c r="AL71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AM71" s="220"/>
-      <c r="AN71" s="220" t="s">
+      <c r="AM71" s="209"/>
+      <c r="AN71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AO71" s="220"/>
-      <c r="AP71" s="220" t="s">
+      <c r="AO71" s="209"/>
+      <c r="AP71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AQ71" s="220"/>
-      <c r="AR71" s="220" t="s">
+      <c r="AQ71" s="209"/>
+      <c r="AR71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AS71" s="220"/>
-      <c r="AT71" s="220" t="s">
+      <c r="AS71" s="209"/>
+      <c r="AT71" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AU71" s="220"/>
+      <c r="AU71" s="209"/>
       <c r="AV71"/>
       <c r="AW71"/>
       <c r="AX71"/>
@@ -10454,98 +10452,98 @@
       <c r="A72" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="B72" s="220" t="s">
+      <c r="B72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="220"/>
-      <c r="D72" s="220" t="s">
+      <c r="C72" s="209"/>
+      <c r="D72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="220"/>
-      <c r="F72" s="220" t="s">
+      <c r="E72" s="209"/>
+      <c r="F72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="G72" s="220"/>
-      <c r="H72" s="220" t="s">
+      <c r="G72" s="209"/>
+      <c r="H72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="I72" s="220"/>
-      <c r="J72" s="220" t="s">
+      <c r="I72" s="209"/>
+      <c r="J72" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="K72" s="220"/>
-      <c r="L72" s="220" t="s">
+      <c r="K72" s="209"/>
+      <c r="L72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="M72" s="220"/>
-      <c r="N72" s="220" t="s">
+      <c r="M72" s="209"/>
+      <c r="N72" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="O72" s="220"/>
-      <c r="P72" s="220" t="s">
+      <c r="O72" s="209"/>
+      <c r="P72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="Q72" s="220"/>
-      <c r="R72" s="220" t="s">
+      <c r="Q72" s="209"/>
+      <c r="R72" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="S72" s="220"/>
-      <c r="T72" s="220" t="s">
+      <c r="S72" s="209"/>
+      <c r="T72" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="U72" s="220"/>
-      <c r="V72" s="220" t="s">
+      <c r="U72" s="209"/>
+      <c r="V72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="W72" s="220"/>
-      <c r="X72" s="220" t="s">
+      <c r="W72" s="209"/>
+      <c r="X72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="Y72" s="220"/>
-      <c r="Z72" s="220" t="s">
+      <c r="Y72" s="209"/>
+      <c r="Z72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AA72" s="220"/>
-      <c r="AB72" s="220" t="s">
+      <c r="AA72" s="209"/>
+      <c r="AB72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AC72" s="220"/>
-      <c r="AD72" s="220" t="s">
+      <c r="AC72" s="209"/>
+      <c r="AD72" s="209" t="s">
         <v>26</v>
       </c>
-      <c r="AE72" s="220"/>
-      <c r="AF72" s="220" t="s">
+      <c r="AE72" s="209"/>
+      <c r="AF72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AG72" s="220"/>
-      <c r="AH72" s="220" t="s">
+      <c r="AG72" s="209"/>
+      <c r="AH72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AI72" s="220"/>
-      <c r="AJ72" s="220" t="s">
+      <c r="AI72" s="209"/>
+      <c r="AJ72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AK72" s="220"/>
-      <c r="AL72" s="220" t="s">
+      <c r="AK72" s="209"/>
+      <c r="AL72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AM72" s="220"/>
-      <c r="AN72" s="220" t="s">
+      <c r="AM72" s="209"/>
+      <c r="AN72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AO72" s="220"/>
-      <c r="AP72" s="220" t="s">
+      <c r="AO72" s="209"/>
+      <c r="AP72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AQ72" s="220"/>
-      <c r="AR72" s="220" t="s">
+      <c r="AQ72" s="209"/>
+      <c r="AR72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AS72" s="220"/>
-      <c r="AT72" s="220" t="s">
+      <c r="AS72" s="209"/>
+      <c r="AT72" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AU72" s="220"/>
+      <c r="AU72" s="209"/>
       <c r="AV72"/>
       <c r="AW72"/>
       <c r="AX72" s="59"/>
@@ -10655,10 +10653,10 @@
     </row>
     <row r="74" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="41"/>
-      <c r="B74" s="244" t="s">
+      <c r="B74" s="248" t="s">
         <v>164</v>
       </c>
-      <c r="C74" s="244"/>
+      <c r="C74" s="248"/>
       <c r="D74" s="195"/>
       <c r="E74" s="195"/>
       <c r="F74" s="195"/>
@@ -10734,10 +10732,10 @@
       <c r="A75" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="255" t="s">
+      <c r="B75" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="255"/>
+      <c r="C75" s="243"/>
       <c r="D75" s="195"/>
       <c r="E75" s="195"/>
       <c r="F75" s="195"/>
@@ -10810,17 +10808,17 @@
       <c r="BY75" s="195"/>
     </row>
     <row r="76" spans="1:77" s="153" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="226" t="s">
+      <c r="A76" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="269" t="s">
+      <c r="B76" s="257" t="s">
         <v>392</v>
       </c>
-      <c r="C76" s="269"/>
+      <c r="C76" s="257"/>
       <c r="D76" s="195"/>
       <c r="E76" s="195"/>
-      <c r="F76" s="274"/>
-      <c r="G76" s="274"/>
+      <c r="F76" s="202"/>
+      <c r="G76" s="202"/>
       <c r="H76" s="195"/>
       <c r="I76" s="195"/>
       <c r="J76" s="195"/>
@@ -10889,15 +10887,15 @@
       <c r="BY76" s="195"/>
     </row>
     <row r="77" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="226"/>
-      <c r="B77" s="238" t="s">
+      <c r="A77" s="222"/>
+      <c r="B77" s="241" t="s">
         <v>11</v>
       </c>
-      <c r="C77" s="238"/>
+      <c r="C77" s="241"/>
       <c r="D77" s="195"/>
       <c r="E77" s="195"/>
-      <c r="F77" s="274"/>
-      <c r="G77" s="274"/>
+      <c r="F77" s="202"/>
+      <c r="G77" s="202"/>
       <c r="H77" s="195"/>
       <c r="I77" s="195"/>
       <c r="J77" s="195"/>
@@ -10969,10 +10967,10 @@
       <c r="A78" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="270" t="s">
+      <c r="B78" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="270"/>
+      <c r="C78" s="244"/>
       <c r="D78" s="195"/>
       <c r="E78" s="195"/>
       <c r="F78" s="195"/>
@@ -11045,13 +11043,13 @@
       <c r="BY78" s="195"/>
     </row>
     <row r="79" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="223" t="s">
+      <c r="A79" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="B79" s="255" t="s">
+      <c r="B79" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="C79" s="255"/>
+      <c r="C79" s="243"/>
       <c r="D79" s="195"/>
       <c r="E79" s="195"/>
       <c r="F79" s="195"/>
@@ -11124,11 +11122,11 @@
       <c r="BY79" s="195"/>
     </row>
     <row r="80" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="224"/>
-      <c r="B80" s="255" t="s">
+      <c r="A80" s="227"/>
+      <c r="B80" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="255"/>
+      <c r="C80" s="243"/>
       <c r="D80" s="195"/>
       <c r="E80" s="195"/>
       <c r="F80" s="195"/>
@@ -11204,10 +11202,10 @@
       <c r="A81" s="201" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="270" t="s">
+      <c r="B81" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="270"/>
+      <c r="C81" s="244"/>
       <c r="D81" s="195"/>
       <c r="E81" s="195"/>
       <c r="F81" s="195"/>
@@ -11283,10 +11281,10 @@
       <c r="A82" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="B82" s="270" t="s">
+      <c r="B82" s="244" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="270"/>
+      <c r="C82" s="244"/>
       <c r="D82" s="195"/>
       <c r="E82" s="195"/>
       <c r="F82" s="195"/>
@@ -11362,10 +11360,10 @@
       <c r="A83" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="B83" s="270" t="s">
+      <c r="B83" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="270"/>
+      <c r="C83" s="244"/>
       <c r="D83" s="195"/>
       <c r="E83" s="195"/>
       <c r="F83" s="195"/>
@@ -11520,46 +11518,46 @@
     </row>
     <row r="85" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="41"/>
-      <c r="B85" s="244" t="s">
+      <c r="B85" s="248" t="s">
         <v>298</v>
       </c>
-      <c r="C85" s="244"/>
-      <c r="D85" s="244" t="s">
+      <c r="C85" s="248"/>
+      <c r="D85" s="248" t="s">
         <v>292</v>
       </c>
-      <c r="E85" s="244"/>
-      <c r="F85" s="240" t="s">
+      <c r="E85" s="248"/>
+      <c r="F85" s="245" t="s">
         <v>196</v>
       </c>
-      <c r="G85" s="241"/>
-      <c r="H85" s="256" t="s">
+      <c r="G85" s="246"/>
+      <c r="H85" s="259" t="s">
         <v>294</v>
       </c>
-      <c r="I85" s="257"/>
-      <c r="J85" s="250" t="s">
+      <c r="I85" s="260"/>
+      <c r="J85" s="255" t="s">
         <v>165</v>
       </c>
-      <c r="K85" s="259"/>
-      <c r="L85" s="240" t="s">
+      <c r="K85" s="256"/>
+      <c r="L85" s="245" t="s">
         <v>107</v>
       </c>
-      <c r="M85" s="241"/>
-      <c r="N85" s="240" t="s">
+      <c r="M85" s="246"/>
+      <c r="N85" s="245" t="s">
         <v>346</v>
       </c>
-      <c r="O85" s="241"/>
-      <c r="P85" s="244" t="s">
+      <c r="O85" s="246"/>
+      <c r="P85" s="248" t="s">
         <v>407</v>
       </c>
-      <c r="Q85" s="244"/>
-      <c r="R85" s="240" t="s">
+      <c r="Q85" s="248"/>
+      <c r="R85" s="245" t="s">
         <v>348</v>
       </c>
-      <c r="S85" s="241"/>
-      <c r="T85" s="244" t="s">
+      <c r="S85" s="246"/>
+      <c r="T85" s="248" t="s">
         <v>353</v>
       </c>
-      <c r="U85" s="244"/>
+      <c r="U85" s="248"/>
       <c r="V85" s="195"/>
       <c r="W85" s="195"/>
       <c r="X85" s="195"/>
@@ -11618,49 +11616,49 @@
       <c r="BY85" s="195"/>
     </row>
     <row r="86" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="223" t="s">
+      <c r="A86" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="B86" s="264" t="s">
+      <c r="B86" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="264"/>
-      <c r="D86" s="264" t="s">
+      <c r="C86" s="253"/>
+      <c r="D86" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="264"/>
+      <c r="E86" s="253"/>
       <c r="F86" s="265" t="s">
         <v>94</v>
       </c>
       <c r="G86" s="265"/>
-      <c r="H86" s="264" t="s">
+      <c r="H86" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="I86" s="264"/>
+      <c r="I86" s="253"/>
       <c r="J86" s="265" t="s">
         <v>154</v>
       </c>
       <c r="K86" s="265"/>
-      <c r="L86" s="266" t="s">
+      <c r="L86" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="M86" s="266"/>
-      <c r="N86" s="266" t="s">
+      <c r="M86" s="250"/>
+      <c r="N86" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="O86" s="266"/>
-      <c r="P86" s="236" t="s">
+      <c r="O86" s="250"/>
+      <c r="P86" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="Q86" s="236"/>
-      <c r="R86" s="264" t="s">
+      <c r="Q86" s="271"/>
+      <c r="R86" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="S86" s="264"/>
-      <c r="T86" s="236" t="s">
+      <c r="S86" s="253"/>
+      <c r="T86" s="271" t="s">
         <v>20</v>
       </c>
-      <c r="U86" s="236"/>
+      <c r="U86" s="271"/>
       <c r="V86" s="195"/>
       <c r="W86" s="195"/>
       <c r="X86" s="195"/>
@@ -11719,41 +11717,41 @@
       <c r="BY86" s="195"/>
     </row>
     <row r="87" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="224"/>
-      <c r="B87" s="267"/>
-      <c r="C87" s="267"/>
-      <c r="D87" s="267"/>
-      <c r="E87" s="267"/>
-      <c r="F87" s="238" t="s">
+      <c r="A87" s="227"/>
+      <c r="B87" s="254"/>
+      <c r="C87" s="254"/>
+      <c r="D87" s="254"/>
+      <c r="E87" s="254"/>
+      <c r="F87" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="238"/>
-      <c r="H87" s="267"/>
-      <c r="I87" s="267"/>
-      <c r="J87" s="238" t="s">
+      <c r="G87" s="241"/>
+      <c r="H87" s="254"/>
+      <c r="I87" s="254"/>
+      <c r="J87" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="K87" s="238"/>
-      <c r="L87" s="268" t="s">
+      <c r="K87" s="241"/>
+      <c r="L87" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="M87" s="268"/>
-      <c r="N87" s="238" t="s">
+      <c r="M87" s="249"/>
+      <c r="N87" s="241" t="s">
         <v>110</v>
       </c>
-      <c r="O87" s="238"/>
-      <c r="P87" s="238" t="s">
+      <c r="O87" s="241"/>
+      <c r="P87" s="241" t="s">
         <v>406</v>
       </c>
-      <c r="Q87" s="238"/>
-      <c r="R87" s="238" t="s">
+      <c r="Q87" s="241"/>
+      <c r="R87" s="241" t="s">
         <v>240</v>
       </c>
-      <c r="S87" s="238"/>
-      <c r="T87" s="238" t="s">
+      <c r="S87" s="241"/>
+      <c r="T87" s="241" t="s">
         <v>288</v>
       </c>
-      <c r="U87" s="238"/>
+      <c r="U87" s="241"/>
       <c r="V87" s="195"/>
       <c r="W87" s="195"/>
       <c r="X87" s="195"/>
@@ -11812,49 +11810,49 @@
       <c r="BY87" s="195"/>
     </row>
     <row r="88" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="223" t="s">
+      <c r="A88" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="B88" s="227" t="s">
+      <c r="B88" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="C88" s="227"/>
-      <c r="D88" s="227" t="s">
+      <c r="C88" s="223"/>
+      <c r="D88" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="227"/>
-      <c r="F88" s="238" t="s">
+      <c r="E88" s="223"/>
+      <c r="F88" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="G88" s="238"/>
-      <c r="H88" s="227" t="s">
+      <c r="G88" s="241"/>
+      <c r="H88" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="I88" s="227"/>
-      <c r="J88" s="227" t="s">
+      <c r="I88" s="223"/>
+      <c r="J88" s="223" t="s">
         <v>166</v>
       </c>
-      <c r="K88" s="227"/>
-      <c r="L88" s="269" t="s">
+      <c r="K88" s="223"/>
+      <c r="L88" s="257" t="s">
         <v>391</v>
       </c>
-      <c r="M88" s="269"/>
-      <c r="N88" s="269" t="s">
+      <c r="M88" s="257"/>
+      <c r="N88" s="257" t="s">
         <v>290</v>
       </c>
-      <c r="O88" s="269"/>
-      <c r="P88" s="269" t="s">
+      <c r="O88" s="257"/>
+      <c r="P88" s="257" t="s">
         <v>289</v>
       </c>
-      <c r="Q88" s="269"/>
-      <c r="R88" s="269" t="s">
+      <c r="Q88" s="257"/>
+      <c r="R88" s="257" t="s">
         <v>241</v>
       </c>
-      <c r="S88" s="269"/>
-      <c r="T88" s="269" t="s">
+      <c r="S88" s="257"/>
+      <c r="T88" s="257" t="s">
         <v>289</v>
       </c>
-      <c r="U88" s="269"/>
+      <c r="U88" s="257"/>
       <c r="V88" s="195"/>
       <c r="W88" s="195"/>
       <c r="X88" s="195"/>
@@ -11913,35 +11911,35 @@
       <c r="BY88" s="195"/>
     </row>
     <row r="89" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="224"/>
-      <c r="B89" s="270" t="s">
+      <c r="A89" s="227"/>
+      <c r="B89" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="270"/>
-      <c r="D89" s="227" t="s">
+      <c r="C89" s="244"/>
+      <c r="D89" s="223" t="s">
         <v>84</v>
       </c>
-      <c r="E89" s="227"/>
-      <c r="F89" s="238" t="s">
+      <c r="E89" s="223"/>
+      <c r="F89" s="241" t="s">
         <v>99</v>
       </c>
-      <c r="G89" s="238"/>
-      <c r="H89" s="270" t="s">
+      <c r="G89" s="241"/>
+      <c r="H89" s="244" t="s">
         <v>82</v>
       </c>
-      <c r="I89" s="270"/>
-      <c r="J89" s="227"/>
-      <c r="K89" s="227"/>
-      <c r="L89" s="269"/>
-      <c r="M89" s="269"/>
-      <c r="N89" s="269"/>
-      <c r="O89" s="269"/>
-      <c r="P89" s="269"/>
-      <c r="Q89" s="269"/>
-      <c r="R89" s="269"/>
-      <c r="S89" s="269"/>
-      <c r="T89" s="269"/>
-      <c r="U89" s="269"/>
+      <c r="I89" s="244"/>
+      <c r="J89" s="223"/>
+      <c r="K89" s="223"/>
+      <c r="L89" s="257"/>
+      <c r="M89" s="257"/>
+      <c r="N89" s="257"/>
+      <c r="O89" s="257"/>
+      <c r="P89" s="257"/>
+      <c r="Q89" s="257"/>
+      <c r="R89" s="257"/>
+      <c r="S89" s="257"/>
+      <c r="T89" s="257"/>
+      <c r="U89" s="257"/>
       <c r="V89" s="195"/>
       <c r="W89" s="195"/>
       <c r="X89" s="195"/>
@@ -12003,36 +12001,36 @@
       <c r="A90" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="227" t="s">
+      <c r="B90" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="C90" s="227"/>
-      <c r="D90" s="270" t="s">
+      <c r="C90" s="223"/>
+      <c r="D90" s="244" t="s">
         <v>85</v>
       </c>
-      <c r="E90" s="270"/>
-      <c r="F90" s="227" t="s">
+      <c r="E90" s="244"/>
+      <c r="F90" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="G90" s="227"/>
-      <c r="H90" s="270" t="s">
+      <c r="G90" s="223"/>
+      <c r="H90" s="244" t="s">
         <v>85</v>
       </c>
-      <c r="I90" s="270"/>
-      <c r="J90" s="227" t="s">
+      <c r="I90" s="244"/>
+      <c r="J90" s="223" t="s">
         <v>167</v>
       </c>
-      <c r="K90" s="227"/>
-      <c r="L90" s="269"/>
-      <c r="M90" s="269"/>
-      <c r="N90" s="269"/>
-      <c r="O90" s="269"/>
-      <c r="P90" s="269"/>
-      <c r="Q90" s="269"/>
-      <c r="R90" s="269"/>
-      <c r="S90" s="269"/>
-      <c r="T90" s="269"/>
-      <c r="U90" s="269"/>
+      <c r="K90" s="223"/>
+      <c r="L90" s="257"/>
+      <c r="M90" s="257"/>
+      <c r="N90" s="257"/>
+      <c r="O90" s="257"/>
+      <c r="P90" s="257"/>
+      <c r="Q90" s="257"/>
+      <c r="R90" s="257"/>
+      <c r="S90" s="257"/>
+      <c r="T90" s="257"/>
+      <c r="U90" s="257"/>
       <c r="V90" s="195"/>
       <c r="W90" s="195"/>
       <c r="X90" s="195"/>
@@ -12091,49 +12089,49 @@
       <c r="BY90" s="195"/>
     </row>
     <row r="91" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="223" t="s">
+      <c r="A91" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="B91" s="270" t="s">
+      <c r="B91" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="270"/>
-      <c r="D91" s="270" t="s">
+      <c r="C91" s="244"/>
+      <c r="D91" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="270"/>
-      <c r="F91" s="270" t="s">
+      <c r="E91" s="244"/>
+      <c r="F91" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="G91" s="270"/>
-      <c r="H91" s="270" t="s">
+      <c r="G91" s="244"/>
+      <c r="H91" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="I91" s="270"/>
-      <c r="J91" s="227" t="s">
+      <c r="I91" s="244"/>
+      <c r="J91" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="K91" s="227"/>
-      <c r="L91" s="270" t="s">
+      <c r="K91" s="223"/>
+      <c r="L91" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="M91" s="270"/>
-      <c r="N91" s="270" t="s">
+      <c r="M91" s="244"/>
+      <c r="N91" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="O91" s="270"/>
-      <c r="P91" s="270" t="s">
+      <c r="O91" s="244"/>
+      <c r="P91" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="Q91" s="270"/>
-      <c r="R91" s="270" t="s">
+      <c r="Q91" s="244"/>
+      <c r="R91" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="S91" s="270"/>
-      <c r="T91" s="270" t="s">
+      <c r="S91" s="244"/>
+      <c r="T91" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="U91" s="270"/>
+      <c r="U91" s="244"/>
       <c r="V91" s="195"/>
       <c r="W91" s="195"/>
       <c r="X91" s="195"/>
@@ -12192,29 +12190,29 @@
       <c r="BY91" s="195"/>
     </row>
     <row r="92" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="224"/>
-      <c r="B92" s="270"/>
-      <c r="C92" s="270"/>
-      <c r="D92" s="270"/>
-      <c r="E92" s="270"/>
-      <c r="F92" s="270"/>
-      <c r="G92" s="270"/>
-      <c r="H92" s="270"/>
-      <c r="I92" s="270"/>
-      <c r="J92" s="270" t="s">
+      <c r="A92" s="227"/>
+      <c r="B92" s="244"/>
+      <c r="C92" s="244"/>
+      <c r="D92" s="244"/>
+      <c r="E92" s="244"/>
+      <c r="F92" s="244"/>
+      <c r="G92" s="244"/>
+      <c r="H92" s="244"/>
+      <c r="I92" s="244"/>
+      <c r="J92" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="K92" s="270"/>
-      <c r="L92" s="270"/>
-      <c r="M92" s="270"/>
-      <c r="N92" s="270"/>
-      <c r="O92" s="270"/>
-      <c r="P92" s="270"/>
-      <c r="Q92" s="270"/>
-      <c r="R92" s="270"/>
-      <c r="S92" s="270"/>
-      <c r="T92" s="270"/>
-      <c r="U92" s="270"/>
+      <c r="K92" s="244"/>
+      <c r="L92" s="244"/>
+      <c r="M92" s="244"/>
+      <c r="N92" s="244"/>
+      <c r="O92" s="244"/>
+      <c r="P92" s="244"/>
+      <c r="Q92" s="244"/>
+      <c r="R92" s="244"/>
+      <c r="S92" s="244"/>
+      <c r="T92" s="244"/>
+      <c r="U92" s="244"/>
       <c r="V92" s="195"/>
       <c r="W92" s="195"/>
       <c r="X92" s="195"/>
@@ -12273,49 +12271,49 @@
       <c r="BY92" s="195"/>
     </row>
     <row r="93" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="223" t="s">
+      <c r="A93" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="B93" s="255" t="s">
+      <c r="B93" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="255"/>
-      <c r="D93" s="255" t="s">
+      <c r="C93" s="243"/>
+      <c r="D93" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="E93" s="255"/>
-      <c r="F93" s="255" t="s">
+      <c r="E93" s="243"/>
+      <c r="F93" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="G93" s="255"/>
-      <c r="H93" s="255" t="s">
+      <c r="G93" s="243"/>
+      <c r="H93" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="I93" s="255"/>
-      <c r="J93" s="255" t="s">
+      <c r="I93" s="243"/>
+      <c r="J93" s="243" t="s">
         <v>123</v>
       </c>
-      <c r="K93" s="255"/>
-      <c r="L93" s="255" t="s">
+      <c r="K93" s="243"/>
+      <c r="L93" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="M93" s="255"/>
-      <c r="N93" s="255" t="s">
+      <c r="M93" s="243"/>
+      <c r="N93" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="O93" s="255"/>
-      <c r="P93" s="255" t="s">
+      <c r="O93" s="243"/>
+      <c r="P93" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="Q93" s="255"/>
-      <c r="R93" s="255" t="s">
+      <c r="Q93" s="243"/>
+      <c r="R93" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="S93" s="255"/>
-      <c r="T93" s="255" t="s">
+      <c r="S93" s="243"/>
+      <c r="T93" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="U93" s="255"/>
+      <c r="U93" s="243"/>
       <c r="V93" s="195"/>
       <c r="W93" s="195"/>
       <c r="X93" s="195"/>
@@ -12374,47 +12372,47 @@
       <c r="BY93" s="195"/>
     </row>
     <row r="94" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="224"/>
-      <c r="B94" s="255" t="s">
+      <c r="A94" s="227"/>
+      <c r="B94" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="255"/>
-      <c r="D94" s="255" t="s">
+      <c r="C94" s="243"/>
+      <c r="D94" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="E94" s="255"/>
-      <c r="F94" s="255" t="s">
+      <c r="E94" s="243"/>
+      <c r="F94" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="G94" s="255"/>
-      <c r="H94" s="255" t="s">
+      <c r="G94" s="243"/>
+      <c r="H94" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="I94" s="255"/>
-      <c r="J94" s="255" t="s">
+      <c r="I94" s="243"/>
+      <c r="J94" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="K94" s="255"/>
-      <c r="L94" s="255" t="s">
+      <c r="K94" s="243"/>
+      <c r="L94" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="M94" s="255"/>
-      <c r="N94" s="255" t="s">
+      <c r="M94" s="243"/>
+      <c r="N94" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="O94" s="255"/>
-      <c r="P94" s="255" t="s">
+      <c r="O94" s="243"/>
+      <c r="P94" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="Q94" s="255"/>
-      <c r="R94" s="255" t="s">
+      <c r="Q94" s="243"/>
+      <c r="R94" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="S94" s="255"/>
-      <c r="T94" s="255" t="s">
+      <c r="S94" s="243"/>
+      <c r="T94" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="U94" s="255"/>
+      <c r="U94" s="243"/>
       <c r="V94" s="195"/>
       <c r="W94" s="195"/>
       <c r="X94" s="195"/>
@@ -12476,46 +12474,46 @@
       <c r="A95" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="B95" s="270" t="s">
+      <c r="B95" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="C95" s="270"/>
-      <c r="D95" s="270" t="s">
+      <c r="C95" s="244"/>
+      <c r="D95" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="270"/>
-      <c r="F95" s="270" t="s">
+      <c r="E95" s="244"/>
+      <c r="F95" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="G95" s="270"/>
-      <c r="H95" s="270" t="s">
+      <c r="G95" s="244"/>
+      <c r="H95" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="I95" s="270"/>
-      <c r="J95" s="270" t="s">
+      <c r="I95" s="244"/>
+      <c r="J95" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="K95" s="270"/>
-      <c r="L95" s="270" t="s">
+      <c r="K95" s="244"/>
+      <c r="L95" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="M95" s="270"/>
-      <c r="N95" s="270" t="s">
+      <c r="M95" s="244"/>
+      <c r="N95" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="O95" s="270"/>
-      <c r="P95" s="270" t="s">
+      <c r="O95" s="244"/>
+      <c r="P95" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="Q95" s="270"/>
-      <c r="R95" s="270" t="s">
+      <c r="Q95" s="244"/>
+      <c r="R95" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="S95" s="270"/>
-      <c r="T95" s="270" t="s">
+      <c r="S95" s="244"/>
+      <c r="T95" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="U95" s="270"/>
+      <c r="U95" s="244"/>
       <c r="V95" s="195"/>
       <c r="W95" s="195"/>
       <c r="X95" s="195"/>
@@ -12577,46 +12575,46 @@
       <c r="A96" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="B96" s="270" t="s">
+      <c r="B96" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="C96" s="270"/>
-      <c r="D96" s="270" t="s">
+      <c r="C96" s="244"/>
+      <c r="D96" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="E96" s="270"/>
-      <c r="F96" s="270" t="s">
+      <c r="E96" s="244"/>
+      <c r="F96" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="G96" s="270"/>
-      <c r="H96" s="270" t="s">
+      <c r="G96" s="244"/>
+      <c r="H96" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="I96" s="270"/>
-      <c r="J96" s="270" t="s">
+      <c r="I96" s="244"/>
+      <c r="J96" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="K96" s="270"/>
-      <c r="L96" s="270" t="s">
+      <c r="K96" s="244"/>
+      <c r="L96" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="M96" s="270"/>
-      <c r="N96" s="270" t="s">
+      <c r="M96" s="244"/>
+      <c r="N96" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="O96" s="270"/>
-      <c r="P96" s="270" t="s">
+      <c r="O96" s="244"/>
+      <c r="P96" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="Q96" s="270"/>
-      <c r="R96" s="270" t="s">
+      <c r="Q96" s="244"/>
+      <c r="R96" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="S96" s="270"/>
-      <c r="T96" s="270" t="s">
+      <c r="S96" s="244"/>
+      <c r="T96" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="U96" s="270"/>
+      <c r="U96" s="244"/>
       <c r="V96" s="195"/>
       <c r="W96" s="195"/>
       <c r="X96" s="195"/>
@@ -12755,22 +12753,22 @@
     </row>
     <row r="98" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
-      <c r="B98" s="244" t="s">
+      <c r="B98" s="248" t="s">
         <v>302</v>
       </c>
-      <c r="C98" s="244"/>
-      <c r="D98" s="244" t="s">
+      <c r="C98" s="248"/>
+      <c r="D98" s="248" t="s">
         <v>162</v>
       </c>
-      <c r="E98" s="244"/>
-      <c r="F98" s="240" t="s">
+      <c r="E98" s="248"/>
+      <c r="F98" s="245" t="s">
         <v>337</v>
       </c>
-      <c r="G98" s="241"/>
-      <c r="H98" s="240" t="s">
+      <c r="G98" s="246"/>
+      <c r="H98" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="I98" s="241"/>
+      <c r="I98" s="246"/>
       <c r="J98" s="195"/>
       <c r="K98" s="195"/>
       <c r="L98" s="195"/>
@@ -12841,17 +12839,17 @@
       <c r="BY98" s="195"/>
     </row>
     <row r="99" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="223" t="s">
+      <c r="A99" s="226" t="s">
         <v>36</v>
       </c>
-      <c r="B99" s="264" t="s">
+      <c r="B99" s="253" t="s">
         <v>49</v>
       </c>
-      <c r="C99" s="264"/>
-      <c r="D99" s="268" t="s">
+      <c r="C99" s="253"/>
+      <c r="D99" s="249" t="s">
         <v>110</v>
       </c>
-      <c r="E99" s="268"/>
+      <c r="E99" s="249"/>
       <c r="F99" s="265" t="s">
         <v>94</v>
       </c>
@@ -12930,21 +12928,21 @@
       <c r="BY99" s="195"/>
     </row>
     <row r="100" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="224"/>
-      <c r="B100" s="267"/>
-      <c r="C100" s="267"/>
-      <c r="D100" s="266" t="s">
+      <c r="A100" s="227"/>
+      <c r="B100" s="254"/>
+      <c r="C100" s="254"/>
+      <c r="D100" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="E100" s="266"/>
-      <c r="F100" s="238" t="s">
+      <c r="E100" s="250"/>
+      <c r="F100" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="238"/>
-      <c r="H100" s="255" t="s">
+      <c r="G100" s="241"/>
+      <c r="H100" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="I100" s="255"/>
+      <c r="I100" s="243"/>
       <c r="J100" s="195"/>
       <c r="K100" s="195"/>
       <c r="L100" s="195"/>
@@ -13015,25 +13013,25 @@
       <c r="BY100" s="195"/>
     </row>
     <row r="101" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="223" t="s">
+      <c r="A101" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="B101" s="227" t="s">
+      <c r="B101" s="223" t="s">
         <v>54</v>
       </c>
-      <c r="C101" s="227"/>
-      <c r="D101" s="269" t="s">
+      <c r="C101" s="223"/>
+      <c r="D101" s="257" t="s">
         <v>410</v>
       </c>
-      <c r="E101" s="269"/>
-      <c r="F101" s="238" t="s">
+      <c r="E101" s="257"/>
+      <c r="F101" s="241" t="s">
         <v>54</v>
       </c>
-      <c r="G101" s="238"/>
-      <c r="H101" s="269" t="s">
+      <c r="G101" s="241"/>
+      <c r="H101" s="257" t="s">
         <v>242</v>
       </c>
-      <c r="I101" s="269"/>
+      <c r="I101" s="257"/>
       <c r="J101" s="195"/>
       <c r="K101" s="195"/>
       <c r="L101" s="195"/>
@@ -13104,19 +13102,19 @@
       <c r="BY101" s="195"/>
     </row>
     <row r="102" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="224"/>
-      <c r="B102" s="270" t="s">
+      <c r="A102" s="227"/>
+      <c r="B102" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="C102" s="270"/>
-      <c r="D102" s="269"/>
-      <c r="E102" s="269"/>
-      <c r="F102" s="238" t="s">
+      <c r="C102" s="244"/>
+      <c r="D102" s="257"/>
+      <c r="E102" s="257"/>
+      <c r="F102" s="241" t="s">
         <v>99</v>
       </c>
-      <c r="G102" s="238"/>
-      <c r="H102" s="269"/>
-      <c r="I102" s="269"/>
+      <c r="G102" s="241"/>
+      <c r="H102" s="257"/>
+      <c r="I102" s="257"/>
       <c r="J102" s="195"/>
       <c r="K102" s="195"/>
       <c r="L102" s="195"/>
@@ -13190,18 +13188,18 @@
       <c r="A103" s="200" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="227" t="s">
+      <c r="B103" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="C103" s="227"/>
-      <c r="D103" s="269"/>
-      <c r="E103" s="269"/>
-      <c r="F103" s="255" t="s">
+      <c r="C103" s="223"/>
+      <c r="D103" s="257"/>
+      <c r="E103" s="257"/>
+      <c r="F103" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="G103" s="255"/>
-      <c r="H103" s="269"/>
-      <c r="I103" s="269"/>
+      <c r="G103" s="243"/>
+      <c r="H103" s="257"/>
+      <c r="I103" s="257"/>
       <c r="J103" s="195"/>
       <c r="K103" s="195"/>
       <c r="L103" s="195"/>
@@ -13275,22 +13273,22 @@
       <c r="A104" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="B104" s="270" t="s">
+      <c r="B104" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="C104" s="270"/>
-      <c r="D104" s="270" t="s">
+      <c r="C104" s="244"/>
+      <c r="D104" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="270"/>
-      <c r="F104" s="270" t="s">
+      <c r="E104" s="244"/>
+      <c r="F104" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="G104" s="270"/>
-      <c r="H104" s="270" t="s">
+      <c r="G104" s="244"/>
+      <c r="H104" s="244" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="270"/>
+      <c r="I104" s="244"/>
       <c r="J104" s="195"/>
       <c r="K104" s="195"/>
       <c r="L104" s="195"/>
@@ -13361,25 +13359,25 @@
       <c r="BY104" s="195"/>
     </row>
     <row r="105" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="223" t="s">
+      <c r="A105" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="B105" s="266" t="s">
+      <c r="B105" s="250" t="s">
         <v>52</v>
       </c>
-      <c r="C105" s="266"/>
-      <c r="D105" s="255" t="s">
+      <c r="C105" s="250"/>
+      <c r="D105" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="E105" s="255"/>
-      <c r="F105" s="271" t="s">
+      <c r="E105" s="243"/>
+      <c r="F105" s="267" t="s">
         <v>52</v>
       </c>
-      <c r="G105" s="271"/>
-      <c r="H105" s="271" t="s">
+      <c r="G105" s="267"/>
+      <c r="H105" s="267" t="s">
         <v>111</v>
       </c>
-      <c r="I105" s="271"/>
+      <c r="I105" s="267"/>
       <c r="J105" s="195"/>
       <c r="K105" s="195"/>
       <c r="L105" s="195"/>
@@ -13450,23 +13448,23 @@
       <c r="BY105" s="195"/>
     </row>
     <row r="106" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="235"/>
-      <c r="B106" s="272" t="s">
+      <c r="A106" s="274"/>
+      <c r="B106" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="C106" s="272"/>
-      <c r="D106" s="255" t="s">
+      <c r="C106" s="264"/>
+      <c r="D106" s="243" t="s">
         <v>112</v>
       </c>
-      <c r="E106" s="255"/>
-      <c r="F106" s="272" t="s">
+      <c r="E106" s="243"/>
+      <c r="F106" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="G106" s="272"/>
-      <c r="H106" s="273" t="s">
+      <c r="G106" s="264"/>
+      <c r="H106" s="266" t="s">
         <v>112</v>
       </c>
-      <c r="I106" s="273"/>
+      <c r="I106" s="266"/>
       <c r="J106" s="195"/>
       <c r="K106" s="195"/>
       <c r="L106" s="195"/>
@@ -13537,23 +13535,23 @@
       <c r="BY106" s="195"/>
     </row>
     <row r="107" spans="1:77" s="153" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="224"/>
-      <c r="B107" s="255" t="s">
+      <c r="A107" s="227"/>
+      <c r="B107" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="C107" s="255"/>
-      <c r="D107" s="272" t="s">
+      <c r="C107" s="243"/>
+      <c r="D107" s="264" t="s">
         <v>53</v>
       </c>
-      <c r="E107" s="272"/>
-      <c r="F107" s="271" t="s">
+      <c r="E107" s="264"/>
+      <c r="F107" s="267" t="s">
         <v>124</v>
       </c>
-      <c r="G107" s="271"/>
-      <c r="H107" s="271" t="s">
+      <c r="G107" s="267"/>
+      <c r="H107" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="I107" s="271"/>
+      <c r="I107" s="267"/>
       <c r="J107" s="195"/>
       <c r="K107" s="195"/>
       <c r="L107" s="195"/>
@@ -13627,22 +13625,22 @@
       <c r="A108" s="201" t="s">
         <v>40</v>
       </c>
-      <c r="B108" s="270" t="s">
+      <c r="B108" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="270"/>
-      <c r="D108" s="270" t="s">
+      <c r="C108" s="244"/>
+      <c r="D108" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="E108" s="270"/>
-      <c r="F108" s="270" t="s">
+      <c r="E108" s="244"/>
+      <c r="F108" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="G108" s="270"/>
-      <c r="H108" s="270" t="s">
+      <c r="G108" s="244"/>
+      <c r="H108" s="244" t="s">
         <v>22</v>
       </c>
-      <c r="I108" s="270"/>
+      <c r="I108" s="244"/>
       <c r="J108" s="195"/>
       <c r="K108" s="195"/>
       <c r="L108" s="195"/>
@@ -13716,22 +13714,22 @@
       <c r="A109" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="B109" s="270" t="s">
+      <c r="B109" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="C109" s="270"/>
-      <c r="D109" s="270" t="s">
+      <c r="C109" s="244"/>
+      <c r="D109" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="E109" s="270"/>
-      <c r="F109" s="270" t="s">
+      <c r="E109" s="244"/>
+      <c r="F109" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="G109" s="270"/>
-      <c r="H109" s="270" t="s">
+      <c r="G109" s="244"/>
+      <c r="H109" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="I109" s="270"/>
+      <c r="I109" s="244"/>
       <c r="J109" s="195"/>
       <c r="K109" s="195"/>
       <c r="L109" s="195"/>
@@ -13882,123 +13880,123 @@
     </row>
     <row r="111" spans="1:77" s="59" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="193"/>
-      <c r="B111" s="250" t="s">
+      <c r="B111" s="255" t="s">
         <v>402</v>
       </c>
-      <c r="C111" s="251"/>
-      <c r="D111" s="240" t="s">
+      <c r="C111" s="261"/>
+      <c r="D111" s="245" t="s">
         <v>145</v>
       </c>
-      <c r="E111" s="241"/>
-      <c r="F111" s="240" t="s">
+      <c r="E111" s="246"/>
+      <c r="F111" s="245" t="s">
         <v>333</v>
       </c>
-      <c r="G111" s="241"/>
-      <c r="H111" s="240" t="s">
+      <c r="G111" s="246"/>
+      <c r="H111" s="245" t="s">
         <v>133</v>
       </c>
-      <c r="I111" s="241"/>
-      <c r="J111" s="256" t="s">
+      <c r="I111" s="246"/>
+      <c r="J111" s="259" t="s">
         <v>247</v>
       </c>
-      <c r="K111" s="257"/>
-      <c r="L111" s="256" t="s">
+      <c r="K111" s="260"/>
+      <c r="L111" s="259" t="s">
         <v>408</v>
       </c>
-      <c r="M111" s="257"/>
-      <c r="N111" s="240" t="s">
+      <c r="M111" s="260"/>
+      <c r="N111" s="245" t="s">
         <v>160</v>
       </c>
-      <c r="O111" s="241"/>
-      <c r="P111" s="254" t="s">
+      <c r="O111" s="246"/>
+      <c r="P111" s="263" t="s">
         <v>176</v>
       </c>
-      <c r="Q111" s="241"/>
-      <c r="R111" s="240" t="s">
+      <c r="Q111" s="246"/>
+      <c r="R111" s="245" t="s">
         <v>178</v>
       </c>
-      <c r="S111" s="241"/>
-      <c r="T111" s="240" t="s">
+      <c r="S111" s="246"/>
+      <c r="T111" s="245" t="s">
         <v>248</v>
       </c>
-      <c r="U111" s="241"/>
-      <c r="V111" s="240" t="s">
+      <c r="U111" s="246"/>
+      <c r="V111" s="245" t="s">
         <v>198</v>
       </c>
-      <c r="W111" s="241"/>
-      <c r="X111" s="240" t="s">
+      <c r="W111" s="246"/>
+      <c r="X111" s="245" t="s">
         <v>199</v>
       </c>
-      <c r="Y111" s="241"/>
-      <c r="Z111" s="240" t="s">
+      <c r="Y111" s="246"/>
+      <c r="Z111" s="245" t="s">
         <v>349</v>
       </c>
-      <c r="AA111" s="241"/>
-      <c r="AB111" s="240" t="s">
+      <c r="AA111" s="246"/>
+      <c r="AB111" s="245" t="s">
         <v>339</v>
       </c>
-      <c r="AC111" s="241"/>
+      <c r="AC111" s="246"/>
     </row>
     <row r="112" spans="1:77" x14ac:dyDescent="0.35">
       <c r="A112" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="248" t="s">
+      <c r="B112" s="258" t="s">
         <v>168</v>
       </c>
-      <c r="C112" s="248"/>
-      <c r="D112" s="248" t="s">
+      <c r="C112" s="258"/>
+      <c r="D112" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="E112" s="248"/>
-      <c r="F112" s="248" t="s">
+      <c r="E112" s="258"/>
+      <c r="F112" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="G112" s="248"/>
-      <c r="H112" s="248" t="s">
+      <c r="G112" s="258"/>
+      <c r="H112" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="I112" s="248"/>
-      <c r="J112" s="210" t="s">
+      <c r="I112" s="258"/>
+      <c r="J112" s="235" t="s">
         <v>110</v>
       </c>
-      <c r="K112" s="210"/>
-      <c r="L112" s="210" t="s">
+      <c r="K112" s="235"/>
+      <c r="L112" s="235" t="s">
         <v>110</v>
       </c>
-      <c r="M112" s="210"/>
-      <c r="N112" s="248" t="s">
+      <c r="M112" s="235"/>
+      <c r="N112" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="O112" s="248"/>
-      <c r="P112" s="248" t="s">
+      <c r="O112" s="258"/>
+      <c r="P112" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="Q112" s="248"/>
-      <c r="R112" s="219" t="s">
+      <c r="Q112" s="258"/>
+      <c r="R112" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="S112" s="219"/>
-      <c r="T112" s="248" t="s">
+      <c r="S112" s="232"/>
+      <c r="T112" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="U112" s="248"/>
-      <c r="V112" s="248" t="s">
+      <c r="U112" s="258"/>
+      <c r="V112" s="258" t="s">
         <v>197</v>
       </c>
-      <c r="W112" s="248"/>
-      <c r="X112" s="248" t="s">
+      <c r="W112" s="258"/>
+      <c r="X112" s="258" t="s">
         <v>197</v>
       </c>
-      <c r="Y112" s="248"/>
-      <c r="Z112" s="248" t="s">
+      <c r="Y112" s="258"/>
+      <c r="Z112" s="258" t="s">
         <v>179</v>
       </c>
-      <c r="AA112" s="248"/>
-      <c r="AB112" s="206" t="s">
+      <c r="AA112" s="258"/>
+      <c r="AB112" s="233" t="s">
         <v>252</v>
       </c>
-      <c r="AC112" s="206"/>
+      <c r="AC112" s="233"/>
       <c r="AE112" s="68"/>
       <c r="AF112"/>
       <c r="AP112" s="68"/>
@@ -14037,62 +14035,62 @@
       <c r="A113" s="198" t="s">
         <v>109</v>
       </c>
-      <c r="B113" s="249" t="s">
+      <c r="B113" s="262" t="s">
         <v>169</v>
       </c>
-      <c r="C113" s="249"/>
-      <c r="D113" s="206" t="s">
+      <c r="C113" s="262"/>
+      <c r="D113" s="233" t="s">
         <v>183</v>
       </c>
-      <c r="E113" s="206"/>
-      <c r="F113" s="206" t="s">
+      <c r="E113" s="233"/>
+      <c r="F113" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="G113" s="206"/>
-      <c r="H113" s="206" t="s">
+      <c r="G113" s="233"/>
+      <c r="H113" s="233" t="s">
         <v>136</v>
       </c>
-      <c r="I113" s="206"/>
-      <c r="J113" s="205" t="s">
+      <c r="I113" s="233"/>
+      <c r="J113" s="210" t="s">
         <v>143</v>
       </c>
-      <c r="K113" s="205"/>
-      <c r="L113" s="205" t="s">
+      <c r="K113" s="210"/>
+      <c r="L113" s="210" t="s">
         <v>409</v>
       </c>
-      <c r="M113" s="205"/>
-      <c r="N113" s="249" t="s">
+      <c r="M113" s="210"/>
+      <c r="N113" s="262" t="s">
         <v>179</v>
       </c>
-      <c r="O113" s="249"/>
-      <c r="P113" s="206" t="s">
+      <c r="O113" s="262"/>
+      <c r="P113" s="233" t="s">
         <v>177</v>
       </c>
-      <c r="Q113" s="206"/>
-      <c r="R113" s="206" t="s">
+      <c r="Q113" s="233"/>
+      <c r="R113" s="233" t="s">
         <v>179</v>
       </c>
-      <c r="S113" s="206"/>
-      <c r="T113" s="206" t="s">
+      <c r="S113" s="233"/>
+      <c r="T113" s="233" t="s">
         <v>141</v>
       </c>
-      <c r="U113" s="206"/>
-      <c r="V113" s="206" t="s">
+      <c r="U113" s="233"/>
+      <c r="V113" s="233" t="s">
         <v>179</v>
       </c>
-      <c r="W113" s="206"/>
-      <c r="X113" s="206" t="s">
+      <c r="W113" s="233"/>
+      <c r="X113" s="233" t="s">
         <v>201</v>
       </c>
-      <c r="Y113" s="206"/>
-      <c r="Z113" s="213" t="s">
+      <c r="Y113" s="233"/>
+      <c r="Z113" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="AA113" s="213"/>
-      <c r="AB113" s="213" t="s">
+      <c r="AA113" s="204"/>
+      <c r="AB113" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="AC113" s="213"/>
+      <c r="AC113" s="204"/>
       <c r="AE113" s="68"/>
       <c r="AF113"/>
       <c r="AP113" s="68"/>
@@ -14131,62 +14129,62 @@
       <c r="A114" s="196" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="206" t="s">
+      <c r="B114" s="233" t="s">
         <v>170</v>
       </c>
-      <c r="C114" s="206"/>
-      <c r="D114" s="206" t="s">
+      <c r="C114" s="233"/>
+      <c r="D114" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="E114" s="206"/>
-      <c r="F114" s="206" t="s">
+      <c r="E114" s="233"/>
+      <c r="F114" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="G114" s="206"/>
-      <c r="H114" s="206" t="s">
+      <c r="G114" s="233"/>
+      <c r="H114" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="I114" s="206"/>
-      <c r="J114" s="212" t="s">
+      <c r="I114" s="233"/>
+      <c r="J114" s="208" t="s">
         <v>119</v>
       </c>
-      <c r="K114" s="212"/>
-      <c r="L114" s="212" t="s">
+      <c r="K114" s="208"/>
+      <c r="L114" s="208" t="s">
         <v>119</v>
       </c>
-      <c r="M114" s="212"/>
-      <c r="N114" s="205" t="s">
+      <c r="M114" s="208"/>
+      <c r="N114" s="210" t="s">
         <v>170</v>
       </c>
-      <c r="O114" s="205"/>
-      <c r="P114" s="206" t="s">
+      <c r="O114" s="210"/>
+      <c r="P114" s="233" t="s">
         <v>170</v>
       </c>
-      <c r="Q114" s="206"/>
-      <c r="R114" s="206" t="s">
+      <c r="Q114" s="233"/>
+      <c r="R114" s="233" t="s">
         <v>170</v>
       </c>
-      <c r="S114" s="206"/>
-      <c r="T114" s="213" t="s">
+      <c r="S114" s="233"/>
+      <c r="T114" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="U114" s="213"/>
-      <c r="V114" s="206" t="s">
+      <c r="U114" s="204"/>
+      <c r="V114" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="W114" s="206"/>
-      <c r="X114" s="206" t="s">
+      <c r="W114" s="233"/>
+      <c r="X114" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="Y114" s="206"/>
-      <c r="Z114" s="206" t="s">
+      <c r="Y114" s="233"/>
+      <c r="Z114" s="233" t="s">
         <v>251</v>
       </c>
-      <c r="AA114" s="206"/>
-      <c r="AB114" s="206" t="s">
+      <c r="AA114" s="233"/>
+      <c r="AB114" s="233" t="s">
         <v>119</v>
       </c>
-      <c r="AC114" s="206"/>
+      <c r="AC114" s="233"/>
       <c r="AE114" s="68"/>
       <c r="AF114"/>
       <c r="AP114" s="68"/>
@@ -14225,60 +14223,60 @@
       <c r="A115" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="206" t="s">
+      <c r="B115" s="233" t="s">
         <v>171</v>
       </c>
-      <c r="C115" s="206"/>
-      <c r="D115" s="206" t="s">
+      <c r="C115" s="233"/>
+      <c r="D115" s="233" t="s">
         <v>120</v>
       </c>
-      <c r="E115" s="206"/>
-      <c r="F115" s="206" t="s">
+      <c r="E115" s="233"/>
+      <c r="F115" s="233" t="s">
         <v>131</v>
       </c>
-      <c r="G115" s="206"/>
-      <c r="H115" s="206" t="s">
+      <c r="G115" s="233"/>
+      <c r="H115" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="I115" s="206"/>
-      <c r="J115" s="205" t="s">
+      <c r="I115" s="233"/>
+      <c r="J115" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="K115" s="205"/>
-      <c r="L115" s="205" t="s">
+      <c r="K115" s="210"/>
+      <c r="L115" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="M115" s="205"/>
-      <c r="N115" s="205"/>
-      <c r="O115" s="205"/>
-      <c r="P115" s="206" t="s">
+      <c r="M115" s="210"/>
+      <c r="N115" s="210"/>
+      <c r="O115" s="210"/>
+      <c r="P115" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="Q115" s="206"/>
-      <c r="R115" s="206" t="s">
+      <c r="Q115" s="233"/>
+      <c r="R115" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="S115" s="206"/>
-      <c r="T115" s="206" t="s">
+      <c r="S115" s="233"/>
+      <c r="T115" s="233" t="s">
         <v>142</v>
       </c>
-      <c r="U115" s="206"/>
-      <c r="V115" s="206" t="s">
+      <c r="U115" s="233"/>
+      <c r="V115" s="233" t="s">
         <v>137</v>
       </c>
-      <c r="W115" s="206"/>
-      <c r="X115" s="206" t="s">
+      <c r="W115" s="233"/>
+      <c r="X115" s="233" t="s">
         <v>180</v>
       </c>
-      <c r="Y115" s="206"/>
-      <c r="Z115" s="206" t="s">
+      <c r="Y115" s="233"/>
+      <c r="Z115" s="233" t="s">
         <v>142</v>
       </c>
-      <c r="AA115" s="206"/>
-      <c r="AB115" s="206" t="s">
+      <c r="AA115" s="233"/>
+      <c r="AB115" s="233" t="s">
         <v>340</v>
       </c>
-      <c r="AC115" s="206"/>
+      <c r="AC115" s="233"/>
       <c r="AE115" s="68"/>
       <c r="AF115"/>
       <c r="AP115" s="68"/>
@@ -14317,62 +14315,62 @@
       <c r="A116" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="206" t="s">
+      <c r="B116" s="233" t="s">
         <v>172</v>
       </c>
-      <c r="C116" s="206"/>
-      <c r="D116" s="206" t="s">
+      <c r="C116" s="233"/>
+      <c r="D116" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="E116" s="206"/>
-      <c r="F116" s="206" t="s">
+      <c r="E116" s="233"/>
+      <c r="F116" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="G116" s="206"/>
-      <c r="H116" s="206" t="s">
+      <c r="G116" s="233"/>
+      <c r="H116" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="I116" s="206"/>
-      <c r="J116" s="205" t="s">
+      <c r="I116" s="233"/>
+      <c r="J116" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="K116" s="205"/>
-      <c r="L116" s="205" t="s">
+      <c r="K116" s="210"/>
+      <c r="L116" s="210" t="s">
         <v>121</v>
       </c>
-      <c r="M116" s="205"/>
-      <c r="N116" s="206" t="s">
+      <c r="M116" s="210"/>
+      <c r="N116" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="O116" s="206"/>
-      <c r="P116" s="206" t="s">
+      <c r="O116" s="233"/>
+      <c r="P116" s="233" t="s">
         <v>172</v>
       </c>
-      <c r="Q116" s="206"/>
-      <c r="R116" s="206" t="s">
+      <c r="Q116" s="233"/>
+      <c r="R116" s="233" t="s">
         <v>172</v>
       </c>
-      <c r="S116" s="206"/>
-      <c r="T116" s="206" t="s">
+      <c r="S116" s="233"/>
+      <c r="T116" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="U116" s="206"/>
-      <c r="V116" s="206" t="s">
+      <c r="U116" s="233"/>
+      <c r="V116" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="W116" s="206"/>
-      <c r="X116" s="206" t="s">
+      <c r="W116" s="233"/>
+      <c r="X116" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="Y116" s="206"/>
-      <c r="Z116" s="206" t="s">
+      <c r="Y116" s="233"/>
+      <c r="Z116" s="233" t="s">
         <v>172</v>
       </c>
-      <c r="AA116" s="206"/>
-      <c r="AB116" s="206" t="s">
+      <c r="AA116" s="233"/>
+      <c r="AB116" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="AC116" s="206"/>
+      <c r="AC116" s="233"/>
       <c r="AE116" s="68"/>
       <c r="AF116"/>
       <c r="AP116" s="68"/>
@@ -14411,62 +14409,62 @@
       <c r="A117" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="B117" s="206" t="s">
+      <c r="B117" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="C117" s="206"/>
-      <c r="D117" s="206" t="s">
+      <c r="C117" s="233"/>
+      <c r="D117" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="E117" s="206"/>
-      <c r="F117" s="206" t="s">
+      <c r="E117" s="233"/>
+      <c r="F117" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="G117" s="206"/>
-      <c r="H117" s="206" t="s">
+      <c r="G117" s="233"/>
+      <c r="H117" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="I117" s="206"/>
-      <c r="J117" s="205" t="s">
+      <c r="I117" s="233"/>
+      <c r="J117" s="210" t="s">
         <v>122</v>
       </c>
-      <c r="K117" s="205"/>
-      <c r="L117" s="205" t="s">
+      <c r="K117" s="210"/>
+      <c r="L117" s="210" t="s">
         <v>122</v>
       </c>
-      <c r="M117" s="205"/>
-      <c r="N117" s="206" t="s">
+      <c r="M117" s="210"/>
+      <c r="N117" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="O117" s="206"/>
-      <c r="P117" s="206" t="s">
+      <c r="O117" s="233"/>
+      <c r="P117" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="Q117" s="206"/>
-      <c r="R117" s="206" t="s">
+      <c r="Q117" s="233"/>
+      <c r="R117" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="S117" s="206"/>
-      <c r="T117" s="206" t="s">
+      <c r="S117" s="233"/>
+      <c r="T117" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="U117" s="206"/>
-      <c r="V117" s="206" t="s">
+      <c r="U117" s="233"/>
+      <c r="V117" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="W117" s="206"/>
-      <c r="X117" s="206" t="s">
+      <c r="W117" s="233"/>
+      <c r="X117" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="Y117" s="206"/>
-      <c r="Z117" s="206" t="s">
+      <c r="Y117" s="233"/>
+      <c r="Z117" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="AA117" s="206"/>
-      <c r="AB117" s="206" t="s">
+      <c r="AA117" s="233"/>
+      <c r="AB117" s="233" t="s">
         <v>122</v>
       </c>
-      <c r="AC117" s="206"/>
+      <c r="AC117" s="233"/>
       <c r="AE117" s="68"/>
       <c r="AF117"/>
       <c r="AP117" s="68"/>
@@ -14505,62 +14503,62 @@
       <c r="A118" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="B118" s="213" t="s">
+      <c r="B118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="C118" s="213"/>
-      <c r="D118" s="213" t="s">
+      <c r="C118" s="204"/>
+      <c r="D118" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="E118" s="213"/>
-      <c r="F118" s="213" t="s">
+      <c r="E118" s="204"/>
+      <c r="F118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="G118" s="213"/>
-      <c r="H118" s="213" t="s">
+      <c r="G118" s="204"/>
+      <c r="H118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="I118" s="213"/>
-      <c r="J118" s="213" t="s">
+      <c r="I118" s="204"/>
+      <c r="J118" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="K118" s="213"/>
-      <c r="L118" s="213" t="s">
+      <c r="K118" s="204"/>
+      <c r="L118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="M118" s="213"/>
-      <c r="N118" s="213" t="s">
+      <c r="M118" s="204"/>
+      <c r="N118" s="204" t="s">
         <v>53</v>
       </c>
-      <c r="O118" s="213"/>
-      <c r="P118" s="213" t="s">
+      <c r="O118" s="204"/>
+      <c r="P118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="Q118" s="213"/>
-      <c r="R118" s="213" t="s">
+      <c r="Q118" s="204"/>
+      <c r="R118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="S118" s="213"/>
-      <c r="T118" s="213" t="s">
+      <c r="S118" s="204"/>
+      <c r="T118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="U118" s="213"/>
-      <c r="V118" s="213" t="s">
+      <c r="U118" s="204"/>
+      <c r="V118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="W118" s="213"/>
-      <c r="X118" s="213" t="s">
+      <c r="W118" s="204"/>
+      <c r="X118" s="204" t="s">
         <v>123</v>
       </c>
-      <c r="Y118" s="213"/>
-      <c r="Z118" s="213" t="s">
+      <c r="Y118" s="204"/>
+      <c r="Z118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="AA118" s="213"/>
-      <c r="AB118" s="213" t="s">
+      <c r="AA118" s="204"/>
+      <c r="AB118" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="AC118" s="213"/>
+      <c r="AC118" s="204"/>
       <c r="AE118" s="68"/>
       <c r="AF118"/>
       <c r="AP118" s="68"/>
@@ -14599,60 +14597,60 @@
       <c r="A119" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="B119" s="213" t="s">
+      <c r="B119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="213"/>
-      <c r="D119" s="213" t="s">
+      <c r="C119" s="204"/>
+      <c r="D119" s="204" t="s">
         <v>124</v>
       </c>
-      <c r="E119" s="213"/>
-      <c r="F119" s="213" t="s">
+      <c r="E119" s="204"/>
+      <c r="F119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="G119" s="213"/>
-      <c r="H119" s="213" t="s">
+      <c r="G119" s="204"/>
+      <c r="H119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="I119" s="213"/>
-      <c r="J119" s="213" t="s">
+      <c r="I119" s="204"/>
+      <c r="J119" s="204" t="s">
         <v>124</v>
       </c>
-      <c r="K119" s="213"/>
-      <c r="L119" s="213" t="s">
+      <c r="K119" s="204"/>
+      <c r="L119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="M119" s="213"/>
-      <c r="N119" s="213"/>
-      <c r="O119" s="213"/>
-      <c r="P119" s="213" t="s">
+      <c r="M119" s="204"/>
+      <c r="N119" s="204"/>
+      <c r="O119" s="204"/>
+      <c r="P119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="Q119" s="213"/>
-      <c r="R119" s="213" t="s">
+      <c r="Q119" s="204"/>
+      <c r="R119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="S119" s="213"/>
-      <c r="T119" s="213" t="s">
+      <c r="S119" s="204"/>
+      <c r="T119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="U119" s="213"/>
-      <c r="V119" s="213" t="s">
+      <c r="U119" s="204"/>
+      <c r="V119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="W119" s="213"/>
-      <c r="X119" s="213" t="s">
+      <c r="W119" s="204"/>
+      <c r="X119" s="204" t="s">
         <v>124</v>
       </c>
-      <c r="Y119" s="213"/>
-      <c r="Z119" s="213" t="s">
+      <c r="Y119" s="204"/>
+      <c r="Z119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="AA119" s="213"/>
-      <c r="AB119" s="213" t="s">
+      <c r="AA119" s="204"/>
+      <c r="AB119" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="AC119" s="213"/>
+      <c r="AC119" s="204"/>
       <c r="AE119" s="68"/>
       <c r="AF119"/>
       <c r="AP119" s="68"/>
@@ -14691,62 +14689,62 @@
       <c r="A120" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="206" t="s">
+      <c r="B120" s="233" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="206"/>
-      <c r="D120" s="206" t="s">
+      <c r="C120" s="233"/>
+      <c r="D120" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="E120" s="206"/>
-      <c r="F120" s="206" t="s">
+      <c r="E120" s="233"/>
+      <c r="F120" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="G120" s="206"/>
-      <c r="H120" s="206" t="s">
+      <c r="G120" s="233"/>
+      <c r="H120" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="I120" s="206"/>
-      <c r="J120" s="205" t="s">
+      <c r="I120" s="233"/>
+      <c r="J120" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="K120" s="205"/>
-      <c r="L120" s="205" t="s">
+      <c r="K120" s="210"/>
+      <c r="L120" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="M120" s="205"/>
-      <c r="N120" s="206" t="s">
+      <c r="M120" s="210"/>
+      <c r="N120" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="O120" s="206"/>
-      <c r="P120" s="206" t="s">
+      <c r="O120" s="233"/>
+      <c r="P120" s="233" t="s">
         <v>173</v>
       </c>
-      <c r="Q120" s="206"/>
-      <c r="R120" s="206" t="s">
+      <c r="Q120" s="233"/>
+      <c r="R120" s="233" t="s">
         <v>173</v>
       </c>
-      <c r="S120" s="206"/>
-      <c r="T120" s="206" t="s">
+      <c r="S120" s="233"/>
+      <c r="T120" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="U120" s="206"/>
-      <c r="V120" s="206" t="s">
+      <c r="U120" s="233"/>
+      <c r="V120" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="W120" s="206"/>
-      <c r="X120" s="206" t="s">
+      <c r="W120" s="233"/>
+      <c r="X120" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="Y120" s="206"/>
-      <c r="Z120" s="206" t="s">
+      <c r="Y120" s="233"/>
+      <c r="Z120" s="233" t="s">
         <v>173</v>
       </c>
-      <c r="AA120" s="206"/>
-      <c r="AB120" s="206" t="s">
+      <c r="AA120" s="233"/>
+      <c r="AB120" s="233" t="s">
         <v>125</v>
       </c>
-      <c r="AC120" s="206"/>
+      <c r="AC120" s="233"/>
       <c r="AE120" s="68"/>
       <c r="AF120"/>
       <c r="AP120" s="68"/>
@@ -14785,62 +14783,62 @@
       <c r="A121" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="B121" s="206" t="s">
+      <c r="B121" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="206"/>
-      <c r="D121" s="206" t="s">
+      <c r="C121" s="233"/>
+      <c r="D121" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="E121" s="206"/>
-      <c r="F121" s="206" t="s">
+      <c r="E121" s="233"/>
+      <c r="F121" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="G121" s="206"/>
-      <c r="H121" s="206" t="s">
+      <c r="G121" s="233"/>
+      <c r="H121" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="I121" s="206"/>
-      <c r="J121" s="205" t="s">
+      <c r="I121" s="233"/>
+      <c r="J121" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="K121" s="205"/>
-      <c r="L121" s="205" t="s">
+      <c r="K121" s="210"/>
+      <c r="L121" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="M121" s="205"/>
-      <c r="N121" s="206" t="s">
+      <c r="M121" s="210"/>
+      <c r="N121" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="O121" s="206"/>
-      <c r="P121" s="206" t="s">
+      <c r="O121" s="233"/>
+      <c r="P121" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="Q121" s="206"/>
-      <c r="R121" s="206" t="s">
+      <c r="Q121" s="233"/>
+      <c r="R121" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="S121" s="206"/>
-      <c r="T121" s="206" t="s">
+      <c r="S121" s="233"/>
+      <c r="T121" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="U121" s="206"/>
-      <c r="V121" s="206" t="s">
+      <c r="U121" s="233"/>
+      <c r="V121" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="W121" s="206"/>
-      <c r="X121" s="206" t="s">
+      <c r="W121" s="233"/>
+      <c r="X121" s="233" t="s">
         <v>139</v>
       </c>
-      <c r="Y121" s="206"/>
-      <c r="Z121" s="206" t="s">
+      <c r="Y121" s="233"/>
+      <c r="Z121" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="AA121" s="206"/>
-      <c r="AB121" s="206" t="s">
+      <c r="AA121" s="233"/>
+      <c r="AB121" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="AC121" s="206"/>
+      <c r="AC121" s="233"/>
       <c r="AE121" s="68"/>
       <c r="AF121"/>
       <c r="AP121" s="68"/>
@@ -14879,62 +14877,62 @@
       <c r="A122" s="196" t="s">
         <v>117</v>
       </c>
-      <c r="B122" s="206" t="s">
+      <c r="B122" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="C122" s="206"/>
-      <c r="D122" s="206" t="s">
+      <c r="C122" s="233"/>
+      <c r="D122" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="E122" s="206"/>
-      <c r="F122" s="206" t="s">
+      <c r="E122" s="233"/>
+      <c r="F122" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="G122" s="206"/>
-      <c r="H122" s="206" t="s">
+      <c r="G122" s="233"/>
+      <c r="H122" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="I122" s="206"/>
-      <c r="J122" s="205" t="s">
+      <c r="I122" s="233"/>
+      <c r="J122" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="K122" s="205"/>
-      <c r="L122" s="205" t="s">
+      <c r="K122" s="210"/>
+      <c r="L122" s="210" t="s">
         <v>127</v>
       </c>
-      <c r="M122" s="205"/>
-      <c r="N122" s="206" t="s">
+      <c r="M122" s="210"/>
+      <c r="N122" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="O122" s="206"/>
-      <c r="P122" s="206" t="s">
+      <c r="O122" s="233"/>
+      <c r="P122" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="Q122" s="206"/>
-      <c r="R122" s="206" t="s">
+      <c r="Q122" s="233"/>
+      <c r="R122" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="S122" s="206"/>
-      <c r="T122" s="206" t="s">
+      <c r="S122" s="233"/>
+      <c r="T122" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="U122" s="206"/>
-      <c r="V122" s="206" t="s">
+      <c r="U122" s="233"/>
+      <c r="V122" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="W122" s="206"/>
-      <c r="X122" s="206" t="s">
+      <c r="W122" s="233"/>
+      <c r="X122" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="Y122" s="206"/>
-      <c r="Z122" s="206" t="s">
+      <c r="Y122" s="233"/>
+      <c r="Z122" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="AA122" s="206"/>
-      <c r="AB122" s="206" t="s">
+      <c r="AA122" s="233"/>
+      <c r="AB122" s="233" t="s">
         <v>127</v>
       </c>
-      <c r="AC122" s="206"/>
+      <c r="AC122" s="233"/>
       <c r="AE122" s="68"/>
       <c r="AF122"/>
       <c r="AP122" s="68"/>
@@ -14973,62 +14971,62 @@
       <c r="A123" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="B123" s="206" t="s">
+      <c r="B123" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="C123" s="206"/>
-      <c r="D123" s="206" t="s">
+      <c r="C123" s="233"/>
+      <c r="D123" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="E123" s="206"/>
-      <c r="F123" s="206" t="s">
+      <c r="E123" s="233"/>
+      <c r="F123" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="G123" s="206"/>
-      <c r="H123" s="206" t="s">
+      <c r="G123" s="233"/>
+      <c r="H123" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="I123" s="206"/>
-      <c r="J123" s="205" t="s">
+      <c r="I123" s="233"/>
+      <c r="J123" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="K123" s="205"/>
-      <c r="L123" s="205" t="s">
+      <c r="K123" s="210"/>
+      <c r="L123" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="M123" s="205"/>
-      <c r="N123" s="206" t="s">
+      <c r="M123" s="210"/>
+      <c r="N123" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="O123" s="206"/>
-      <c r="P123" s="206" t="s">
+      <c r="O123" s="233"/>
+      <c r="P123" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="Q123" s="206"/>
-      <c r="R123" s="206" t="s">
+      <c r="Q123" s="233"/>
+      <c r="R123" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="S123" s="206"/>
-      <c r="T123" s="206" t="s">
+      <c r="S123" s="233"/>
+      <c r="T123" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="U123" s="206"/>
-      <c r="V123" s="206" t="s">
+      <c r="U123" s="233"/>
+      <c r="V123" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="W123" s="206"/>
-      <c r="X123" s="206" t="s">
+      <c r="W123" s="233"/>
+      <c r="X123" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="Y123" s="206"/>
-      <c r="Z123" s="206" t="s">
+      <c r="Y123" s="233"/>
+      <c r="Z123" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="AA123" s="206"/>
-      <c r="AB123" s="206" t="s">
+      <c r="AA123" s="233"/>
+      <c r="AB123" s="233" t="s">
         <v>128</v>
       </c>
-      <c r="AC123" s="206"/>
+      <c r="AC123" s="233"/>
       <c r="AE123" s="68"/>
       <c r="AF123"/>
       <c r="AP123" s="68"/>
@@ -15093,11 +15091,11 @@
       <c r="BX124" s="59"/>
     </row>
     <row r="125" spans="1:76" x14ac:dyDescent="0.35">
-      <c r="B125" s="245" t="s">
+      <c r="B125" s="268" t="s">
         <v>350</v>
       </c>
-      <c r="C125" s="246"/>
-      <c r="D125" s="247"/>
+      <c r="C125" s="269"/>
+      <c r="D125" s="270"/>
       <c r="AX125" s="59"/>
       <c r="AY125" s="59"/>
       <c r="AZ125" s="59"/>
@@ -15130,11 +15128,11 @@
       <c r="A126" s="198" t="s">
         <v>108</v>
       </c>
-      <c r="B126" s="210" t="s">
+      <c r="B126" s="235" t="s">
         <v>110</v>
       </c>
-      <c r="C126" s="210"/>
-      <c r="D126" s="210"/>
+      <c r="C126" s="235"/>
+      <c r="D126" s="235"/>
       <c r="AX126" s="59"/>
       <c r="AY126" s="59"/>
       <c r="AZ126" s="59"/>
@@ -15167,11 +15165,11 @@
       <c r="A127" s="198" t="s">
         <v>109</v>
       </c>
-      <c r="B127" s="213" t="s">
+      <c r="B127" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="C127" s="213"/>
-      <c r="D127" s="213"/>
+      <c r="C127" s="204"/>
+      <c r="D127" s="204"/>
       <c r="AX127" s="59"/>
       <c r="AY127" s="59"/>
       <c r="AZ127" s="59"/>
@@ -15204,11 +15202,11 @@
       <c r="A128" s="198" t="s">
         <v>253</v>
       </c>
-      <c r="B128" s="205" t="s">
+      <c r="B128" s="210" t="s">
         <v>179</v>
       </c>
-      <c r="C128" s="205"/>
-      <c r="D128" s="205"/>
+      <c r="C128" s="210"/>
+      <c r="D128" s="210"/>
       <c r="AX128" s="59"/>
       <c r="AY128" s="59"/>
       <c r="AZ128" s="59"/>
@@ -15241,11 +15239,11 @@
       <c r="A129" s="196" t="s">
         <v>90</v>
       </c>
-      <c r="B129" s="205" t="s">
+      <c r="B129" s="210" t="s">
         <v>170</v>
       </c>
-      <c r="C129" s="205"/>
-      <c r="D129" s="205"/>
+      <c r="C129" s="210"/>
+      <c r="D129" s="210"/>
       <c r="AX129" s="59"/>
       <c r="AY129" s="59"/>
       <c r="AZ129" s="59"/>
@@ -15278,11 +15276,11 @@
       <c r="A130" s="198" t="s">
         <v>91</v>
       </c>
-      <c r="B130" s="205" t="s">
+      <c r="B130" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="C130" s="205"/>
-      <c r="D130" s="205"/>
+      <c r="C130" s="210"/>
+      <c r="D130" s="210"/>
       <c r="AX130" s="59"/>
       <c r="AY130" s="59"/>
       <c r="AZ130" s="59"/>
@@ -15315,11 +15313,11 @@
       <c r="A131" s="196" t="s">
         <v>254</v>
       </c>
-      <c r="B131" s="205" t="s">
+      <c r="B131" s="210" t="s">
         <v>255</v>
       </c>
-      <c r="C131" s="205"/>
-      <c r="D131" s="205"/>
+      <c r="C131" s="210"/>
+      <c r="D131" s="210"/>
       <c r="AX131" s="59"/>
       <c r="AY131" s="59"/>
       <c r="AZ131" s="59"/>
@@ -15352,11 +15350,11 @@
       <c r="A132" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="B132" s="205" t="s">
+      <c r="B132" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="C132" s="205"/>
-      <c r="D132" s="205"/>
+      <c r="C132" s="210"/>
+      <c r="D132" s="210"/>
       <c r="AX132" s="59"/>
       <c r="AY132" s="59"/>
       <c r="AZ132" s="59"/>
@@ -15389,179 +15387,825 @@
       <c r="A133" s="198" t="s">
         <v>113</v>
       </c>
-      <c r="B133" s="205" t="s">
+      <c r="B133" s="210" t="s">
         <v>122</v>
       </c>
-      <c r="C133" s="205"/>
-      <c r="D133" s="205"/>
+      <c r="C133" s="210"/>
+      <c r="D133" s="210"/>
     </row>
     <row r="134" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A134" s="198" t="s">
         <v>257</v>
       </c>
-      <c r="B134" s="205" t="s">
+      <c r="B134" s="210" t="s">
         <v>256</v>
       </c>
-      <c r="C134" s="205"/>
-      <c r="D134" s="205"/>
+      <c r="C134" s="210"/>
+      <c r="D134" s="210"/>
     </row>
     <row r="135" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A135" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="B135" s="213" t="s">
+      <c r="B135" s="204" t="s">
         <v>111</v>
       </c>
-      <c r="C135" s="213"/>
-      <c r="D135" s="213"/>
+      <c r="C135" s="204"/>
+      <c r="D135" s="204"/>
     </row>
     <row r="136" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A136" s="198" t="s">
         <v>51</v>
       </c>
-      <c r="B136" s="213" t="s">
+      <c r="B136" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="C136" s="213"/>
-      <c r="D136" s="213"/>
+      <c r="C136" s="204"/>
+      <c r="D136" s="204"/>
     </row>
     <row r="137" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A137" s="198" t="s">
         <v>259</v>
       </c>
-      <c r="B137" s="213" t="s">
+      <c r="B137" s="204" t="s">
         <v>258</v>
       </c>
-      <c r="C137" s="213"/>
-      <c r="D137" s="213"/>
+      <c r="C137" s="204"/>
+      <c r="D137" s="204"/>
     </row>
     <row r="138" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A138" s="198" t="s">
         <v>115</v>
       </c>
-      <c r="B138" s="205" t="s">
+      <c r="B138" s="210" t="s">
         <v>173</v>
       </c>
-      <c r="C138" s="205"/>
-      <c r="D138" s="205"/>
+      <c r="C138" s="210"/>
+      <c r="D138" s="210"/>
     </row>
     <row r="139" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A139" s="198" t="s">
         <v>116</v>
       </c>
-      <c r="B139" s="205" t="s">
+      <c r="B139" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="C139" s="205"/>
-      <c r="D139" s="205"/>
+      <c r="C139" s="210"/>
+      <c r="D139" s="210"/>
     </row>
     <row r="140" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A140" s="198" t="s">
         <v>261</v>
       </c>
-      <c r="B140" s="205" t="s">
+      <c r="B140" s="210" t="s">
         <v>260</v>
       </c>
-      <c r="C140" s="205"/>
-      <c r="D140" s="205"/>
+      <c r="C140" s="210"/>
+      <c r="D140" s="210"/>
     </row>
     <row r="141" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A141" s="198" t="s">
         <v>117</v>
       </c>
-      <c r="B141" s="205" t="s">
+      <c r="B141" s="210" t="s">
         <v>174</v>
       </c>
-      <c r="C141" s="205"/>
-      <c r="D141" s="205"/>
+      <c r="C141" s="210"/>
+      <c r="D141" s="210"/>
     </row>
     <row r="142" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A142" s="198" t="s">
         <v>118</v>
       </c>
-      <c r="B142" s="205" t="s">
+      <c r="B142" s="210" t="s">
         <v>128</v>
       </c>
-      <c r="C142" s="205"/>
-      <c r="D142" s="205"/>
+      <c r="C142" s="210"/>
+      <c r="D142" s="210"/>
     </row>
     <row r="143" spans="1:76" x14ac:dyDescent="0.35">
       <c r="A143" s="196" t="s">
         <v>262</v>
       </c>
-      <c r="B143" s="205" t="s">
+      <c r="B143" s="210" t="s">
         <v>263</v>
       </c>
-      <c r="C143" s="205"/>
-      <c r="D143" s="205"/>
+      <c r="C143" s="210"/>
+      <c r="D143" s="210"/>
     </row>
   </sheetData>
-  <mergeCells count="807">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="L116:M116"/>
-    <mergeCell ref="L117:M117"/>
-    <mergeCell ref="L118:M118"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="H62:I63"/>
-    <mergeCell ref="H66:I67"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="W45:W46"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="T45:T46"/>
-    <mergeCell ref="L68:M69"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="D91:E92"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="S45:S46"/>
-    <mergeCell ref="N39:N40"/>
-    <mergeCell ref="O39:O40"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="Z9:Z10"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="P21:P22"/>
+  <mergeCells count="808">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="AR71:AS71"/>
+    <mergeCell ref="AJ72:AK72"/>
+    <mergeCell ref="AR72:AS72"/>
+    <mergeCell ref="T91:U92"/>
+    <mergeCell ref="T93:U93"/>
+    <mergeCell ref="T94:U94"/>
+    <mergeCell ref="T95:U95"/>
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q90"/>
+    <mergeCell ref="P91:Q92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="AP70:AQ70"/>
+    <mergeCell ref="AP71:AQ71"/>
+    <mergeCell ref="AP72:AQ72"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="AL71:AM71"/>
+    <mergeCell ref="AN71:AO71"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="N91:O92"/>
+    <mergeCell ref="T88:U90"/>
+    <mergeCell ref="N88:O90"/>
+    <mergeCell ref="R88:S90"/>
+    <mergeCell ref="AL72:AM72"/>
+    <mergeCell ref="AN72:AO72"/>
+    <mergeCell ref="AJ71:AK71"/>
+    <mergeCell ref="AR62:AS63"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="AJ64:AK64"/>
+    <mergeCell ref="AR64:AS64"/>
+    <mergeCell ref="AN62:AO62"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="AN63:AO63"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="AL64:AM64"/>
+    <mergeCell ref="AJ66:AK67"/>
+    <mergeCell ref="AR66:AS67"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="V66:W67"/>
+    <mergeCell ref="X66:Y67"/>
+    <mergeCell ref="Z66:AA67"/>
+    <mergeCell ref="AJ68:AK69"/>
+    <mergeCell ref="AR68:AS69"/>
+    <mergeCell ref="AL66:AM67"/>
+    <mergeCell ref="AN64:AO67"/>
+    <mergeCell ref="AH68:AI69"/>
+    <mergeCell ref="AL68:AM69"/>
+    <mergeCell ref="AN68:AO69"/>
+    <mergeCell ref="X68:Y69"/>
+    <mergeCell ref="Z68:AA69"/>
+    <mergeCell ref="AF65:AG65"/>
+    <mergeCell ref="AT64:AU67"/>
+    <mergeCell ref="AD66:AE67"/>
+    <mergeCell ref="N66:O67"/>
+    <mergeCell ref="H86:I87"/>
+    <mergeCell ref="AP66:AQ67"/>
+    <mergeCell ref="AR65:AS65"/>
+    <mergeCell ref="AH71:AI71"/>
+    <mergeCell ref="AH72:AI72"/>
+    <mergeCell ref="AH66:AI67"/>
+    <mergeCell ref="AD65:AE65"/>
+    <mergeCell ref="AH64:AI64"/>
+    <mergeCell ref="AD69:AE69"/>
+    <mergeCell ref="AF64:AG64"/>
+    <mergeCell ref="AD68:AE68"/>
+    <mergeCell ref="AF68:AG69"/>
+    <mergeCell ref="AD71:AE71"/>
+    <mergeCell ref="AF71:AG71"/>
+    <mergeCell ref="AD72:AE72"/>
+    <mergeCell ref="AF72:AG72"/>
+    <mergeCell ref="AT72:AU72"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="R66:S67"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="P66:Q67"/>
+    <mergeCell ref="T68:U69"/>
+    <mergeCell ref="AP61:AQ61"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="H91:I92"/>
+    <mergeCell ref="R91:S92"/>
+    <mergeCell ref="AP62:AQ63"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="AP64:AQ64"/>
+    <mergeCell ref="AP65:AQ65"/>
+    <mergeCell ref="AP68:AQ69"/>
+    <mergeCell ref="AH61:AI61"/>
+    <mergeCell ref="AL61:AM61"/>
+    <mergeCell ref="AN61:AO61"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="AD62:AE63"/>
+    <mergeCell ref="AF62:AG63"/>
+    <mergeCell ref="AH62:AI63"/>
+    <mergeCell ref="AL62:AM63"/>
+    <mergeCell ref="AL65:AM65"/>
+    <mergeCell ref="AF66:AG67"/>
+    <mergeCell ref="AH65:AI65"/>
+    <mergeCell ref="AJ62:AK63"/>
+    <mergeCell ref="AJ65:AK65"/>
+    <mergeCell ref="R68:S69"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="AB61:AC61"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="AB64:AC64"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="AB65:AC65"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="L62:M63"/>
+    <mergeCell ref="AB62:AC63"/>
+    <mergeCell ref="D86:E87"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="Z123:AA123"/>
+    <mergeCell ref="AB123:AC123"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="V123:W123"/>
+    <mergeCell ref="X123:Y123"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="R123:S123"/>
+    <mergeCell ref="Z122:AA122"/>
+    <mergeCell ref="AB122:AC122"/>
+    <mergeCell ref="V121:W121"/>
+    <mergeCell ref="X121:Y121"/>
+    <mergeCell ref="V122:W122"/>
+    <mergeCell ref="X122:Y122"/>
+    <mergeCell ref="X117:Y117"/>
+    <mergeCell ref="V118:W118"/>
+    <mergeCell ref="X118:Y118"/>
+    <mergeCell ref="Z119:AA119"/>
+    <mergeCell ref="X120:Y120"/>
+    <mergeCell ref="AB119:AC119"/>
+    <mergeCell ref="Z120:AA120"/>
+    <mergeCell ref="AB120:AC120"/>
+    <mergeCell ref="X119:Y119"/>
+    <mergeCell ref="X115:Y115"/>
+    <mergeCell ref="V116:W116"/>
+    <mergeCell ref="X116:Y116"/>
+    <mergeCell ref="Z121:AA121"/>
+    <mergeCell ref="AB121:AC121"/>
+    <mergeCell ref="Z115:AA115"/>
+    <mergeCell ref="AB115:AC115"/>
+    <mergeCell ref="Z116:AA116"/>
+    <mergeCell ref="AB116:AC116"/>
+    <mergeCell ref="Z117:AA117"/>
+    <mergeCell ref="AB117:AC117"/>
+    <mergeCell ref="Z118:AA118"/>
+    <mergeCell ref="AB118:AC118"/>
+    <mergeCell ref="V117:W117"/>
+    <mergeCell ref="V115:W115"/>
+    <mergeCell ref="V120:W120"/>
+    <mergeCell ref="X114:Y114"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="L88:M90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="AB114:AC114"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="AB111:AC111"/>
+    <mergeCell ref="Z112:AA112"/>
+    <mergeCell ref="AB112:AC112"/>
+    <mergeCell ref="AB72:AC72"/>
+    <mergeCell ref="Z113:AA113"/>
+    <mergeCell ref="AB113:AC113"/>
+    <mergeCell ref="Z114:AA114"/>
+    <mergeCell ref="Z111:AA111"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="R112:S112"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="V111:W111"/>
+    <mergeCell ref="X111:Y111"/>
+    <mergeCell ref="V112:W112"/>
+    <mergeCell ref="X112:Y112"/>
+    <mergeCell ref="V113:W113"/>
+    <mergeCell ref="X113:Y113"/>
+    <mergeCell ref="V114:W114"/>
+    <mergeCell ref="AT68:AU69"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="AT71:AU71"/>
+    <mergeCell ref="AT70:AU70"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="AN70:AO70"/>
+    <mergeCell ref="AL70:AM70"/>
+    <mergeCell ref="AB71:AC71"/>
+    <mergeCell ref="AB68:AC69"/>
+    <mergeCell ref="AB70:AC70"/>
+    <mergeCell ref="AD70:AE70"/>
+    <mergeCell ref="AF70:AG70"/>
+    <mergeCell ref="AH70:AI70"/>
+    <mergeCell ref="AJ70:AK70"/>
+    <mergeCell ref="AR70:AS70"/>
+    <mergeCell ref="AT61:AU61"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="AT62:AU62"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="AT63:AU63"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="AF61:AG61"/>
+    <mergeCell ref="AD61:AE61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="V62:W63"/>
+    <mergeCell ref="X62:Y63"/>
+    <mergeCell ref="Z62:AA63"/>
+    <mergeCell ref="AJ61:AK61"/>
+    <mergeCell ref="AR61:AS61"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="R119:S119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="V119:W119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="R116:S116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="R117:S117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="P118:Q118"/>
+    <mergeCell ref="R118:S118"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="T119:U119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="R113:S113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="R114:S114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="R115:S115"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="D68:E69"/>
+    <mergeCell ref="L91:M92"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="N68:O69"/>
+    <mergeCell ref="N64:O65"/>
+    <mergeCell ref="J88:K89"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="F91:G92"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="AD64:AE64"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="H101:I103"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F66:G67"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="AB66:AC67"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="Z70:AA70"/>
+    <mergeCell ref="Z71:AA71"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="P68:Q69"/>
+    <mergeCell ref="V68:W69"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="T121:U121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="T122:U122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="T123:U123"/>
+    <mergeCell ref="R121:S121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="R122:S122"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="T120:U120"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="T117:U117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="T118:U118"/>
+    <mergeCell ref="N118:O119"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="R120:S120"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="T111:U111"/>
+    <mergeCell ref="T112:U112"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="R111:S111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="J62:K63"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="T116:U116"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="T113:U113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="T114:U114"/>
+    <mergeCell ref="N114:O115"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="T115:U115"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="B68:C69"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E67"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="N62:O63"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C67"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="F68:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H68:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B91:C92"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D101:E103"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="R62:S63"/>
+    <mergeCell ref="T62:U63"/>
+    <mergeCell ref="B99:C100"/>
+    <mergeCell ref="P62:Q63"/>
+    <mergeCell ref="B86:C87"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="L66:M67"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="V43:V44"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="U45:U46"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="X7:X8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="AE7:AE8"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AC7:AC8"/>
+    <mergeCell ref="AX9:AX10"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AN3:AN4"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="AH7:AH8"/>
+    <mergeCell ref="AK7:AK8"/>
+    <mergeCell ref="AV9:AV10"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AT7:AT8"/>
+    <mergeCell ref="AW9:AW10"/>
+    <mergeCell ref="AS7:AS8"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AX7:AX8"/>
+    <mergeCell ref="AR3:AR4"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AL7:AL8"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AY5:AY6"/>
+    <mergeCell ref="AY7:AY8"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="AR7:AR8"/>
+    <mergeCell ref="AP3:AP4"/>
+    <mergeCell ref="AF3:AF4"/>
+    <mergeCell ref="AH3:AH4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="AN7:AN8"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="AD7:AD8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="AJ3:AJ4"/>
+    <mergeCell ref="AL3:AL4"/>
+    <mergeCell ref="AM3:AM4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="AO7:AO8"/>
     <mergeCell ref="AP7:AP8"/>
@@ -15586,724 +16230,79 @@
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AY5:AY6"/>
-    <mergeCell ref="AY7:AY8"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="AR7:AR8"/>
-    <mergeCell ref="AP3:AP4"/>
-    <mergeCell ref="AF3:AF4"/>
-    <mergeCell ref="AH3:AH4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="AN7:AN8"/>
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="AD7:AD8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="AJ3:AJ4"/>
-    <mergeCell ref="AL3:AL4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="AJ9:AJ10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC7:AC8"/>
-    <mergeCell ref="AX9:AX10"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AN3:AN4"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="AK7:AK8"/>
-    <mergeCell ref="AV9:AV10"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AT7:AT8"/>
-    <mergeCell ref="AW9:AW10"/>
-    <mergeCell ref="AS7:AS8"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AX7:AX8"/>
-    <mergeCell ref="AR3:AR4"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AL7:AL8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="X7:X8"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="O27:O28"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="L39:L40"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="V43:V44"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="U45:U46"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="P43:P44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="R21:R22"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="W45:W46"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="L68:M69"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="D91:E92"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
     <mergeCell ref="R61:S61"/>
     <mergeCell ref="T61:U61"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="R62:S63"/>
-    <mergeCell ref="T62:U63"/>
-    <mergeCell ref="B99:C100"/>
-    <mergeCell ref="P62:Q63"/>
-    <mergeCell ref="B86:C87"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B91:C92"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="L66:M67"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C67"/>
-    <mergeCell ref="N111:O111"/>
-    <mergeCell ref="L111:M111"/>
-    <mergeCell ref="B68:C69"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E67"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="N62:O63"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="J45:J46"/>
     <mergeCell ref="L45:L46"/>
     <mergeCell ref="M43:M44"/>
     <mergeCell ref="M45:M46"/>
     <mergeCell ref="N45:N46"/>
     <mergeCell ref="O45:O46"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="F68:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H68:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="T116:U116"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="T113:U113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="T114:U114"/>
-    <mergeCell ref="N114:O115"/>
-    <mergeCell ref="N113:O113"/>
-    <mergeCell ref="N116:O116"/>
-    <mergeCell ref="T115:U115"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="N112:O112"/>
-    <mergeCell ref="T111:U111"/>
-    <mergeCell ref="T112:U112"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="R111:S111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="L113:M113"/>
-    <mergeCell ref="J62:K63"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="T120:U120"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="T117:U117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="T118:U118"/>
-    <mergeCell ref="N118:O119"/>
-    <mergeCell ref="N117:O117"/>
-    <mergeCell ref="N120:O120"/>
-    <mergeCell ref="R120:S120"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="L119:M119"/>
-    <mergeCell ref="L120:M120"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="T121:U121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="T122:U122"/>
-    <mergeCell ref="N122:O122"/>
-    <mergeCell ref="N123:O123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="T123:U123"/>
-    <mergeCell ref="R121:S121"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="R122:S122"/>
-    <mergeCell ref="L123:M123"/>
-    <mergeCell ref="L121:M121"/>
-    <mergeCell ref="L122:M122"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="AD64:AE64"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="H101:I103"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F66:G67"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="D68:E69"/>
-    <mergeCell ref="L91:M92"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="N68:O69"/>
-    <mergeCell ref="N64:O65"/>
-    <mergeCell ref="J88:K89"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="R113:S113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="R114:S114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="R115:S115"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="L114:M114"/>
-    <mergeCell ref="L115:M115"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="R119:S119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="V119:W119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="R116:S116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="R117:S117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="P118:Q118"/>
-    <mergeCell ref="R118:S118"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="T119:U119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="AB66:AC67"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="F91:G92"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="Z71:AA71"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="AT61:AU61"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="AT62:AU62"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="AT63:AU63"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="AF61:AG61"/>
-    <mergeCell ref="AD61:AE61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="V62:W63"/>
-    <mergeCell ref="X62:Y63"/>
-    <mergeCell ref="Z62:AA63"/>
-    <mergeCell ref="AJ61:AK61"/>
-    <mergeCell ref="AR61:AS61"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="AT68:AU69"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="AT71:AU71"/>
-    <mergeCell ref="AT70:AU70"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="AN70:AO70"/>
-    <mergeCell ref="AL70:AM70"/>
-    <mergeCell ref="AB71:AC71"/>
-    <mergeCell ref="AB68:AC69"/>
-    <mergeCell ref="AB70:AC70"/>
-    <mergeCell ref="AD70:AE70"/>
-    <mergeCell ref="AF70:AG70"/>
-    <mergeCell ref="AH70:AI70"/>
-    <mergeCell ref="AJ70:AK70"/>
-    <mergeCell ref="AR70:AS70"/>
-    <mergeCell ref="AB114:AC114"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="AB111:AC111"/>
-    <mergeCell ref="Z112:AA112"/>
-    <mergeCell ref="AB112:AC112"/>
-    <mergeCell ref="AB72:AC72"/>
-    <mergeCell ref="Z113:AA113"/>
-    <mergeCell ref="AB113:AC113"/>
-    <mergeCell ref="Z114:AA114"/>
-    <mergeCell ref="Z111:AA111"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="R112:S112"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:M112"/>
-    <mergeCell ref="V111:W111"/>
-    <mergeCell ref="X111:Y111"/>
-    <mergeCell ref="V112:W112"/>
-    <mergeCell ref="X112:Y112"/>
-    <mergeCell ref="V113:W113"/>
-    <mergeCell ref="X113:Y113"/>
-    <mergeCell ref="V114:W114"/>
-    <mergeCell ref="X114:Y114"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="P68:Q69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="V68:W69"/>
-    <mergeCell ref="L88:M90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="B104:C104"/>
     <mergeCell ref="V70:W70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="X115:Y115"/>
-    <mergeCell ref="V116:W116"/>
-    <mergeCell ref="X116:Y116"/>
-    <mergeCell ref="Z121:AA121"/>
-    <mergeCell ref="AB121:AC121"/>
-    <mergeCell ref="Z115:AA115"/>
-    <mergeCell ref="AB115:AC115"/>
-    <mergeCell ref="Z116:AA116"/>
-    <mergeCell ref="AB116:AC116"/>
-    <mergeCell ref="Z117:AA117"/>
-    <mergeCell ref="AB117:AC117"/>
-    <mergeCell ref="Z118:AA118"/>
-    <mergeCell ref="AB118:AC118"/>
-    <mergeCell ref="V117:W117"/>
-    <mergeCell ref="V115:W115"/>
-    <mergeCell ref="V120:W120"/>
-    <mergeCell ref="Z122:AA122"/>
-    <mergeCell ref="AB122:AC122"/>
-    <mergeCell ref="V121:W121"/>
-    <mergeCell ref="X121:Y121"/>
-    <mergeCell ref="V122:W122"/>
-    <mergeCell ref="X122:Y122"/>
-    <mergeCell ref="X117:Y117"/>
-    <mergeCell ref="V118:W118"/>
-    <mergeCell ref="X118:Y118"/>
-    <mergeCell ref="Z119:AA119"/>
-    <mergeCell ref="X120:Y120"/>
-    <mergeCell ref="AB119:AC119"/>
-    <mergeCell ref="Z120:AA120"/>
-    <mergeCell ref="AB120:AC120"/>
-    <mergeCell ref="X119:Y119"/>
-    <mergeCell ref="Z123:AA123"/>
-    <mergeCell ref="AB123:AC123"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="V123:W123"/>
-    <mergeCell ref="X123:Y123"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="R123:S123"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="AB61:AC61"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="AB64:AC64"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="AB65:AC65"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="L62:M63"/>
-    <mergeCell ref="AB62:AC63"/>
-    <mergeCell ref="D86:E87"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="AP61:AQ61"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="H91:I92"/>
-    <mergeCell ref="R91:S92"/>
-    <mergeCell ref="AP62:AQ63"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="AP64:AQ64"/>
-    <mergeCell ref="AP65:AQ65"/>
-    <mergeCell ref="AP68:AQ69"/>
-    <mergeCell ref="AH61:AI61"/>
-    <mergeCell ref="AL61:AM61"/>
-    <mergeCell ref="AN61:AO61"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="AD62:AE63"/>
-    <mergeCell ref="AF62:AG63"/>
-    <mergeCell ref="AH62:AI63"/>
-    <mergeCell ref="AL62:AM63"/>
-    <mergeCell ref="AL65:AM65"/>
-    <mergeCell ref="AF66:AG67"/>
-    <mergeCell ref="AH65:AI65"/>
-    <mergeCell ref="AJ62:AK63"/>
-    <mergeCell ref="AJ65:AK65"/>
-    <mergeCell ref="R68:S69"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D101:E103"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="R66:S67"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="P66:Q67"/>
-    <mergeCell ref="T68:U69"/>
-    <mergeCell ref="AN68:AO69"/>
-    <mergeCell ref="X68:Y69"/>
-    <mergeCell ref="Z68:AA69"/>
-    <mergeCell ref="AF65:AG65"/>
-    <mergeCell ref="AT64:AU67"/>
-    <mergeCell ref="AD66:AE67"/>
-    <mergeCell ref="N66:O67"/>
-    <mergeCell ref="H86:I87"/>
-    <mergeCell ref="AP66:AQ67"/>
-    <mergeCell ref="AR65:AS65"/>
-    <mergeCell ref="AH71:AI71"/>
-    <mergeCell ref="AH72:AI72"/>
-    <mergeCell ref="AH66:AI67"/>
-    <mergeCell ref="AD65:AE65"/>
-    <mergeCell ref="AH64:AI64"/>
-    <mergeCell ref="AD69:AE69"/>
-    <mergeCell ref="AF64:AG64"/>
-    <mergeCell ref="AD68:AE68"/>
-    <mergeCell ref="AF68:AG69"/>
-    <mergeCell ref="AD71:AE71"/>
-    <mergeCell ref="AF71:AG71"/>
-    <mergeCell ref="AD72:AE72"/>
-    <mergeCell ref="AF72:AG72"/>
-    <mergeCell ref="AT72:AU72"/>
-    <mergeCell ref="AR62:AS63"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="AJ64:AK64"/>
-    <mergeCell ref="AR64:AS64"/>
-    <mergeCell ref="AN62:AO62"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="AN63:AO63"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="AL64:AM64"/>
-    <mergeCell ref="AJ66:AK67"/>
-    <mergeCell ref="AR66:AS67"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="V66:W67"/>
-    <mergeCell ref="X66:Y67"/>
-    <mergeCell ref="Z66:AA67"/>
-    <mergeCell ref="AJ68:AK69"/>
-    <mergeCell ref="AR68:AS69"/>
-    <mergeCell ref="AL66:AM67"/>
-    <mergeCell ref="AN64:AO67"/>
-    <mergeCell ref="AH68:AI69"/>
-    <mergeCell ref="AL68:AM69"/>
-    <mergeCell ref="AP70:AQ70"/>
-    <mergeCell ref="AP71:AQ71"/>
-    <mergeCell ref="AP72:AQ72"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="AL71:AM71"/>
-    <mergeCell ref="AN71:AO71"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="N91:O92"/>
-    <mergeCell ref="T88:U90"/>
-    <mergeCell ref="N88:O90"/>
-    <mergeCell ref="R88:S90"/>
-    <mergeCell ref="AL72:AM72"/>
-    <mergeCell ref="AN72:AO72"/>
-    <mergeCell ref="AJ71:AK71"/>
-    <mergeCell ref="AR71:AS71"/>
-    <mergeCell ref="AJ72:AK72"/>
-    <mergeCell ref="AR72:AS72"/>
-    <mergeCell ref="T91:U92"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="T94:U94"/>
-    <mergeCell ref="T95:U95"/>
-    <mergeCell ref="T96:U96"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="P88:Q90"/>
-    <mergeCell ref="P91:Q92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="K33:K34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
